--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Movable</t>
+  </si>
+  <si>
     <t>IntData</t>
   </si>
   <si>
@@ -60,6 +63,306 @@
   </si>
   <si>
     <t>Int[]</t>
+  </si>
+  <si>
+    <t>A_Lv1</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
+  </si>
+  <si>
+    <t>Item/A/item_A_5_lv1</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>A_Lv2</t>
+  </si>
+  <si>
+    <t>Item/A/item_A_5_lv2</t>
+  </si>
+  <si>
+    <t>A_Lv3</t>
+  </si>
+  <si>
+    <t>Item/A/item_A_5_lv3</t>
+  </si>
+  <si>
+    <t>A_Lv4</t>
+  </si>
+  <si>
+    <t>Item/A/item_A_5_lv4</t>
+  </si>
+  <si>
+    <t>A_Lv5</t>
+  </si>
+  <si>
+    <t>Item/A/item_A_5_lv5</t>
+  </si>
+  <si>
+    <t>Cake_Lv1</t>
+  </si>
+  <si>
+    <t>Item/Cake/item_Cake_7_lv1</t>
+  </si>
+  <si>
+    <t>Cake_Lv2</t>
+  </si>
+  <si>
+    <t>Item/Cake/item_Cake_7_lv2</t>
+  </si>
+  <si>
+    <t>Cake_Lv3</t>
+  </si>
+  <si>
+    <t>Item/Cake/item_Cake_7_lv3</t>
+  </si>
+  <si>
+    <t>Cake_Lv4</t>
+  </si>
+  <si>
+    <t>Item/Cake/item_Cake_7_lv4</t>
+  </si>
+  <si>
+    <t>Cake_Lv5</t>
+  </si>
+  <si>
+    <t>Item/Cake/item_Cake_7_lv5</t>
+  </si>
+  <si>
+    <t>Cake_Lv6</t>
+  </si>
+  <si>
+    <t>Item/Cake/item_Cake_7_lv6</t>
+  </si>
+  <si>
+    <t>Cake_Lv7</t>
+  </si>
+  <si>
+    <t>Item/Cake/item_Cake_7_lv7</t>
+  </si>
+  <si>
+    <t>Drink_Lv1</t>
+  </si>
+  <si>
+    <t>Item/Drink/item_Drink_10_lv1</t>
+  </si>
+  <si>
+    <t>Drink_Lv2</t>
+  </si>
+  <si>
+    <t>Item/Drink/item_Drink_10_lv2</t>
+  </si>
+  <si>
+    <t>Drink_Lv3</t>
+  </si>
+  <si>
+    <t>Item/Drink/item_Drink_10_lv3</t>
+  </si>
+  <si>
+    <t>Drink_Lv4</t>
+  </si>
+  <si>
+    <t>Item/Drink/item_Drink_10_lv4</t>
+  </si>
+  <si>
+    <t>Drink_Lv5</t>
+  </si>
+  <si>
+    <t>Item/Drink/item_Drink_10_lv5</t>
+  </si>
+  <si>
+    <t>Drink_Lv6</t>
+  </si>
+  <si>
+    <t>Item/Drink/item_Drink_10_lv6</t>
+  </si>
+  <si>
+    <t>Drink_Lv7</t>
+  </si>
+  <si>
+    <t>Item/Drink/item_Drink_10_lv7</t>
+  </si>
+  <si>
+    <t>Drink_Lv8</t>
+  </si>
+  <si>
+    <t>Item/Drink/item_Drink_10_lv8</t>
+  </si>
+  <si>
+    <t>Drink_Lv9</t>
+  </si>
+  <si>
+    <t>Item/Drink/item_Drink_10_lv9</t>
+  </si>
+  <si>
+    <t>Drink_Lv10</t>
+  </si>
+  <si>
+    <t>Item/Drink/item_Drink_10_lv10</t>
+  </si>
+  <si>
+    <t>Shu1_Lv1</t>
+  </si>
+  <si>
+    <t>Item/Tree/Shu1/shu1_Lv1</t>
+  </si>
+  <si>
+    <t>TREE</t>
+  </si>
+  <si>
+    <t>Shu1_Lv2</t>
+  </si>
+  <si>
+    <t>Item/Tree/Shu1/shu1_Lv2</t>
+  </si>
+  <si>
+    <t>Shu1_Lv3</t>
+  </si>
+  <si>
+    <t>Item/Tree/Shu1/shu1_Lv3</t>
+  </si>
+  <si>
+    <t>DrinkMachine_Lv1</t>
+  </si>
+  <si>
+    <t>Generator/DrinkMachine/DrinkMachine_Lv1</t>
+  </si>
+  <si>
+    <t>GENERATOR</t>
+  </si>
+  <si>
+    <t>DrinkMachine_Lv2</t>
+  </si>
+  <si>
+    <t>Generator/DrinkMachine/DrinkMachine_Lv2</t>
+  </si>
+  <si>
+    <t>DrinkMachine_Lv3</t>
+  </si>
+  <si>
+    <t>Generator/DrinkMachine/DrinkMachine_Lv3</t>
+  </si>
+  <si>
+    <t>DrinkMachine_Lv4</t>
+  </si>
+  <si>
+    <t>Generator/DrinkMachine/DrinkMachine_Lv4</t>
+  </si>
+  <si>
+    <t>DrinkMachine_Lv5</t>
+  </si>
+  <si>
+    <t>Generator/DrinkMachine/DrinkMachine_Lv5</t>
+  </si>
+  <si>
+    <t>DrinkMachine_Lv6</t>
+  </si>
+  <si>
+    <t>Generator/DrinkMachine/DrinkMachine_Lv6</t>
+  </si>
+  <si>
+    <t>DrinkMachine_Lv7</t>
+  </si>
+  <si>
+    <t>Generator/DrinkMachine/DrinkMachine_Lv7</t>
+  </si>
+  <si>
+    <t>LemonTree_Lv1</t>
+  </si>
+  <si>
+    <t>Generator/LemonTree/LemonTree_Lv1</t>
+  </si>
+  <si>
+    <t>LemonTree_Lv2</t>
+  </si>
+  <si>
+    <t>Generator/LemonTree/LemonTree_Lv2</t>
+  </si>
+  <si>
+    <t>LemonTree_Lv3</t>
+  </si>
+  <si>
+    <t>Generator/LemonTree/LemonTree_Lv3</t>
+  </si>
+  <si>
+    <t>LemonTree_Lv4</t>
+  </si>
+  <si>
+    <t>Generator/LemonTree/LemonTree_Lv4</t>
+  </si>
+  <si>
+    <t>LemonTree_Lv5</t>
+  </si>
+  <si>
+    <t>Generator/LemonTree/LemonTree_Lv5</t>
+  </si>
+  <si>
+    <t>LemonTree_Lv6</t>
+  </si>
+  <si>
+    <t>Generator/LemonTree/LemonTree_Lv6</t>
+  </si>
+  <si>
+    <t>LemonTree_Lv7</t>
+  </si>
+  <si>
+    <t>Generator/LemonTree/LemonTree_Lv7</t>
+  </si>
+  <si>
+    <t>Fog</t>
+  </si>
+  <si>
+    <t>Fog/Fog</t>
+  </si>
+  <si>
+    <t>FOG</t>
+  </si>
+  <si>
+    <t>Elf</t>
+  </si>
+  <si>
+    <t>Elf/Elf1</t>
+  </si>
+  <si>
+    <t>ELF</t>
+  </si>
+  <si>
+    <t>Chain</t>
+  </si>
+  <si>
+    <t>Chain/Chain</t>
+  </si>
+  <si>
+    <t>CHAIN</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Stack/GrassStack</t>
+  </si>
+  <si>
+    <t>STACK</t>
+  </si>
+  <si>
+    <t>ElfCloud_11</t>
+  </si>
+  <si>
+    <t>Elf/ElfCloud_11</t>
+  </si>
+  <si>
+    <t>ELFCLOUD</t>
+  </si>
+  <si>
+    <t>ElfCloud_22</t>
+  </si>
+  <si>
+    <t>[2,2]</t>
+  </si>
+  <si>
+    <t>Elf/ElfCloud_22</t>
   </si>
 </sst>
 </file>
@@ -698,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +1015,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1033,25 +1342,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.44166666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5833333333333" style="2" customWidth="1"/>
-    <col min="3" max="4" width="19.0833333333333" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.0833333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.0833333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.9166666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.3333333333333" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.89166666666667" style="2"/>
+    <col min="8" max="9" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.89166666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1076,32 +1386,1317 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:8">
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
+        <v>1100101</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>1100002</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
+        <v>1100102</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
+        <v>1100003</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5">
+        <v>1100103</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>1100004</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5">
+        <v>1100104</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <v>1100005</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5">
+        <v>1100105</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5">
+        <v>1100201</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>1100202</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5">
+        <v>1100202</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
+        <v>1100203</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5">
+        <v>1100203</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>1100204</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5">
+        <v>1100204</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5">
+        <v>1100205</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5">
+        <v>1100205</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>1100206</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5">
+        <v>1100206</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <v>1100207</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5">
+        <v>1100207</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5">
+        <v>1100301</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>1100302</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5">
+        <v>1100302</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
+        <v>1100303</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5">
+        <v>1100303</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <v>1100304</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5">
+        <v>1100304</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <v>1100305</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5">
+        <v>1100305</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>1100306</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5">
+        <v>1100306</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
+        <v>1100307</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5">
+        <v>1100307</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
+        <v>1100308</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5">
+        <v>1100308</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
+        <v>1100309</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5">
+        <v>1100309</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5">
+        <v>1100310</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5">
+        <v>1100310</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5">
+        <v>1200101</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5">
+        <v>1200102</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5">
+        <v>1200103</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5">
+        <v>2000101</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
+        <v>3000102</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5">
+        <v>2000102</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <v>3000103</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5">
+        <v>2000103</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
+        <v>3000104</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5">
+        <v>2000104</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5">
+        <v>3000105</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5">
+        <v>2000105</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
+        <v>3000106</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="5">
+        <v>2000106</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
+        <v>3000107</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="5">
+        <v>2000107</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="5">
+        <v>2000201</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5">
+        <v>3000202</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5">
+        <v>2000202</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5">
+        <v>3000203</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5">
+        <v>2000203</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5">
+        <v>3000204</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="5">
+        <v>2000204</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
+        <v>3000205</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="5">
+        <v>2000205</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
+        <v>3000206</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="5">
+        <v>2000206</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
+        <v>3000207</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="5">
+        <v>2000207</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="5">
+        <v>3000101</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="5">
+        <v>3000201</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="5">
+        <v>3000301</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="5">
+        <v>3000401</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="5">
+        <v>3000501</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="5">
+        <v>3000502</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1345,7 +1345,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Movable</t>
+  </si>
+  <si>
+    <t>Obstacle</t>
+  </si>
+  <si>
+    <t>Layer</t>
   </si>
   <si>
     <t>IntData</t>
@@ -1001,7 +1007,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,6 +1021,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1342,10 +1351,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -1357,11 +1366,12 @@
     <col min="5" max="5" width="18" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.0833333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.9166666666667" style="2" customWidth="1"/>
-    <col min="8" max="9" width="16.3333333333333" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.89166666666667" style="2"/>
+    <col min="8" max="11" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.8333333333333" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.89166666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1389,1314 +1399,1617 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:9">
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="5">
         <v>1100101</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5">
         <v>1100002</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="5">
         <v>1100102</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5">
         <v>1100003</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="5">
         <v>1100103</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <v>1100004</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="5">
         <v>1100104</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
         <v>1100005</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="5">
         <v>1100105</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>1100201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
         <v>1100202</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="5">
         <v>1100202</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
         <v>1100203</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>1100203</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
         <v>1100204</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="5">
         <v>1100204</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5">
         <v>1100205</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="5">
         <v>1100205</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5">
         <v>1100206</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="5">
         <v>1100206</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5">
         <v>1100207</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="5">
         <v>1100207</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H14" s="5">
         <v>1</v>
       </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="5">
         <v>1100301</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
         <v>1100302</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
       </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="5">
         <v>1100302</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5">
         <v>1100303</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="5">
         <v>1100303</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5">
         <v>1100304</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
       </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="5">
         <v>1100304</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5">
         <v>1100305</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
       </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="5">
         <v>1100305</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5">
         <v>1100306</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
       </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="5">
         <v>1100306</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5">
         <v>1100307</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H20" s="5">
         <v>1</v>
       </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="5">
         <v>1100307</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5">
         <v>1100308</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H21" s="5">
         <v>1</v>
       </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="5">
         <v>1100308</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5">
         <v>1100309</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
       </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="5">
         <v>1100309</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5">
         <v>1100310</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H23" s="5">
         <v>1</v>
       </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="5">
         <v>1100310</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5">
         <v>0</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H24" s="5">
         <v>1</v>
       </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="5">
         <v>1200101</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5">
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
       </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="5">
         <v>1200102</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5">
         <v>0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
       </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="5">
         <v>1200103</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5">
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
       </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="5">
         <v>2000101</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5">
         <v>3000102</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
       </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="5">
         <v>2000102</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5">
         <v>3000103</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H29" s="5">
         <v>1</v>
       </c>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="5">
         <v>2000103</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5">
         <v>3000104</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H30" s="5">
         <v>1</v>
       </c>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="5">
         <v>2000104</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5">
         <v>3000105</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H31" s="5">
         <v>1</v>
       </c>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="5">
         <v>2000105</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5">
         <v>3000106</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H32" s="5">
         <v>1</v>
       </c>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="5">
         <v>2000106</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5">
         <v>3000107</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H33" s="5">
         <v>1</v>
       </c>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="5">
         <v>2000107</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5">
         <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H34" s="5">
         <v>1</v>
       </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="5">
         <v>2000201</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5">
         <v>3000202</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H35" s="5">
         <v>1</v>
       </c>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="5">
         <v>2000202</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5">
         <v>3000203</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H36" s="5">
         <v>1</v>
       </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="5">
         <v>2000203</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5">
         <v>3000204</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H37" s="5">
         <v>1</v>
       </c>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="5">
         <v>2000204</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5">
         <v>3000205</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H38" s="5">
         <v>1</v>
       </c>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="5">
         <v>2000205</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5">
         <v>3000206</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H39" s="5">
         <v>1</v>
       </c>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="5">
         <v>2000206</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5">
         <v>3000207</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
       </c>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="5">
         <v>2000207</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5">
         <v>0</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H41" s="5">
         <v>1</v>
       </c>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="5">
         <v>3000101</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5">
         <v>0</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H42" s="5">
         <v>1</v>
       </c>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <v>4</v>
+      </c>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="5">
         <v>3000201</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5">
         <v>0</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
       </c>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="5">
         <v>3000301</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5">
         <v>0</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H44" s="5">
         <v>1</v>
       </c>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>2</v>
+      </c>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="5">
         <v>3000401</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5">
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H45" s="5">
         <v>1</v>
       </c>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
+      <c r="J45" s="6">
+        <v>3</v>
+      </c>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="5">
         <v>3000501</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5">
         <v>0</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H46" s="5">
         <v>1</v>
       </c>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" s="5">
+        <v>1</v>
+      </c>
+      <c r="J46" s="6">
+        <v>5</v>
+      </c>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="5">
         <v>3000502</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5">
         <v>0</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H47" s="5">
         <v>1</v>
       </c>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="J47" s="6">
+        <v>5</v>
+      </c>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="116">
   <si>
     <t>ID</t>
   </si>
@@ -80,9 +80,15 @@
     <t>Item/A/item_A_5_lv1</t>
   </si>
   <si>
+    <t>asdasd</t>
+  </si>
+  <si>
     <t>NORMAL</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>A_Lv2</t>
   </si>
   <si>
@@ -212,7 +218,7 @@
     <t>Shu1_Lv1</t>
   </si>
   <si>
-    <t>Item/Tree/Shu1/shu1_Lv1</t>
+    <t>Tree/Shu1/shu1_Lv1</t>
   </si>
   <si>
     <t>TREE</t>
@@ -221,13 +227,13 @@
     <t>Shu1_Lv2</t>
   </si>
   <si>
-    <t>Item/Tree/Shu1/shu1_Lv2</t>
+    <t>Tree/Shu1/shu1_Lv2</t>
   </si>
   <si>
     <t>Shu1_Lv3</t>
   </si>
   <si>
-    <t>Item/Tree/Shu1/shu1_Lv3</t>
+    <t>Tree/Shu1/shu1_Lv3</t>
   </si>
   <si>
     <t>DrinkMachine_Lv1</t>
@@ -356,7 +362,7 @@
     <t>ElfCloud_11</t>
   </si>
   <si>
-    <t>Elf/ElfCloud_11</t>
+    <t>ElfCloud/ElfCloud_11</t>
   </si>
   <si>
     <t>ELFCLOUD</t>
@@ -368,7 +374,7 @@
     <t>[2,2]</t>
   </si>
   <si>
-    <t>Elf/ElfCloud_22</t>
+    <t>ElfCloud/ElfCloud_22</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,12 +1030,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1351,10 +1351,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -1367,8 +1367,7 @@
     <col min="6" max="6" width="19.0833333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.9166666666667" style="2" customWidth="1"/>
     <col min="8" max="11" width="16.3333333333333" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.8333333333333" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.89166666666667" style="2"/>
+    <col min="12" max="16384" width="8.89166666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17.5" spans="1:11">
@@ -1454,12 +1453,14 @@
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="5">
         <v>1100002</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
@@ -1467,30 +1468,34 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="6">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5"/>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5">
         <v>1100102</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="5">
         <v>1100003</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
@@ -1498,30 +1503,34 @@
       <c r="I4" s="5">
         <v>0</v>
       </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5"/>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5">
         <v>1100103</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="5">
         <v>1100004</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="5">
         <v>1</v>
@@ -1529,30 +1538,34 @@
       <c r="I5" s="5">
         <v>0</v>
       </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5"/>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5">
         <v>1100104</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="5">
         <v>1100005</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -1560,30 +1573,34 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5"/>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="5">
         <v>1100105</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="5">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
@@ -1591,30 +1608,34 @@
       <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5"/>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>1100201</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="5">
         <v>1100202</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
@@ -1622,30 +1643,34 @@
       <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5"/>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="5">
         <v>1100202</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="5">
         <v>1100203</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
@@ -1653,30 +1678,34 @@
       <c r="I9" s="5">
         <v>0</v>
       </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5"/>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>1100203</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F10" s="5">
         <v>1100204</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
@@ -1684,30 +1713,34 @@
       <c r="I10" s="5">
         <v>0</v>
       </c>
-      <c r="J10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5"/>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="5">
         <v>1100204</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F11" s="5">
         <v>1100205</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
@@ -1715,30 +1748,34 @@
       <c r="I11" s="5">
         <v>0</v>
       </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5"/>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5">
         <v>1100205</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F12" s="5">
         <v>1100206</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -1746,30 +1783,34 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5"/>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="5">
         <v>1100206</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F13" s="5">
         <v>1100207</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
@@ -1777,30 +1818,34 @@
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5"/>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="5">
         <v>1100207</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="5">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" s="5">
         <v>1</v>
@@ -1808,30 +1853,34 @@
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="J14" s="6">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5"/>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="5">
         <v>1100301</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F15" s="5">
         <v>1100302</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
@@ -1839,30 +1888,34 @@
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="J15" s="6">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5"/>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="5">
         <v>1100302</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="5">
         <v>1100303</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
@@ -1870,30 +1923,34 @@
       <c r="I16" s="5">
         <v>0</v>
       </c>
-      <c r="J16" s="6">
-        <v>1</v>
-      </c>
-      <c r="K16" s="5"/>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="5">
         <v>1100303</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F17" s="5">
         <v>1100304</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
@@ -1901,30 +1958,34 @@
       <c r="I17" s="5">
         <v>0</v>
       </c>
-      <c r="J17" s="6">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5"/>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="5">
         <v>1100304</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="5">
         <v>1100305</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -1932,30 +1993,34 @@
       <c r="I18" s="5">
         <v>0</v>
       </c>
-      <c r="J18" s="6">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5"/>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="5">
         <v>1100305</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F19" s="5">
         <v>1100306</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
@@ -1963,30 +2028,34 @@
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="J19" s="6">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5"/>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="5">
         <v>1100306</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F20" s="5">
         <v>1100307</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" s="5">
         <v>1</v>
@@ -1994,30 +2063,34 @@
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="J20" s="6">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5"/>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="5">
         <v>1100307</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F21" s="5">
         <v>1100308</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H21" s="5">
         <v>1</v>
@@ -2025,30 +2098,34 @@
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="J21" s="6">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5"/>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="5">
         <v>1100308</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F22" s="5">
         <v>1100309</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
@@ -2056,30 +2133,34 @@
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="J22" s="6">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5"/>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="5">
         <v>1100309</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F23" s="5">
         <v>1100310</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H23" s="5">
         <v>1</v>
@@ -2087,30 +2168,34 @@
       <c r="I23" s="5">
         <v>0</v>
       </c>
-      <c r="J23" s="6">
-        <v>1</v>
-      </c>
-      <c r="K23" s="5"/>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="5">
         <v>1100310</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F24" s="5">
         <v>0</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H24" s="5">
         <v>1</v>
@@ -2118,30 +2203,34 @@
       <c r="I24" s="5">
         <v>0</v>
       </c>
-      <c r="J24" s="6">
-        <v>1</v>
-      </c>
-      <c r="K24" s="5"/>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="5">
         <v>1200101</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F25" s="5">
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -2149,61 +2238,69 @@
       <c r="I25" s="5">
         <v>1</v>
       </c>
-      <c r="J25" s="6">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5"/>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="5">
         <v>1200102</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="H26" s="5">
         <v>0</v>
       </c>
       <c r="I26" s="5">
         <v>1</v>
       </c>
-      <c r="J26" s="6">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5"/>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="5">
         <v>1200103</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F27" s="5">
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -2211,30 +2308,34 @@
       <c r="I27" s="5">
         <v>1</v>
       </c>
-      <c r="J27" s="6">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5"/>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5">
         <v>2000101</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F28" s="5">
         <v>3000102</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
@@ -2242,30 +2343,34 @@
       <c r="I28" s="5">
         <v>0</v>
       </c>
-      <c r="J28" s="6">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5"/>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5">
         <v>2000102</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F29" s="5">
         <v>3000103</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H29" s="5">
         <v>1</v>
@@ -2273,30 +2378,34 @@
       <c r="I29" s="5">
         <v>0</v>
       </c>
-      <c r="J29" s="6">
-        <v>1</v>
-      </c>
-      <c r="K29" s="5"/>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5">
         <v>2000103</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F30" s="5">
         <v>3000104</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H30" s="5">
         <v>1</v>
@@ -2304,30 +2413,34 @@
       <c r="I30" s="5">
         <v>0</v>
       </c>
-      <c r="J30" s="6">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5"/>
+      <c r="J30" s="5">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="5">
         <v>2000104</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F31" s="5">
         <v>3000105</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H31" s="5">
         <v>1</v>
@@ -2335,30 +2448,34 @@
       <c r="I31" s="5">
         <v>0</v>
       </c>
-      <c r="J31" s="6">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5"/>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="5">
         <v>2000105</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F32" s="5">
         <v>3000106</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H32" s="5">
         <v>1</v>
@@ -2366,30 +2483,34 @@
       <c r="I32" s="5">
         <v>0</v>
       </c>
-      <c r="J32" s="6">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5"/>
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="5">
         <v>2000106</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F33" s="5">
         <v>3000107</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H33" s="5">
         <v>1</v>
@@ -2397,30 +2518,34 @@
       <c r="I33" s="5">
         <v>0</v>
       </c>
-      <c r="J33" s="6">
-        <v>1</v>
-      </c>
-      <c r="K33" s="5"/>
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="5">
         <v>2000107</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F34" s="5">
         <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H34" s="5">
         <v>1</v>
@@ -2428,30 +2553,34 @@
       <c r="I34" s="5">
         <v>0</v>
       </c>
-      <c r="J34" s="6">
-        <v>1</v>
-      </c>
-      <c r="K34" s="5"/>
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="5">
         <v>2000201</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F35" s="5">
         <v>3000202</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H35" s="5">
         <v>1</v>
@@ -2459,30 +2588,34 @@
       <c r="I35" s="5">
         <v>0</v>
       </c>
-      <c r="J35" s="6">
-        <v>1</v>
-      </c>
-      <c r="K35" s="5"/>
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="5">
         <v>2000202</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F36" s="5">
         <v>3000203</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H36" s="5">
         <v>1</v>
@@ -2490,30 +2623,34 @@
       <c r="I36" s="5">
         <v>0</v>
       </c>
-      <c r="J36" s="6">
-        <v>1</v>
-      </c>
-      <c r="K36" s="5"/>
+      <c r="J36" s="5">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="5">
         <v>2000203</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F37" s="5">
         <v>3000204</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H37" s="5">
         <v>1</v>
@@ -2521,30 +2658,34 @@
       <c r="I37" s="5">
         <v>0</v>
       </c>
-      <c r="J37" s="6">
-        <v>1</v>
-      </c>
-      <c r="K37" s="5"/>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="5">
         <v>2000204</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F38" s="5">
         <v>3000205</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H38" s="5">
         <v>1</v>
@@ -2552,30 +2693,34 @@
       <c r="I38" s="5">
         <v>0</v>
       </c>
-      <c r="J38" s="6">
-        <v>1</v>
-      </c>
-      <c r="K38" s="5"/>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="5">
         <v>2000205</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F39" s="5">
         <v>3000206</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H39" s="5">
         <v>1</v>
@@ -2583,30 +2728,34 @@
       <c r="I39" s="5">
         <v>0</v>
       </c>
-      <c r="J39" s="6">
-        <v>1</v>
-      </c>
-      <c r="K39" s="5"/>
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="5">
         <v>2000206</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F40" s="5">
         <v>3000207</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
@@ -2614,30 +2763,34 @@
       <c r="I40" s="5">
         <v>0</v>
       </c>
-      <c r="J40" s="6">
-        <v>1</v>
-      </c>
-      <c r="K40" s="5"/>
+      <c r="J40" s="5">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="5">
         <v>2000207</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F41" s="5">
         <v>0</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H41" s="5">
         <v>1</v>
@@ -2645,30 +2798,34 @@
       <c r="I41" s="5">
         <v>0</v>
       </c>
-      <c r="J41" s="6">
-        <v>1</v>
-      </c>
-      <c r="K41" s="5"/>
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="5">
         <v>3000101</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F42" s="5">
         <v>0</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H42" s="5">
         <v>1</v>
@@ -2676,30 +2833,34 @@
       <c r="I42" s="5">
         <v>0</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <v>4</v>
       </c>
-      <c r="K42" s="5"/>
+      <c r="K42" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="5">
         <v>3000201</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F43" s="5">
         <v>0</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
@@ -2707,30 +2868,34 @@
       <c r="I43" s="5">
         <v>0</v>
       </c>
-      <c r="J43" s="6">
-        <v>1</v>
-      </c>
-      <c r="K43" s="5"/>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="5">
         <v>3000301</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F44" s="5">
         <v>0</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H44" s="5">
         <v>1</v>
@@ -2738,30 +2903,34 @@
       <c r="I44" s="5">
         <v>0</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="5">
         <v>2</v>
       </c>
-      <c r="K44" s="5"/>
+      <c r="K44" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="5">
         <v>3000401</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F45" s="5">
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H45" s="5">
         <v>1</v>
@@ -2769,30 +2938,34 @@
       <c r="I45" s="5">
         <v>1</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <v>3</v>
       </c>
-      <c r="K45" s="5"/>
+      <c r="K45" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="5">
         <v>3000501</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F46" s="5">
         <v>0</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H46" s="5">
         <v>1</v>
@@ -2800,216 +2973,47 @@
       <c r="I46" s="5">
         <v>1</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="5">
         <v>5</v>
       </c>
-      <c r="K46" s="5"/>
+      <c r="K46" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="5">
         <v>3000502</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="H47" s="5">
         <v>1</v>
       </c>
       <c r="I47" s="5">
         <v>1</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <v>5</v>
       </c>
-      <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="K50" s="7"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="K51" s="7"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="K52" s="7"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="K54" s="7"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
+      <c r="K47" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Item/A/item_A_5_lv1</t>
-  </si>
-  <si>
-    <t>asdasd</t>
   </si>
   <si>
     <t>NORMAL</t>
@@ -1354,7 +1351,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -1453,14 +1450,12 @@
       <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="5">
         <v>1100002</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
@@ -1472,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1480,22 +1475,20 @@
         <v>1100102</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="5">
         <v>1100003</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
@@ -1507,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1515,22 +1508,20 @@
         <v>1100103</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="5">
         <v>1100004</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="5">
         <v>1</v>
@@ -1542,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1550,22 +1541,20 @@
         <v>1100104</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E6" s="5"/>
       <c r="F6" s="5">
         <v>1100005</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -1577,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1585,23 +1574,21 @@
         <v>1100105</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="H7" s="5">
         <v>1</v>
       </c>
@@ -1612,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1620,22 +1607,20 @@
         <v>1100201</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5">
         <v>1100202</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
@@ -1647,7 +1632,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1655,22 +1640,20 @@
         <v>1100202</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="5">
         <v>1100203</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
@@ -1682,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1690,22 +1673,20 @@
         <v>1100203</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="5">
         <v>1100204</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
@@ -1717,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1725,22 +1706,20 @@
         <v>1100204</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="5">
         <v>1100205</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
@@ -1752,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1760,22 +1739,20 @@
         <v>1100205</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="5">
         <v>1100206</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -1787,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1795,22 +1772,20 @@
         <v>1100206</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="5">
         <v>1100207</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
@@ -1822,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1830,23 +1805,21 @@
         <v>1100207</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="H14" s="5">
         <v>1</v>
       </c>
@@ -1857,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1865,22 +1838,20 @@
         <v>1100301</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="5">
         <v>1100302</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
@@ -1892,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1900,22 +1871,20 @@
         <v>1100302</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="5">
         <v>1100303</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
@@ -1927,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1935,22 +1904,20 @@
         <v>1100303</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="5">
         <v>1100304</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
@@ -1962,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1970,22 +1937,20 @@
         <v>1100304</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E18" s="5"/>
       <c r="F18" s="5">
         <v>1100305</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -1997,7 +1962,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2005,22 +1970,20 @@
         <v>1100305</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="5">
         <v>1100306</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
@@ -2032,7 +1995,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2040,22 +2003,20 @@
         <v>1100306</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="5">
         <v>1100307</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="5">
         <v>1</v>
@@ -2067,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2075,22 +2036,20 @@
         <v>1100307</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E21" s="5"/>
       <c r="F21" s="5">
         <v>1100308</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="5">
         <v>1</v>
@@ -2102,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2110,22 +2069,20 @@
         <v>1100308</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E22" s="5"/>
       <c r="F22" s="5">
         <v>1100309</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
@@ -2137,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2145,22 +2102,20 @@
         <v>1100309</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="5">
         <v>1100310</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" s="5">
         <v>1</v>
@@ -2172,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2180,23 +2135,21 @@
         <v>1100310</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="H24" s="5">
         <v>1</v>
       </c>
@@ -2207,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2215,23 +2168,21 @@
         <v>1200101</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="H25" s="5">
         <v>0</v>
       </c>
@@ -2242,7 +2193,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2250,22 +2201,20 @@
         <v>1200102</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="5">
         <v>0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
@@ -2277,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2285,22 +2234,20 @@
         <v>1200103</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E27" s="5"/>
       <c r="F27" s="5">
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -2312,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2320,22 +2267,20 @@
         <v>2000101</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E28" s="5"/>
       <c r="F28" s="5">
         <v>3000102</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
@@ -2347,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2355,22 +2300,20 @@
         <v>2000102</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="5">
         <v>3000103</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H29" s="5">
         <v>1</v>
@@ -2382,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2390,22 +2333,20 @@
         <v>2000103</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="5">
         <v>3000104</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="5">
         <v>1</v>
@@ -2417,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2425,22 +2366,20 @@
         <v>2000104</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E31" s="5"/>
       <c r="F31" s="5">
         <v>3000105</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H31" s="5">
         <v>1</v>
@@ -2452,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2460,22 +2399,20 @@
         <v>2000105</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="5">
         <v>3000106</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H32" s="5">
         <v>1</v>
@@ -2487,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2495,22 +2432,20 @@
         <v>2000106</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="5">
         <v>3000107</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H33" s="5">
         <v>1</v>
@@ -2522,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2530,22 +2465,20 @@
         <v>2000107</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E34" s="5"/>
       <c r="F34" s="5">
         <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H34" s="5">
         <v>1</v>
@@ -2557,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2565,22 +2498,20 @@
         <v>2000201</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="5">
         <v>3000202</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="5">
         <v>1</v>
@@ -2592,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2600,22 +2531,20 @@
         <v>2000202</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E36" s="5"/>
       <c r="F36" s="5">
         <v>3000203</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H36" s="5">
         <v>1</v>
@@ -2627,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2635,22 +2564,20 @@
         <v>2000203</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="5">
         <v>3000204</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H37" s="5">
         <v>1</v>
@@ -2662,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2670,22 +2597,20 @@
         <v>2000204</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="5">
         <v>3000205</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H38" s="5">
         <v>1</v>
@@ -2697,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2705,22 +2630,20 @@
         <v>2000205</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E39" s="5"/>
       <c r="F39" s="5">
         <v>3000206</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" s="5">
         <v>1</v>
@@ -2732,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2740,22 +2663,20 @@
         <v>2000206</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E40" s="5"/>
       <c r="F40" s="5">
         <v>3000207</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
@@ -2767,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2775,22 +2696,20 @@
         <v>2000207</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E41" s="5"/>
       <c r="F41" s="5">
         <v>0</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H41" s="5">
         <v>1</v>
@@ -2802,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2810,22 +2729,20 @@
         <v>3000101</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="H42" s="5">
         <v>1</v>
@@ -2837,7 +2754,7 @@
         <v>4</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2845,23 +2762,21 @@
         <v>3000201</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="H43" s="5">
         <v>1</v>
       </c>
@@ -2872,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2880,22 +2795,20 @@
         <v>3000301</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5"/>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="H44" s="5">
         <v>1</v>
@@ -2907,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2915,22 +2828,20 @@
         <v>3000401</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="5">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="H45" s="5">
         <v>1</v>
@@ -2942,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2950,22 +2861,20 @@
         <v>3000501</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="5">
-        <v>0</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="H46" s="5">
         <v>1</v>
@@ -2977,7 +2886,7 @@
         <v>5</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2985,22 +2894,20 @@
         <v>3000502</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E47" s="5"/>
       <c r="F47" s="5">
         <v>0</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H47" s="5">
         <v>1</v>
@@ -3012,7 +2919,7 @@
         <v>5</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="116">
   <si>
     <t>ID</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>ElfCloud/ElfCloud_11</t>
+  </si>
+  <si>
+    <t>TileItem/ElfCloud</t>
   </si>
   <si>
     <t>ELFCLOUD</t>
@@ -1351,7 +1354,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -2869,12 +2872,14 @@
       <c r="D46" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="F46" s="5">
         <v>0</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H46" s="5">
         <v>1</v>
@@ -2894,20 +2899,22 @@
         <v>3000502</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="H47" s="5">
         <v>1</v>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Elf/Elf1</t>
+  </si>
+  <si>
+    <t>TileItem/Elf</t>
   </si>
   <si>
     <t>ELF</t>
@@ -1354,7 +1357,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -2773,12 +2776,14 @@
       <c r="D43" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="F43" s="5">
         <v>0</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
@@ -2798,20 +2803,20 @@
         <v>3000301</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5">
         <v>0</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H44" s="5">
         <v>1</v>
@@ -2831,20 +2836,20 @@
         <v>3000401</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5">
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H45" s="5">
         <v>1</v>
@@ -2864,22 +2869,22 @@
         <v>3000501</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F46" s="5">
         <v>0</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H46" s="5">
         <v>1</v>
@@ -2899,22 +2904,22 @@
         <v>3000502</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="H47" s="5">
         <v>1</v>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -378,6 +378,18 @@
   </si>
   <si>
     <t>ElfCloud/ElfCloud_22</t>
+  </si>
+  <si>
+    <t>GroupPainter</t>
+  </si>
+  <si>
+    <t>MapPainter/GroupPainter</t>
+  </si>
+  <si>
+    <t>TileItem/GroupPainter</t>
+  </si>
+  <si>
+    <t>MAPPAINTER</t>
   </si>
 </sst>
 </file>
@@ -1354,10 +1366,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -2934,6 +2946,41 @@
         <v>18</v>
       </c>
     </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="5">
+        <v>9000001</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>9</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1369,7 +1369,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5">
-        <v>3000102</v>
+        <v>2000102</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>70</v>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5">
-        <v>3000103</v>
+        <v>2000103</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>70</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5">
-        <v>3000104</v>
+        <v>2000104</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>70</v>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5">
-        <v>3000105</v>
+        <v>2000105</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>70</v>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5">
-        <v>3000106</v>
+        <v>2000106</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>70</v>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5">
-        <v>3000107</v>
+        <v>2000107</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>70</v>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5">
-        <v>3000202</v>
+        <v>2000202</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>70</v>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5">
-        <v>3000203</v>
+        <v>2000203</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>70</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5">
-        <v>3000204</v>
+        <v>2000204</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>70</v>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5">
-        <v>3000205</v>
+        <v>2000205</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>70</v>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5">
-        <v>3000206</v>
+        <v>2000206</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>70</v>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5">
-        <v>3000207</v>
+        <v>2000207</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>70</v>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -239,25 +239,28 @@
     <t>Generator/DrinkMachine/DrinkMachine_Lv1</t>
   </si>
   <si>
+    <t>DrinkMachine_Lv2</t>
+  </si>
+  <si>
+    <t>Generator/DrinkMachine/DrinkMachine_Lv2</t>
+  </si>
+  <si>
+    <t>DrinkMachine_Lv3</t>
+  </si>
+  <si>
+    <t>Generator/DrinkMachine/DrinkMachine_Lv3</t>
+  </si>
+  <si>
+    <t>DrinkMachine_Lv4</t>
+  </si>
+  <si>
+    <t>Generator/DrinkMachine/DrinkMachine_Lv4</t>
+  </si>
+  <si>
+    <t>TileItem/Generator</t>
+  </si>
+  <si>
     <t>GENERATOR</t>
-  </si>
-  <si>
-    <t>DrinkMachine_Lv2</t>
-  </si>
-  <si>
-    <t>Generator/DrinkMachine/DrinkMachine_Lv2</t>
-  </si>
-  <si>
-    <t>DrinkMachine_Lv3</t>
-  </si>
-  <si>
-    <t>Generator/DrinkMachine/DrinkMachine_Lv3</t>
-  </si>
-  <si>
-    <t>DrinkMachine_Lv4</t>
-  </si>
-  <si>
-    <t>Generator/DrinkMachine/DrinkMachine_Lv4</t>
   </si>
   <si>
     <t>DrinkMachine_Lv5</t>
@@ -1369,7 +1372,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -2298,7 +2301,7 @@
         <v>2000102</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
@@ -2318,20 +2321,20 @@
         <v>2000102</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5">
         <v>2000103</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H29" s="5">
         <v>1</v>
@@ -2351,20 +2354,20 @@
         <v>2000103</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5">
         <v>2000104</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H30" s="5">
         <v>1</v>
@@ -2384,20 +2387,22 @@
         <v>2000104</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="5"/>
       <c r="F31" s="5">
         <v>2000105</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H31" s="5">
         <v>1</v>
@@ -2417,20 +2422,22 @@
         <v>2000105</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="F32" s="5">
         <v>2000106</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H32" s="5">
         <v>1</v>
@@ -2450,20 +2457,22 @@
         <v>2000106</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="F33" s="5">
         <v>2000107</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H33" s="5">
         <v>1</v>
@@ -2483,20 +2492,22 @@
         <v>2000107</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="F34" s="5">
         <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H34" s="5">
         <v>1</v>
@@ -2516,20 +2527,20 @@
         <v>2000201</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5">
         <v>2000202</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H35" s="5">
         <v>1</v>
@@ -2549,20 +2560,20 @@
         <v>2000202</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5">
         <v>2000203</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H36" s="5">
         <v>1</v>
@@ -2582,20 +2593,20 @@
         <v>2000203</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5">
         <v>2000204</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H37" s="5">
         <v>1</v>
@@ -2615,20 +2626,22 @@
         <v>2000204</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="F38" s="5">
         <v>2000205</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H38" s="5">
         <v>1</v>
@@ -2648,20 +2661,22 @@
         <v>2000205</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="F39" s="5">
         <v>2000206</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H39" s="5">
         <v>1</v>
@@ -2681,20 +2696,22 @@
         <v>2000206</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="F40" s="5">
         <v>2000207</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
@@ -2714,20 +2731,22 @@
         <v>2000207</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="F41" s="5">
         <v>0</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H41" s="5">
         <v>1</v>
@@ -2747,20 +2766,20 @@
         <v>3000101</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5">
         <v>0</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H42" s="5">
         <v>1</v>
@@ -2780,22 +2799,22 @@
         <v>3000201</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F43" s="5">
         <v>0</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
@@ -2815,20 +2834,20 @@
         <v>3000301</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5">
         <v>0</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H44" s="5">
         <v>1</v>
@@ -2848,20 +2867,20 @@
         <v>3000401</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5">
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H45" s="5">
         <v>1</v>
@@ -2881,22 +2900,22 @@
         <v>3000501</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F46" s="5">
         <v>0</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H46" s="5">
         <v>1</v>
@@ -2916,22 +2935,22 @@
         <v>3000502</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="H47" s="5">
         <v>1</v>
@@ -2951,22 +2970,22 @@
         <v>9000001</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H48" s="5">
         <v>0</v>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="123">
   <si>
     <t>ID</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Tree/Shu1/shu1_Lv1</t>
+  </si>
+  <si>
+    <t>TileItem/Tree</t>
   </si>
   <si>
     <t>TREE</t>
@@ -1372,7 +1375,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -2197,12 +2200,14 @@
       <c r="D25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="F25" s="5">
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -2222,20 +2227,22 @@
         <v>1200102</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
@@ -2255,20 +2262,22 @@
         <v>1200103</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="F27" s="5">
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H27" s="5">
         <v>0</v>
@@ -2288,13 +2297,13 @@
         <v>2000101</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5">
@@ -2321,13 +2330,13 @@
         <v>2000102</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5">
@@ -2354,13 +2363,13 @@
         <v>2000103</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5">
@@ -2387,22 +2396,22 @@
         <v>2000104</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F31" s="5">
         <v>2000105</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" s="5">
         <v>1</v>
@@ -2422,22 +2431,22 @@
         <v>2000105</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="5">
         <v>2000106</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" s="5">
         <v>1</v>
@@ -2457,22 +2466,22 @@
         <v>2000106</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F33" s="5">
         <v>2000107</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" s="5">
         <v>1</v>
@@ -2492,22 +2501,22 @@
         <v>2000107</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F34" s="5">
         <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" s="5">
         <v>1</v>
@@ -2527,13 +2536,13 @@
         <v>2000201</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5">
@@ -2560,13 +2569,13 @@
         <v>2000202</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5">
@@ -2593,13 +2602,13 @@
         <v>2000203</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5">
@@ -2626,22 +2635,22 @@
         <v>2000204</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F38" s="5">
         <v>2000205</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" s="5">
         <v>1</v>
@@ -2661,22 +2670,22 @@
         <v>2000205</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F39" s="5">
         <v>2000206</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" s="5">
         <v>1</v>
@@ -2696,22 +2705,22 @@
         <v>2000206</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F40" s="5">
         <v>2000207</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
@@ -2731,22 +2740,22 @@
         <v>2000207</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F41" s="5">
         <v>0</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" s="5">
         <v>1</v>
@@ -2766,20 +2775,20 @@
         <v>3000101</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5">
         <v>0</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H42" s="5">
         <v>1</v>
@@ -2799,22 +2808,22 @@
         <v>3000201</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F43" s="5">
         <v>0</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
@@ -2834,20 +2843,20 @@
         <v>3000301</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5">
         <v>0</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H44" s="5">
         <v>1</v>
@@ -2867,20 +2876,20 @@
         <v>3000401</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5">
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H45" s="5">
         <v>1</v>
@@ -2900,22 +2909,22 @@
         <v>3000501</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F46" s="5">
         <v>0</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H46" s="5">
         <v>1</v>
@@ -2935,22 +2944,22 @@
         <v>3000502</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="H47" s="5">
         <v>1</v>
@@ -2970,22 +2979,22 @@
         <v>9000001</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H48" s="5">
         <v>0</v>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5">
-        <v>1100002</v>
+        <v>1100102</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5">
-        <v>1100003</v>
+        <v>1100103</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>17</v>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <v>1100004</v>
+        <v>1100104</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>17</v>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5">
-        <v>1100005</v>
+        <v>1100105</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>17</v>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -384,6 +384,18 @@
   </si>
   <si>
     <t>ElfCloud/ElfCloud_22</t>
+  </si>
+  <si>
+    <t>WonderSketch</t>
+  </si>
+  <si>
+    <t>WonderSketch/WonderSketch</t>
+  </si>
+  <si>
+    <t>TileItem/WonderSketch</t>
+  </si>
+  <si>
+    <t>WONDERSKETCH</t>
   </si>
   <si>
     <t>GroupPainter</t>
@@ -1372,10 +1384,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -1384,7 +1396,7 @@
     <col min="2" max="2" width="20.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.0833333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="40.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.9166666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.0833333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="15.9166666666667" style="2" customWidth="1"/>
     <col min="8" max="11" width="16.3333333333333" style="2" customWidth="1"/>
@@ -2791,7 +2803,7 @@
         <v>101</v>
       </c>
       <c r="H42" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="5">
         <v>0</v>
@@ -2826,7 +2838,7 @@
         <v>105</v>
       </c>
       <c r="H43" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="5">
         <v>0</v>
@@ -2859,7 +2871,7 @@
         <v>108</v>
       </c>
       <c r="H44" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="5">
         <v>0</v>
@@ -2892,7 +2904,7 @@
         <v>111</v>
       </c>
       <c r="H45" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="5">
         <v>1</v>
@@ -2927,7 +2939,7 @@
         <v>115</v>
       </c>
       <c r="H46" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="5">
         <v>1</v>
@@ -2962,7 +2974,7 @@
         <v>115</v>
       </c>
       <c r="H47" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="5">
         <v>1</v>
@@ -2976,7 +2988,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="5">
-        <v>9000001</v>
+        <v>3000601</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>119</v>
@@ -3003,9 +3015,44 @@
         <v>0</v>
       </c>
       <c r="J48" s="5">
+        <v>1</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="5">
+        <v>9000001</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
         <v>9</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K49" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1387,7 +1387,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -3009,7 +3009,7 @@
         <v>122</v>
       </c>
       <c r="H48" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="5">
         <v>0</v>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -396,6 +396,18 @@
   </si>
   <si>
     <t>WONDERSKETCH</t>
+  </si>
+  <si>
+    <t>DiedTile</t>
+  </si>
+  <si>
+    <t>DiedTile/DiedTile</t>
+  </si>
+  <si>
+    <t>TileItem/DiedTile</t>
+  </si>
+  <si>
+    <t>DIEDTILE</t>
   </si>
   <si>
     <t>GroupPainter</t>
@@ -1384,10 +1396,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -3023,7 +3035,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="5">
-        <v>9000001</v>
+        <v>3000701</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>123</v>
@@ -3050,9 +3062,44 @@
         <v>0</v>
       </c>
       <c r="J49" s="5">
+        <v>1</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="5">
+        <v>9000001</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
         <v>9</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K50" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -408,6 +408,21 @@
   </si>
   <si>
     <t>DIEDTILE</t>
+  </si>
+  <si>
+    <t>GreenGeneratorChest</t>
+  </si>
+  <si>
+    <t>Chest/GreenGeneratorChest</t>
+  </si>
+  <si>
+    <t>CHEST</t>
+  </si>
+  <si>
+    <t>EnergyChest</t>
+  </si>
+  <si>
+    <t>Chest/EnergyChest</t>
   </si>
   <si>
     <t>GroupPainter</t>
@@ -1396,10 +1411,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
@@ -3070,7 +3085,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="5">
-        <v>9000001</v>
+        <v>3000801</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>127</v>
@@ -3081,25 +3096,166 @@
       <c r="D50" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-      <c r="G50" s="5" t="s">
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <v>1</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="5">
+        <v>3000802</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H50" s="5">
-        <v>0</v>
-      </c>
-      <c r="I50" s="5">
-        <v>0</v>
-      </c>
-      <c r="J50" s="5">
+      <c r="C51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="5">
+        <v>4000101</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="5">
+        <v>4000102</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="5">
+        <v>4000103</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="5">
+        <v>4000104</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="5">
+        <v>4000105</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="5">
+        <v>9000001</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
         <v>9</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K57" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06B6DD3-352E-4891-AC95-A7F53F0818C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="157">
   <si>
     <t>ID</t>
   </si>
@@ -435,19 +428,81 @@
   </si>
   <si>
     <t>MAPPAINTER</t>
+  </si>
+  <si>
+    <t>Energy_Lv1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy_Lv2</t>
+  </si>
+  <si>
+    <t>Energy_Lv3</t>
+  </si>
+  <si>
+    <t>Energy_Lv4</t>
+  </si>
+  <si>
+    <t>Energy_Lv5</t>
+  </si>
+  <si>
+    <t>Coin_Lv1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin_Lv2</t>
+  </si>
+  <si>
+    <t>Coin_Lv3</t>
+  </si>
+  <si>
+    <t>Coin_Lv4</t>
+  </si>
+  <si>
+    <t>Coin_Lv5</t>
+  </si>
+  <si>
+    <t>Asset/Energy_Lv1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset/Energy_Lv2</t>
+  </si>
+  <si>
+    <t>Asset/Energy_Lv3</t>
+  </si>
+  <si>
+    <t>Asset/Energy_Lv4</t>
+  </si>
+  <si>
+    <t>Asset/Energy_Lv5</t>
+  </si>
+  <si>
+    <t>Asset/Coin_Lv2</t>
+  </si>
+  <si>
+    <t>Asset/Coin_Lv3</t>
+  </si>
+  <si>
+    <t>Asset/Coin_Lv4</t>
+  </si>
+  <si>
+    <t>Asset/Coin_Lv5</t>
+  </si>
+  <si>
+    <t>Asset/Coin_Lv1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASSET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,155 +515,27 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,192 +544,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -825,255 +572,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1092,62 +597,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1405,32 +869,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.0833333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.9166666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.0833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.9166666666667" style="2" customWidth="1"/>
-    <col min="8" max="11" width="16.3333333333333" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.89166666666667" style="2"/>
+    <col min="1" max="1" width="13.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="2" customWidth="1"/>
+    <col min="8" max="11" width="16.33203125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:11">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1500,7 +964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1100101</v>
       </c>
@@ -1533,7 +997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1100102</v>
       </c>
@@ -1566,7 +1030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1100103</v>
       </c>
@@ -1599,7 +1063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1100104</v>
       </c>
@@ -1632,7 +1096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1100105</v>
       </c>
@@ -1665,7 +1129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1100201</v>
       </c>
@@ -1698,7 +1162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1100202</v>
       </c>
@@ -1731,7 +1195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1100203</v>
       </c>
@@ -1764,7 +1228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1100204</v>
       </c>
@@ -1797,7 +1261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1100205</v>
       </c>
@@ -1830,7 +1294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1100206</v>
       </c>
@@ -1863,7 +1327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1100207</v>
       </c>
@@ -1896,7 +1360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1100301</v>
       </c>
@@ -1929,7 +1393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1100302</v>
       </c>
@@ -1962,7 +1426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1100303</v>
       </c>
@@ -1995,7 +1459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1100304</v>
       </c>
@@ -2028,7 +1492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1100305</v>
       </c>
@@ -2061,7 +1525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>1100306</v>
       </c>
@@ -2094,7 +1558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>1100307</v>
       </c>
@@ -2127,7 +1591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>1100308</v>
       </c>
@@ -2160,7 +1624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>1100309</v>
       </c>
@@ -2193,7 +1657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>1100310</v>
       </c>
@@ -2226,7 +1690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>1200101</v>
       </c>
@@ -2261,7 +1725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>1200102</v>
       </c>
@@ -2296,7 +1760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>1200103</v>
       </c>
@@ -2331,7 +1795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2000101</v>
       </c>
@@ -2364,7 +1828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>2000102</v>
       </c>
@@ -2397,7 +1861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>2000103</v>
       </c>
@@ -2430,7 +1894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>2000104</v>
       </c>
@@ -2465,7 +1929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>2000105</v>
       </c>
@@ -2500,7 +1964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>2000106</v>
       </c>
@@ -2535,7 +1999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>2000107</v>
       </c>
@@ -2570,7 +2034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>2000201</v>
       </c>
@@ -2603,7 +2067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>2000202</v>
       </c>
@@ -2636,7 +2100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>2000203</v>
       </c>
@@ -2669,7 +2133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>2000204</v>
       </c>
@@ -2704,7 +2168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2000205</v>
       </c>
@@ -2739,7 +2203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2000206</v>
       </c>
@@ -2774,7 +2238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>2000207</v>
       </c>
@@ -2809,7 +2273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>3000101</v>
       </c>
@@ -2842,7 +2306,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>3000201</v>
       </c>
@@ -2877,7 +2341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>3000301</v>
       </c>
@@ -2910,7 +2374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>3000401</v>
       </c>
@@ -2943,7 +2407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>3000501</v>
       </c>
@@ -2978,7 +2442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>3000502</v>
       </c>
@@ -3013,7 +2477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>3000601</v>
       </c>
@@ -3048,7 +2512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>3000701</v>
       </c>
@@ -3083,7 +2547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>3000801</v>
       </c>
@@ -3116,7 +2580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>3000802</v>
       </c>
@@ -3149,119 +2613,374 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>4000101</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="B52" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="F52" s="5">
+        <v>4000102</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>4000102</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="B53" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="F53" s="5">
+        <v>4000103</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>4000103</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="B54" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="F54" s="5">
+        <v>4000104</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H54" s="5">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <v>1</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>4000104</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="B55" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="F55" s="5">
+        <v>4000105</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
+        <v>1</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>4000105</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="B56" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
+        <v>4000201</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5">
+        <v>4000202</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
+        <v>1</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>4000202</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5">
+        <v>4000203</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5">
+        <v>1</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>4000203</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H59" s="5">
+        <v>1</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5">
+        <v>1</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H60" s="5">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>9000001</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B62" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="C62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F57" s="5">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5" t="s">
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="H57" s="5">
-        <v>0</v>
-      </c>
-      <c r="I57" s="5">
-        <v>0</v>
-      </c>
-      <c r="J57" s="5">
+      <c r="H62" s="5">
+        <v>0</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
         <v>9</v>
       </c>
-      <c r="K57" s="5" t="s">
+      <c r="K62" s="5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06B6DD3-352E-4891-AC95-A7F53F0818C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E05C541-8EC5-4245-9ABE-513A06BA51E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="158">
   <si>
     <t>ID</t>
   </si>
@@ -495,6 +495,10 @@
   </si>
   <si>
     <t>ASSET</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TileItem/Chest</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -878,7 +882,7 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2560,7 +2564,9 @@
       <c r="D50" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="F50" s="5">
         <v>0</v>
       </c>
@@ -2593,7 +2599,9 @@
       <c r="D51" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="6" t="s">
+        <v>157</v>
+      </c>
       <c r="F51" s="5">
         <v>0</v>
       </c>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E05C541-8EC5-4245-9ABE-513A06BA51E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -205,6 +212,24 @@
     <t>Item/Drink/item_Drink_10_lv10</t>
   </si>
   <si>
+    <t>MagicTool_Lv1</t>
+  </si>
+  <si>
+    <t>Item/MagicTool/MagicTool_Lv1</t>
+  </si>
+  <si>
+    <t>MagicTool_Lv2</t>
+  </si>
+  <si>
+    <t>Item/MagicTool/MagicTool_Lv2</t>
+  </si>
+  <si>
+    <t>MagicTool_Lv3</t>
+  </si>
+  <si>
+    <t>Item/MagicTool/MagicTool_Lv3</t>
+  </si>
+  <si>
     <t>Shu1_Lv1</t>
   </si>
   <si>
@@ -409,6 +434,9 @@
     <t>Chest/GreenGeneratorChest</t>
   </si>
   <si>
+    <t>TileItem/Chest</t>
+  </si>
+  <si>
     <t>CHEST</t>
   </si>
   <si>
@@ -418,6 +446,69 @@
     <t>Chest/EnergyChest</t>
   </si>
   <si>
+    <t>Energy_Lv1</t>
+  </si>
+  <si>
+    <t>Asset/Energy_Lv1</t>
+  </si>
+  <si>
+    <t>ASSET</t>
+  </si>
+  <si>
+    <t>Energy_Lv2</t>
+  </si>
+  <si>
+    <t>Asset/Energy_Lv2</t>
+  </si>
+  <si>
+    <t>Energy_Lv3</t>
+  </si>
+  <si>
+    <t>Asset/Energy_Lv3</t>
+  </si>
+  <si>
+    <t>Energy_Lv4</t>
+  </si>
+  <si>
+    <t>Asset/Energy_Lv4</t>
+  </si>
+  <si>
+    <t>Energy_Lv5</t>
+  </si>
+  <si>
+    <t>Asset/Energy_Lv5</t>
+  </si>
+  <si>
+    <t>Coin_Lv1</t>
+  </si>
+  <si>
+    <t>Asset/Coin_Lv1</t>
+  </si>
+  <si>
+    <t>Coin_Lv2</t>
+  </si>
+  <si>
+    <t>Asset/Coin_Lv2</t>
+  </si>
+  <si>
+    <t>Coin_Lv3</t>
+  </si>
+  <si>
+    <t>Asset/Coin_Lv3</t>
+  </si>
+  <si>
+    <t>Coin_Lv4</t>
+  </si>
+  <si>
+    <t>Asset/Coin_Lv4</t>
+  </si>
+  <si>
+    <t>Coin_Lv5</t>
+  </si>
+  <si>
+    <t>Asset/Coin_Lv5</t>
+  </si>
+  <si>
     <t>GroupPainter</t>
   </si>
   <si>
@@ -428,85 +519,19 @@
   </si>
   <si>
     <t>MAPPAINTER</t>
-  </si>
-  <si>
-    <t>Energy_Lv1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy_Lv2</t>
-  </si>
-  <si>
-    <t>Energy_Lv3</t>
-  </si>
-  <si>
-    <t>Energy_Lv4</t>
-  </si>
-  <si>
-    <t>Energy_Lv5</t>
-  </si>
-  <si>
-    <t>Coin_Lv1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coin_Lv2</t>
-  </si>
-  <si>
-    <t>Coin_Lv3</t>
-  </si>
-  <si>
-    <t>Coin_Lv4</t>
-  </si>
-  <si>
-    <t>Coin_Lv5</t>
-  </si>
-  <si>
-    <t>Asset/Energy_Lv1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asset/Energy_Lv2</t>
-  </si>
-  <si>
-    <t>Asset/Energy_Lv3</t>
-  </si>
-  <si>
-    <t>Asset/Energy_Lv4</t>
-  </si>
-  <si>
-    <t>Asset/Energy_Lv5</t>
-  </si>
-  <si>
-    <t>Asset/Coin_Lv2</t>
-  </si>
-  <si>
-    <t>Asset/Coin_Lv3</t>
-  </si>
-  <si>
-    <t>Asset/Coin_Lv4</t>
-  </si>
-  <si>
-    <t>Asset/Coin_Lv5</t>
-  </si>
-  <si>
-    <t>Asset/Coin_Lv1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASSET</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TileItem/Chest</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,7 +544,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -527,19 +551,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,12 +708,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -576,9 +922,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -605,17 +1193,61 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -873,32 +1505,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="2" customWidth="1"/>
-    <col min="8" max="11" width="16.33203125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="13.2166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.775" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.1083333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.4416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.8833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.1083333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.8833333333333" style="2" customWidth="1"/>
+    <col min="8" max="11" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -933,7 +1565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -968,7 +1600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="5">
         <v>1100101</v>
       </c>
@@ -1001,7 +1633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="5">
         <v>1100102</v>
       </c>
@@ -1034,7 +1666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="5">
         <v>1100103</v>
       </c>
@@ -1067,7 +1699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="5">
         <v>1100104</v>
       </c>
@@ -1100,7 +1732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="5">
         <v>1100105</v>
       </c>
@@ -1133,7 +1765,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>1100201</v>
       </c>
@@ -1166,7 +1798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5">
         <v>1100202</v>
       </c>
@@ -1199,7 +1831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>1100203</v>
       </c>
@@ -1232,7 +1864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5">
         <v>1100204</v>
       </c>
@@ -1265,7 +1897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5">
         <v>1100205</v>
       </c>
@@ -1298,7 +1930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5">
         <v>1100206</v>
       </c>
@@ -1331,7 +1963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5">
         <v>1100207</v>
       </c>
@@ -1364,7 +1996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5">
         <v>1100301</v>
       </c>
@@ -1397,7 +2029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="5">
         <v>1100302</v>
       </c>
@@ -1430,7 +2062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="5">
         <v>1100303</v>
       </c>
@@ -1463,7 +2095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="5">
         <v>1100304</v>
       </c>
@@ -1496,7 +2128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="5">
         <v>1100305</v>
       </c>
@@ -1529,7 +2161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="5">
         <v>1100306</v>
       </c>
@@ -1562,7 +2194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="5">
         <v>1100307</v>
       </c>
@@ -1595,7 +2227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="5">
         <v>1100308</v>
       </c>
@@ -1628,7 +2260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="5">
         <v>1100309</v>
       </c>
@@ -1661,7 +2293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="5">
         <v>1100310</v>
       </c>
@@ -1694,9 +2326,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="5">
-        <v>1200101</v>
+        <v>1100401</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>61</v>
@@ -1707,134 +2339,130 @@
       <c r="D25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5">
+        <v>1100402</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="5">
+        <v>1100402</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="C26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5">
-        <v>1</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
+        <v>1100403</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="5">
+        <v>1100403</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="5">
+        <v>1200101</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="5">
         <v>1200102</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5">
-        <v>1</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>1200103</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5">
-        <v>1</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>2000101</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5">
-        <v>2000102</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1</v>
-      </c>
-      <c r="I28" s="5">
-        <v>0</v>
-      </c>
-      <c r="J28" s="5">
-        <v>1</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>2000102</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>71</v>
@@ -1845,18 +2473,20 @@
       <c r="D29" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="F29" s="5">
-        <v>2000103</v>
+        <v>0</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="5">
         <v>1</v>
@@ -1865,9 +2495,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="5">
-        <v>2000103</v>
+        <v>1200103</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>73</v>
@@ -1878,18 +2508,20 @@
       <c r="D30" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="F30" s="5">
-        <v>2000104</v>
+        <v>0</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="H30" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="5">
         <v>1</v>
@@ -1898,9 +2530,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="5">
-        <v>2000104</v>
+        <v>2000101</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>75</v>
@@ -1911,136 +2543,130 @@
       <c r="D31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5">
+        <v>2000102</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="5">
+        <v>2000102</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="5">
+      <c r="C32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5">
+        <v>2000103</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="5">
+        <v>2000103</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
+        <v>2000104</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="5">
+        <v>2000104</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="5">
         <v>2000105</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="5">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <v>1</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="G34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="5">
         <v>2000105</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="5">
-        <v>2000106</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="5">
-        <v>1</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
-        <v>1</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>2000106</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="5">
-        <v>2000107</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0</v>
-      </c>
-      <c r="J33" s="5">
-        <v>1</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>2000107</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" s="5">
-        <v>1</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5">
-        <v>1</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>2000201</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>85</v>
@@ -2051,12 +2677,14 @@
       <c r="D35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F35" s="5">
-        <v>2000202</v>
+        <v>2000106</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="H35" s="5">
         <v>1</v>
@@ -2071,9 +2699,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="5">
-        <v>2000202</v>
+        <v>2000106</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>87</v>
@@ -2084,12 +2712,14 @@
       <c r="D36" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F36" s="5">
-        <v>2000203</v>
+        <v>2000107</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="H36" s="5">
         <v>1</v>
@@ -2104,9 +2734,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="5">
-        <v>2000203</v>
+        <v>2000107</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>89</v>
@@ -2117,12 +2747,14 @@
       <c r="D37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F37" s="5">
-        <v>2000204</v>
+        <v>0</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="H37" s="5">
         <v>1</v>
@@ -2137,9 +2769,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="5">
-        <v>2000204</v>
+        <v>2000201</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>91</v>
@@ -2150,14 +2782,12 @@
       <c r="D38" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="5">
-        <v>2000205</v>
+        <v>2000202</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="H38" s="5">
         <v>1</v>
@@ -2172,9 +2802,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="5">
-        <v>2000205</v>
+        <v>2000202</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>93</v>
@@ -2185,14 +2815,12 @@
       <c r="D39" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="E39" s="5"/>
       <c r="F39" s="5">
-        <v>2000206</v>
+        <v>2000203</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="H39" s="5">
         <v>1</v>
@@ -2207,9 +2835,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="5">
-        <v>2000206</v>
+        <v>2000203</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>95</v>
@@ -2220,14 +2848,12 @@
       <c r="D40" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="E40" s="5"/>
       <c r="F40" s="5">
-        <v>2000207</v>
+        <v>2000204</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
@@ -2242,9 +2868,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="5">
-        <v>2000207</v>
+        <v>2000204</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>97</v>
@@ -2256,13 +2882,13 @@
         <v>98</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F41" s="5">
-        <v>0</v>
+        <v>2000205</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H41" s="5">
         <v>1</v>
@@ -2277,9 +2903,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="5">
-        <v>3000101</v>
+        <v>2000205</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>99</v>
@@ -2290,439 +2916,445 @@
       <c r="D42" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F42" s="5">
-        <v>0</v>
+        <v>2000206</v>
       </c>
       <c r="G42" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="5">
+        <v>2000206</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H42" s="5">
-        <v>0</v>
-      </c>
-      <c r="I42" s="5">
-        <v>0</v>
-      </c>
-      <c r="J42" s="5">
-        <v>4</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>3000201</v>
-      </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2000207</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="5">
+        <v>2000207</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="C44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5" t="s">
+      <c r="E44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="5">
+        <v>3000101</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H43" s="5">
-        <v>0</v>
-      </c>
-      <c r="I43" s="5">
-        <v>0</v>
-      </c>
-      <c r="J43" s="5">
-        <v>1</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>3000301</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="C45" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0</v>
-      </c>
-      <c r="I44" s="5">
-        <v>0</v>
-      </c>
-      <c r="J44" s="5">
-        <v>2</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>3000401</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5">
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <v>4</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="5">
+        <v>3000201</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H45" s="5">
-        <v>0</v>
-      </c>
-      <c r="I45" s="5">
-        <v>1</v>
-      </c>
-      <c r="J45" s="5">
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <v>1</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="5">
+        <v>3000301</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>2</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="5">
+        <v>3000401</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5">
         <v>3</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="K48" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="5">
         <v>3000501</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F46" s="5">
-        <v>0</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0</v>
-      </c>
-      <c r="I46" s="5">
-        <v>1</v>
-      </c>
-      <c r="J46" s="5">
+      <c r="B49" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5">
         <v>5</v>
       </c>
-      <c r="K46" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="K49" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="5">
         <v>3000502</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0</v>
-      </c>
-      <c r="I47" s="5">
-        <v>1</v>
-      </c>
-      <c r="J47" s="5">
+      <c r="B50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="5">
         <v>5</v>
       </c>
-      <c r="K47" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="K50" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="5">
         <v>3000601</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F48" s="5">
-        <v>0</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H48" s="5">
-        <v>1</v>
-      </c>
-      <c r="I48" s="5">
-        <v>0</v>
-      </c>
-      <c r="J48" s="5">
-        <v>1</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="B51" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <v>1</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="5">
         <v>3000701</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0</v>
-      </c>
-      <c r="I49" s="5">
-        <v>0</v>
-      </c>
-      <c r="J49" s="5">
-        <v>1</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="B52" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="5">
         <v>3000801</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H50" s="5">
-        <v>1</v>
-      </c>
-      <c r="I50" s="5">
-        <v>0</v>
-      </c>
-      <c r="J50" s="5">
-        <v>1</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="B53" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="5">
         <v>3000802</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="5">
-        <v>0</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H51" s="5">
-        <v>1</v>
-      </c>
-      <c r="I51" s="5">
-        <v>0</v>
-      </c>
-      <c r="J51" s="5">
-        <v>1</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="B54" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H54" s="5">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <v>1</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="5">
         <v>4000101</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5">
-        <v>4000102</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H52" s="5">
-        <v>1</v>
-      </c>
-      <c r="I52" s="5">
-        <v>0</v>
-      </c>
-      <c r="J52" s="5">
-        <v>1</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>4000102</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5">
-        <v>4000103</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H53" s="5">
-        <v>1</v>
-      </c>
-      <c r="I53" s="5">
-        <v>0</v>
-      </c>
-      <c r="J53" s="5">
-        <v>1</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>4000103</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5">
-        <v>4000104</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H54" s="5">
-        <v>1</v>
-      </c>
-      <c r="I54" s="5">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5">
-        <v>1</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>4000104</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>139</v>
@@ -2731,14 +3363,14 @@
         <v>15</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5">
-        <v>4000105</v>
+        <v>4000102</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="H55" s="5">
         <v>1</v>
@@ -2753,25 +3385,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="5">
-        <v>4000105</v>
+        <v>4000102</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5">
-        <v>0</v>
+        <v>4000103</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="H56" s="5">
         <v>1</v>
@@ -2786,25 +3418,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="5">
-        <v>4000201</v>
+        <v>4000103</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5">
-        <v>4000202</v>
+        <v>4000104</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="H57" s="5">
         <v>1</v>
@@ -2819,25 +3451,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="5">
-        <v>4000202</v>
+        <v>4000104</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5">
-        <v>4000203</v>
+        <v>4000105</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="H58" s="5">
         <v>1</v>
@@ -2852,25 +3484,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="5">
-        <v>4000203</v>
+        <v>4000105</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5">
-        <v>4000204</v>
+        <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="H59" s="5">
         <v>1</v>
@@ -2885,25 +3517,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="5">
-        <v>4000204</v>
+        <v>4000201</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5">
-        <v>4000205</v>
+        <v>4000202</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="H60" s="5">
         <v>1</v>
@@ -2918,77 +3550,176 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="5">
-        <v>4000205</v>
+        <v>4000202</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5">
-        <v>0</v>
+        <v>4000203</v>
       </c>
       <c r="G61" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="5">
+        <v>4000203</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H61" s="5">
-        <v>1</v>
-      </c>
-      <c r="I61" s="5">
-        <v>0</v>
-      </c>
-      <c r="J61" s="5">
-        <v>1</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="C63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="5">
         <v>9000001</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F62" s="5">
-        <v>0</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H62" s="5">
-        <v>0</v>
-      </c>
-      <c r="I62" s="5">
-        <v>0</v>
-      </c>
-      <c r="J62" s="5">
+      <c r="B65" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
         <v>9</v>
       </c>
-      <c r="K62" s="5" t="s">
+      <c r="K65" s="5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="180">
   <si>
     <t>ID</t>
   </si>
@@ -230,6 +230,36 @@
     <t>Item/MagicTool/MagicTool_Lv3</t>
   </si>
   <si>
+    <t>B_Lv1</t>
+  </si>
+  <si>
+    <t>Item/B/item_B_5_lv1</t>
+  </si>
+  <si>
+    <t>B_Lv2</t>
+  </si>
+  <si>
+    <t>Item/B/item_B_5_lv2</t>
+  </si>
+  <si>
+    <t>B_Lv3</t>
+  </si>
+  <si>
+    <t>Item/B/item_B_5_lv3</t>
+  </si>
+  <si>
+    <t>B_Lv4</t>
+  </si>
+  <si>
+    <t>Item/B/item_B_5_lv4</t>
+  </si>
+  <si>
+    <t>B_Lv5</t>
+  </si>
+  <si>
+    <t>Item/B/item_B_5_lv5</t>
+  </si>
+  <si>
     <t>Shu1_Lv1</t>
   </si>
   <si>
@@ -252,6 +282,24 @@
   </si>
   <si>
     <t>Tree/Shu1/shu1_Lv3</t>
+  </si>
+  <si>
+    <t>Shu2_Lv1</t>
+  </si>
+  <si>
+    <t>Tree/Shu2/shu2_Lv1</t>
+  </si>
+  <si>
+    <t>Shu2_Lv2</t>
+  </si>
+  <si>
+    <t>Tree/Shu2/shu2_Lv2</t>
+  </si>
+  <si>
+    <t>Shu2_Lv3</t>
+  </si>
+  <si>
+    <t>Tree/Shu2/shu2_Lv3</t>
   </si>
   <si>
     <t>DrinkMachine_Lv1</t>
@@ -531,7 +579,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,13 +590,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -699,7 +740,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -888,12 +929,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1040,133 +1075,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,7 +1224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1511,10 +1546,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -2427,7 +2462,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5">
-        <v>1200101</v>
+        <v>1100501</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>67</v>
@@ -2438,20 +2473,18 @@
       <c r="D28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="E28" s="5"/>
       <c r="F28" s="5">
-        <v>0</v>
+        <v>1100502</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H28" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5">
         <v>1</v>
@@ -2462,31 +2495,29 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5">
-        <v>1200102</v>
+        <v>1100502</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E29" s="5"/>
       <c r="F29" s="5">
-        <v>0</v>
+        <v>1100503</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5">
         <v>1</v>
@@ -2497,31 +2528,29 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5">
-        <v>1200103</v>
+        <v>1100503</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="5">
-        <v>0</v>
+        <v>1100504</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="H30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5">
         <v>1</v>
@@ -2532,20 +2561,20 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="5">
-        <v>2000101</v>
+        <v>1100504</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5">
-        <v>2000102</v>
+        <v>1100505</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>17</v>
@@ -2565,20 +2594,20 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="5">
-        <v>2000102</v>
+        <v>1100505</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5">
-        <v>2000103</v>
+        <v>0</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>17</v>
@@ -2598,29 +2627,31 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="5">
-        <v>2000103</v>
+        <v>1200101</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5">
-        <v>2000104</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="H33" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="5">
         <v>1</v>
@@ -2631,7 +2662,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="5">
-        <v>2000104</v>
+        <v>1200102</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>81</v>
@@ -2643,19 +2674,19 @@
         <v>82</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F34" s="5">
-        <v>2000105</v>
+        <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H34" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="5">
         <v>1</v>
@@ -2666,31 +2697,31 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="5">
-        <v>2000105</v>
+        <v>1200103</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F35" s="5">
-        <v>2000106</v>
+        <v>0</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H35" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="5">
         <v>1</v>
@@ -2701,31 +2732,31 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="5">
-        <v>2000106</v>
+        <v>1200201</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F36" s="5">
-        <v>2000107</v>
+        <v>0</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="5">
         <v>1</v>
@@ -2736,31 +2767,31 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="5">
-        <v>2000107</v>
+        <v>1200202</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F37" s="5">
         <v>0</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H37" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="5">
         <v>1</v>
@@ -2771,29 +2802,31 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="5">
-        <v>2000201</v>
+        <v>1200203</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="F38" s="5">
-        <v>2000202</v>
+        <v>0</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="H38" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="5">
         <v>1</v>
@@ -2804,20 +2837,20 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="5">
-        <v>2000202</v>
+        <v>2000101</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5">
-        <v>2000203</v>
+        <v>2000102</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>17</v>
@@ -2837,20 +2870,20 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="5">
-        <v>2000203</v>
+        <v>2000102</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5">
-        <v>2000204</v>
+        <v>2000103</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>17</v>
@@ -2870,25 +2903,23 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="5">
-        <v>2000204</v>
+        <v>2000103</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>83</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E41" s="5"/>
       <c r="F41" s="5">
-        <v>2000205</v>
+        <v>2000104</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="H41" s="5">
         <v>1</v>
@@ -2905,25 +2936,25 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="5">
-        <v>2000205</v>
+        <v>2000104</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="F42" s="5">
+        <v>2000105</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="5">
-        <v>2000206</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="H42" s="5">
         <v>1</v>
@@ -2940,7 +2971,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="5">
-        <v>2000206</v>
+        <v>2000105</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>101</v>
@@ -2952,13 +2983,13 @@
         <v>102</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F43" s="5">
-        <v>2000207</v>
+        <v>2000106</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
@@ -2975,7 +3006,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="5">
-        <v>2000207</v>
+        <v>2000106</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>103</v>
@@ -2987,13 +3018,13 @@
         <v>104</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F44" s="5">
-        <v>0</v>
+        <v>2000107</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H44" s="5">
         <v>1</v>
@@ -3010,7 +3041,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="5">
-        <v>3000101</v>
+        <v>2000107</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>105</v>
@@ -3021,21 +3052,23 @@
       <c r="D45" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="F45" s="5">
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H45" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="5">
         <v>0</v>
       </c>
       <c r="J45" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>18</v>
@@ -3043,28 +3076,26 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="5">
-        <v>3000201</v>
+        <v>2000201</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="E46" s="5"/>
       <c r="F46" s="5">
-        <v>0</v>
+        <v>2000202</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="H46" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="5">
         <v>0</v>
@@ -3078,32 +3109,32 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="5">
-        <v>3000301</v>
+        <v>2000202</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5">
-        <v>0</v>
+        <v>2000203</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="H47" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="5">
         <v>0</v>
       </c>
       <c r="J47" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>18</v>
@@ -3111,32 +3142,32 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="5">
-        <v>3000401</v>
+        <v>2000203</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5">
-        <v>0</v>
+        <v>2000204</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="H48" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>18</v>
@@ -3144,34 +3175,34 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="5">
-        <v>3000501</v>
+        <v>2000204</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F49" s="5">
-        <v>0</v>
+        <v>2000205</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H49" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>18</v>
@@ -3179,34 +3210,34 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="5">
-        <v>3000502</v>
+        <v>2000205</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F50" s="5">
-        <v>0</v>
+        <v>2000206</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="H50" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>18</v>
@@ -3214,25 +3245,25 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="5">
-        <v>3000601</v>
+        <v>2000206</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F51" s="5">
-        <v>0</v>
+        <v>2000207</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="H51" s="5">
         <v>1</v>
@@ -3249,28 +3280,28 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="5">
-        <v>3000701</v>
+        <v>2000207</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="F52" s="5">
         <v>0</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="H52" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="5">
         <v>0</v>
@@ -3284,34 +3315,32 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="5">
-        <v>3000801</v>
+        <v>3000101</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>135</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E53" s="5"/>
       <c r="F53" s="5">
         <v>0</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="5">
         <v>0</v>
       </c>
       <c r="J53" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>18</v>
@@ -3319,28 +3348,28 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="5">
-        <v>3000802</v>
+        <v>3000201</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="F54" s="5">
         <v>0</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H54" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="5">
         <v>0</v>
@@ -3354,32 +3383,32 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="5">
-        <v>4000101</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>139</v>
+        <v>3000301</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>140</v>
+      <c r="D55" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5">
-        <v>4000102</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>141</v>
+        <v>0</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="H55" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="5">
         <v>0</v>
       </c>
       <c r="J55" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>18</v>
@@ -3387,32 +3416,32 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="5">
-        <v>4000102</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>142</v>
+        <v>3000401</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>143</v>
+      <c r="D56" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5">
-        <v>4000103</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>141</v>
+        <v>0</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="H56" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>18</v>
@@ -3420,32 +3449,34 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="5">
-        <v>4000103</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>144</v>
+        <v>3000501</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F57" s="5">
-        <v>4000104</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>141</v>
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="H57" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K57" s="5" t="s">
         <v>18</v>
@@ -3453,32 +3484,34 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="5">
-        <v>4000104</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>146</v>
+        <v>3000502</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F58" s="5">
-        <v>4000105</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>141</v>
+        <v>0</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="H58" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>18</v>
@@ -3486,23 +3519,25 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="5">
-        <v>4000105</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>148</v>
+        <v>3000601</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="F59" s="5">
         <v>0</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>141</v>
+      <c r="G59" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="H59" s="5">
         <v>1</v>
@@ -3519,26 +3554,28 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="5">
-        <v>4000201</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>150</v>
+        <v>3000701</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="F60" s="5">
-        <v>4000202</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>141</v>
+        <v>0</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="H60" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="5">
         <v>0</v>
@@ -3552,23 +3589,25 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="5">
-        <v>4000202</v>
-      </c>
-      <c r="B61" s="6" t="s">
+        <v>3000801</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5">
-        <v>4000203</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="H61" s="5">
         <v>1</v>
@@ -3585,23 +3624,25 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="5">
-        <v>4000203</v>
-      </c>
-      <c r="B62" s="6" t="s">
+        <v>3000802</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="F62" s="5">
-        <v>4000204</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>141</v>
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="H62" s="5">
         <v>1</v>
@@ -3618,23 +3659,23 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="5">
-        <v>4000204</v>
+        <v>4000101</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5">
-        <v>4000205</v>
+        <v>4000102</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H63" s="5">
         <v>1</v>
@@ -3651,7 +3692,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="5">
-        <v>4000205</v>
+        <v>4000102</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>158</v>
@@ -3664,10 +3705,10 @@
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5">
-        <v>0</v>
+        <v>4000103</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H64" s="5">
         <v>1</v>
@@ -3684,36 +3725,300 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="5">
+        <v>4000103</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5">
+        <v>4000104</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H65" s="5">
+        <v>1</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <v>1</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="5">
+        <v>4000104</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5">
+        <v>4000105</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H66" s="5">
+        <v>1</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="5">
+        <v>4000105</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5">
+        <v>0</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H67" s="5">
+        <v>1</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0</v>
+      </c>
+      <c r="J67" s="5">
+        <v>1</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="5">
+        <v>4000201</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5">
+        <v>4000202</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H68" s="5">
+        <v>1</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
+        <v>1</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="5">
+        <v>4000202</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5">
+        <v>4000203</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <v>1</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="5">
+        <v>4000203</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <v>1</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H71" s="5">
+        <v>1</v>
+      </c>
+      <c r="I71" s="5">
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <v>1</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5">
+        <v>0</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5">
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <v>1</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="5">
         <v>9000001</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F65" s="5">
-        <v>0</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H65" s="5">
-        <v>0</v>
-      </c>
-      <c r="I65" s="5">
-        <v>0</v>
-      </c>
-      <c r="J65" s="5">
+      <c r="B73" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H73" s="5">
+        <v>0</v>
+      </c>
+      <c r="I73" s="5">
+        <v>0</v>
+      </c>
+      <c r="J73" s="5">
         <v>9</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="K73" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1548,8 +1548,8 @@
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="5">
         <v>1</v>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FBA180-167A-4C40-8507-6FFCCAAD8616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -572,14 +565,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,151 +583,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -749,192 +598,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -957,255 +626,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1224,65 +651,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1540,32 +920,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.2166666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.775" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.1083333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.4416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.8833333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.1083333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.8833333333333" style="2" customWidth="1"/>
-    <col min="8" max="11" width="16.3333333333333" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88333333333333" style="2"/>
+    <col min="1" max="1" width="13.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="2" customWidth="1"/>
+    <col min="8" max="11" width="16.33203125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:11">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1635,7 +1015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1100101</v>
       </c>
@@ -1668,7 +1048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1100102</v>
       </c>
@@ -1701,7 +1081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1100103</v>
       </c>
@@ -1734,7 +1114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1100104</v>
       </c>
@@ -1767,7 +1147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1100105</v>
       </c>
@@ -1800,7 +1180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1100201</v>
       </c>
@@ -1833,7 +1213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1100202</v>
       </c>
@@ -1866,7 +1246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1100203</v>
       </c>
@@ -1899,7 +1279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1100204</v>
       </c>
@@ -1932,7 +1312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1100205</v>
       </c>
@@ -1965,7 +1345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1100206</v>
       </c>
@@ -1998,7 +1378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1100207</v>
       </c>
@@ -2031,7 +1411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1100301</v>
       </c>
@@ -2064,7 +1444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1100302</v>
       </c>
@@ -2097,7 +1477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1100303</v>
       </c>
@@ -2130,7 +1510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1100304</v>
       </c>
@@ -2163,7 +1543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1100305</v>
       </c>
@@ -2196,7 +1576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>1100306</v>
       </c>
@@ -2229,7 +1609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>1100307</v>
       </c>
@@ -2262,7 +1642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>1100308</v>
       </c>
@@ -2295,7 +1675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>1100309</v>
       </c>
@@ -2328,7 +1708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>1100310</v>
       </c>
@@ -2361,7 +1741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>1100401</v>
       </c>
@@ -2394,7 +1774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>1100402</v>
       </c>
@@ -2427,7 +1807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>1100403</v>
       </c>
@@ -2460,7 +1840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>1100501</v>
       </c>
@@ -2493,7 +1873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>1100502</v>
       </c>
@@ -2526,7 +1906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>1100503</v>
       </c>
@@ -2559,7 +1939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>1100504</v>
       </c>
@@ -2592,7 +1972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>1100505</v>
       </c>
@@ -2625,7 +2005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>1200101</v>
       </c>
@@ -2660,7 +2040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>1200102</v>
       </c>
@@ -2695,7 +2075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>1200103</v>
       </c>
@@ -2730,7 +2110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>1200201</v>
       </c>
@@ -2765,7 +2145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>1200202</v>
       </c>
@@ -2800,7 +2180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1200203</v>
       </c>
@@ -2835,7 +2215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2000101</v>
       </c>
@@ -2868,7 +2248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>2000102</v>
       </c>
@@ -2901,7 +2281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>2000103</v>
       </c>
@@ -2934,7 +2314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>2000104</v>
       </c>
@@ -2969,7 +2349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>2000105</v>
       </c>
@@ -3004,7 +2384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>2000106</v>
       </c>
@@ -3039,7 +2419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>2000107</v>
       </c>
@@ -3074,7 +2454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>2000201</v>
       </c>
@@ -3107,7 +2487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>2000202</v>
       </c>
@@ -3140,7 +2520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>2000203</v>
       </c>
@@ -3173,7 +2553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>2000204</v>
       </c>
@@ -3208,7 +2588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>2000205</v>
       </c>
@@ -3243,7 +2623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>2000206</v>
       </c>
@@ -3278,7 +2658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>2000207</v>
       </c>
@@ -3313,7 +2693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>3000101</v>
       </c>
@@ -3346,7 +2726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>3000201</v>
       </c>
@@ -3381,7 +2761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>3000301</v>
       </c>
@@ -3414,7 +2794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>3000401</v>
       </c>
@@ -3447,7 +2827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>3000501</v>
       </c>
@@ -3482,7 +2862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>3000502</v>
       </c>
@@ -3517,7 +2897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>3000601</v>
       </c>
@@ -3552,7 +2932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>3000701</v>
       </c>
@@ -3587,7 +2967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>3000801</v>
       </c>
@@ -3600,7 +2980,7 @@
       <c r="D61" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>151</v>
       </c>
       <c r="F61" s="5">
@@ -3622,7 +3002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>3000802</v>
       </c>
@@ -3635,7 +3015,7 @@
       <c r="D62" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>151</v>
       </c>
       <c r="F62" s="5">
@@ -3657,24 +3037,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>4000101</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="5" t="s">
         <v>156</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5">
         <v>4000102</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="5" t="s">
         <v>157</v>
       </c>
       <c r="H63" s="5">
@@ -3690,24 +3070,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>4000102</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5">
         <v>4000103</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="5" t="s">
         <v>157</v>
       </c>
       <c r="H64" s="5">
@@ -3723,24 +3103,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>4000103</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="5" t="s">
         <v>161</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5">
         <v>4000104</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="5" t="s">
         <v>157</v>
       </c>
       <c r="H65" s="5">
@@ -3756,24 +3136,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>4000104</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>162</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="5" t="s">
         <v>163</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5">
         <v>4000105</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="5" t="s">
         <v>157</v>
       </c>
       <c r="H66" s="5">
@@ -3789,24 +3169,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>4000105</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5">
         <v>0</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="5" t="s">
         <v>157</v>
       </c>
       <c r="H67" s="5">
@@ -3822,24 +3202,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>4000201</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>166</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>167</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5">
         <v>4000202</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="5" t="s">
         <v>157</v>
       </c>
       <c r="H68" s="5">
@@ -3855,24 +3235,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>4000202</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>168</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="5" t="s">
         <v>169</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5">
         <v>4000203</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G69" s="5" t="s">
         <v>157</v>
       </c>
       <c r="H69" s="5">
@@ -3888,24 +3268,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>4000203</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="5" t="s">
         <v>171</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5">
         <v>4000204</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="5" t="s">
         <v>157</v>
       </c>
       <c r="H70" s="5">
@@ -3921,24 +3301,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>4000204</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>172</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="5" t="s">
         <v>173</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5">
         <v>4000205</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G71" s="5" t="s">
         <v>157</v>
       </c>
       <c r="H71" s="5">
@@ -3954,24 +3334,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>4000205</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="5" t="s">
         <v>175</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5">
         <v>0</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="5" t="s">
         <v>157</v>
       </c>
       <c r="H72" s="5">
@@ -3987,7 +3367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>9000001</v>
       </c>
@@ -4023,8 +3403,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FBA180-167A-4C40-8507-6FFCCAAD8616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -565,8 +572,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,13 +596,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,12 +749,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -626,9 +963,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -652,17 +1231,61 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -920,32 +1543,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="2" customWidth="1"/>
-    <col min="8" max="11" width="16.33203125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="13.2166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.775" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.1083333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.4416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.8833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.1083333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.8833333333333" style="2" customWidth="1"/>
+    <col min="8" max="11" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -980,7 +1603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1015,7 +1638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="5">
         <v>1100101</v>
       </c>
@@ -1048,7 +1671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="5">
         <v>1100102</v>
       </c>
@@ -1081,7 +1704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="5">
         <v>1100103</v>
       </c>
@@ -1114,7 +1737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="5">
         <v>1100104</v>
       </c>
@@ -1147,7 +1770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="5">
         <v>1100105</v>
       </c>
@@ -1180,7 +1803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>1100201</v>
       </c>
@@ -1213,7 +1836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5">
         <v>1100202</v>
       </c>
@@ -1246,7 +1869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>1100203</v>
       </c>
@@ -1279,7 +1902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5">
         <v>1100204</v>
       </c>
@@ -1312,7 +1935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5">
         <v>1100205</v>
       </c>
@@ -1345,7 +1968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5">
         <v>1100206</v>
       </c>
@@ -1378,7 +2001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5">
         <v>1100207</v>
       </c>
@@ -1411,7 +2034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5">
         <v>1100301</v>
       </c>
@@ -1444,7 +2067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="5">
         <v>1100302</v>
       </c>
@@ -1477,7 +2100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="5">
         <v>1100303</v>
       </c>
@@ -1510,7 +2133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="5">
         <v>1100304</v>
       </c>
@@ -1543,7 +2166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="5">
         <v>1100305</v>
       </c>
@@ -1576,7 +2199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="5">
         <v>1100306</v>
       </c>
@@ -1609,7 +2232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="5">
         <v>1100307</v>
       </c>
@@ -1642,7 +2265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="5">
         <v>1100308</v>
       </c>
@@ -1675,7 +2298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="5">
         <v>1100309</v>
       </c>
@@ -1708,7 +2331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="5">
         <v>1100310</v>
       </c>
@@ -1741,7 +2364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="5">
         <v>1100401</v>
       </c>
@@ -1774,7 +2397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="5">
         <v>1100402</v>
       </c>
@@ -1807,7 +2430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="5">
         <v>1100403</v>
       </c>
@@ -1840,7 +2463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="5">
         <v>1100501</v>
       </c>
@@ -1873,7 +2496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="5">
         <v>1100502</v>
       </c>
@@ -1906,7 +2529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="5">
         <v>1100503</v>
       </c>
@@ -1939,7 +2562,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="5">
         <v>1100504</v>
       </c>
@@ -1972,7 +2595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="5">
         <v>1100505</v>
       </c>
@@ -2005,7 +2628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="5">
         <v>1200101</v>
       </c>
@@ -2040,7 +2663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="5">
         <v>1200102</v>
       </c>
@@ -2075,7 +2698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="5">
         <v>1200103</v>
       </c>
@@ -2110,7 +2733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="5">
         <v>1200201</v>
       </c>
@@ -2145,7 +2768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="5">
         <v>1200202</v>
       </c>
@@ -2180,7 +2803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="5">
         <v>1200203</v>
       </c>
@@ -2215,7 +2838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="5">
         <v>2000101</v>
       </c>
@@ -2248,7 +2871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="5">
         <v>2000102</v>
       </c>
@@ -2281,7 +2904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="5">
         <v>2000103</v>
       </c>
@@ -2314,7 +2937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="5">
         <v>2000104</v>
       </c>
@@ -2349,7 +2972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="5">
         <v>2000105</v>
       </c>
@@ -2384,7 +3007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="5">
         <v>2000106</v>
       </c>
@@ -2419,7 +3042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="5">
         <v>2000107</v>
       </c>
@@ -2454,7 +3077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="5">
         <v>2000201</v>
       </c>
@@ -2487,7 +3110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="5">
         <v>2000202</v>
       </c>
@@ -2520,7 +3143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="5">
         <v>2000203</v>
       </c>
@@ -2553,7 +3176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="5">
         <v>2000204</v>
       </c>
@@ -2588,7 +3211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="5">
         <v>2000205</v>
       </c>
@@ -2623,7 +3246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="5">
         <v>2000206</v>
       </c>
@@ -2658,7 +3281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="5">
         <v>2000207</v>
       </c>
@@ -2693,7 +3316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="5">
         <v>3000101</v>
       </c>
@@ -2726,7 +3349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="5">
         <v>3000201</v>
       </c>
@@ -2761,7 +3384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="5">
         <v>3000301</v>
       </c>
@@ -2794,7 +3417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="5">
         <v>3000401</v>
       </c>
@@ -2827,7 +3450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="5">
         <v>3000501</v>
       </c>
@@ -2862,7 +3485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="5">
         <v>3000502</v>
       </c>
@@ -2897,7 +3520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="5">
         <v>3000601</v>
       </c>
@@ -2932,7 +3555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="5">
         <v>3000701</v>
       </c>
@@ -2967,7 +3590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="5">
         <v>3000801</v>
       </c>
@@ -3002,7 +3625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="5">
         <v>3000802</v>
       </c>
@@ -3037,7 +3660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="5">
         <v>4000101</v>
       </c>
@@ -3070,7 +3693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="5">
         <v>4000102</v>
       </c>
@@ -3103,7 +3726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="5">
         <v>4000103</v>
       </c>
@@ -3136,7 +3759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="5">
         <v>4000104</v>
       </c>
@@ -3169,7 +3792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="5">
         <v>4000105</v>
       </c>
@@ -3202,7 +3825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="5">
         <v>4000201</v>
       </c>
@@ -3235,7 +3858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="5">
         <v>4000202</v>
       </c>
@@ -3268,7 +3891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="5">
         <v>4000203</v>
       </c>
@@ -3301,7 +3924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="5">
         <v>4000204</v>
       </c>
@@ -3334,7 +3957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="5">
         <v>4000205</v>
       </c>
@@ -3367,7 +3990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="5">
         <v>9000001</v>
       </c>
@@ -3403,8 +4026,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -740,7 +740,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -929,12 +929,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1204,10 +1198,10 @@
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1551,8 +1545,8 @@
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -390,6 +390,30 @@
   </si>
   <si>
     <t>Generator/LemonTree/LemonTree_Lv7</t>
+  </si>
+  <si>
+    <t>KitchenBag_Lv1</t>
+  </si>
+  <si>
+    <t>KitchenBag_Lv2</t>
+  </si>
+  <si>
+    <t>KitchenBag_Lv3</t>
+  </si>
+  <si>
+    <t>KitchenBag_Lv4</t>
+  </si>
+  <si>
+    <t>KitchenBag_Lv5</t>
+  </si>
+  <si>
+    <t>KitchenBag_Lv6</t>
+  </si>
+  <si>
+    <t>KitchenBag_Lv7</t>
+  </si>
+  <si>
+    <t>KitchenBag_Lv8</t>
   </si>
   <si>
     <t>Fog</t>
@@ -1543,10 +1567,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -3312,7 +3336,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="5">
-        <v>3000101</v>
+        <v>2000301</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>121</v>
@@ -3320,300 +3344,176 @@
       <c r="C53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="5">
-        <v>0</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H53" s="5">
-        <v>0</v>
-      </c>
-      <c r="I53" s="5">
-        <v>0</v>
-      </c>
-      <c r="J53" s="5">
-        <v>4</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="5">
-        <v>3000201</v>
+        <v>2000302</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F54" s="5">
-        <v>0</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H54" s="5">
-        <v>0</v>
-      </c>
-      <c r="I54" s="5">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5">
-        <v>1</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="5">
-        <v>3000301</v>
+        <v>2000303</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>129</v>
-      </c>
+      <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="5">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0</v>
-      </c>
-      <c r="I55" s="5">
-        <v>0</v>
-      </c>
-      <c r="J55" s="5">
-        <v>2</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="5">
-        <v>3000401</v>
+        <v>2000304</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="5">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H56" s="5">
-        <v>0</v>
-      </c>
-      <c r="I56" s="5">
-        <v>1</v>
-      </c>
-      <c r="J56" s="5">
-        <v>3</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="5">
-        <v>3000501</v>
+        <v>2000305</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F57" s="5">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H57" s="5">
-        <v>0</v>
-      </c>
-      <c r="I57" s="5">
-        <v>1</v>
-      </c>
-      <c r="J57" s="5">
-        <v>5</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="5">
-        <v>3000502</v>
+        <v>2000306</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F58" s="5">
-        <v>0</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="H58" s="5">
-        <v>0</v>
-      </c>
-      <c r="I58" s="5">
-        <v>1</v>
-      </c>
-      <c r="J58" s="5">
-        <v>5</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="5">
-        <v>3000601</v>
+        <v>2000307</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F59" s="5">
-        <v>0</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H59" s="5">
-        <v>1</v>
-      </c>
-      <c r="I59" s="5">
-        <v>0</v>
-      </c>
-      <c r="J59" s="5">
-        <v>1</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="5">
-        <v>3000701</v>
+        <v>2000308</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F60" s="5">
-        <v>0</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H60" s="5">
-        <v>0</v>
-      </c>
-      <c r="I60" s="5">
-        <v>1</v>
-      </c>
-      <c r="J60" s="5">
-        <v>1</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="5">
-        <v>3000801</v>
+        <v>3000101</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>151</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E61" s="5"/>
       <c r="F61" s="5">
         <v>0</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="H61" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="5">
         <v>0</v>
       </c>
       <c r="J61" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>18</v>
@@ -3621,28 +3521,28 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="5">
-        <v>3000802</v>
+        <v>3000201</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F62" s="5">
         <v>0</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="H62" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="5">
         <v>0</v>
@@ -3656,32 +3556,32 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="5">
-        <v>4000101</v>
+        <v>3000301</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5">
-        <v>4000102</v>
+        <v>0</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="H63" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="5">
         <v>0</v>
       </c>
       <c r="J63" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>18</v>
@@ -3689,32 +3589,32 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="5">
-        <v>4000102</v>
+        <v>3000401</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5">
-        <v>4000103</v>
+        <v>0</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="H64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>18</v>
@@ -3722,32 +3622,34 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="5">
-        <v>4000103</v>
+        <v>3000501</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E65" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="F65" s="5">
-        <v>4000104</v>
+        <v>0</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H65" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>18</v>
@@ -3755,32 +3657,34 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="5">
-        <v>4000104</v>
+        <v>3000502</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E66" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="F66" s="5">
-        <v>4000105</v>
+        <v>0</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>18</v>
@@ -3788,23 +3692,25 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="5">
-        <v>4000105</v>
+        <v>3000601</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E67" s="5"/>
+        <v>150</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="F67" s="5">
         <v>0</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H67" s="5">
         <v>1</v>
@@ -3821,29 +3727,31 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="5">
-        <v>4000201</v>
+        <v>3000701</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E68" s="5"/>
+        <v>154</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F68" s="5">
-        <v>4000202</v>
+        <v>0</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" s="5">
         <v>1</v>
@@ -3854,23 +3762,25 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="5">
-        <v>4000202</v>
+        <v>3000801</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E69" s="5"/>
+        <v>158</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="F69" s="5">
-        <v>4000203</v>
+        <v>0</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
@@ -3887,23 +3797,25 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="5">
-        <v>4000203</v>
+        <v>3000802</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E70" s="5"/>
+        <v>162</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="F70" s="5">
-        <v>4000204</v>
+        <v>0</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H70" s="5">
         <v>1</v>
@@ -3920,23 +3832,23 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="5">
-        <v>4000204</v>
+        <v>4000101</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5">
-        <v>4000205</v>
+        <v>4000102</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="H71" s="5">
         <v>1</v>
@@ -3953,23 +3865,23 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="5">
-        <v>4000205</v>
+        <v>4000102</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5">
-        <v>0</v>
+        <v>4000103</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="H72" s="5">
         <v>1</v>
@@ -3986,36 +3898,300 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="5">
+        <v>4000103</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5">
+        <v>4000104</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H73" s="5">
+        <v>1</v>
+      </c>
+      <c r="I73" s="5">
+        <v>0</v>
+      </c>
+      <c r="J73" s="5">
+        <v>1</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="5">
+        <v>4000104</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5">
+        <v>4000105</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H74" s="5">
+        <v>1</v>
+      </c>
+      <c r="I74" s="5">
+        <v>0</v>
+      </c>
+      <c r="J74" s="5">
+        <v>1</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="5">
+        <v>4000105</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H75" s="5">
+        <v>1</v>
+      </c>
+      <c r="I75" s="5">
+        <v>0</v>
+      </c>
+      <c r="J75" s="5">
+        <v>1</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="5">
+        <v>4000201</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5">
+        <v>4000202</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H76" s="5">
+        <v>1</v>
+      </c>
+      <c r="I76" s="5">
+        <v>0</v>
+      </c>
+      <c r="J76" s="5">
+        <v>1</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="5">
+        <v>4000202</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5">
+        <v>4000203</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1</v>
+      </c>
+      <c r="I77" s="5">
+        <v>0</v>
+      </c>
+      <c r="J77" s="5">
+        <v>1</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="5">
+        <v>4000203</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H78" s="5">
+        <v>1</v>
+      </c>
+      <c r="I78" s="5">
+        <v>0</v>
+      </c>
+      <c r="J78" s="5">
+        <v>1</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H79" s="5">
+        <v>1</v>
+      </c>
+      <c r="I79" s="5">
+        <v>0</v>
+      </c>
+      <c r="J79" s="5">
+        <v>1</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5">
+        <v>0</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H80" s="5">
+        <v>1</v>
+      </c>
+      <c r="I80" s="5">
+        <v>0</v>
+      </c>
+      <c r="J80" s="5">
+        <v>1</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="5">
         <v>9000001</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F73" s="5">
-        <v>0</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H73" s="5">
-        <v>0</v>
-      </c>
-      <c r="I73" s="5">
-        <v>0</v>
-      </c>
-      <c r="J73" s="5">
+      <c r="B81" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H81" s="5">
+        <v>0</v>
+      </c>
+      <c r="I81" s="5">
+        <v>0</v>
+      </c>
+      <c r="J81" s="5">
         <v>9</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="K81" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="246">
   <si>
     <t>ID</t>
   </si>
@@ -260,6 +260,156 @@
     <t>Item/B/item_B_5_lv5</t>
   </si>
   <si>
+    <t>Tea_Lv1</t>
+  </si>
+  <si>
+    <t>Item/Tea/item_Tea_7_lv1</t>
+  </si>
+  <si>
+    <t>Tea_Lv2</t>
+  </si>
+  <si>
+    <t>Item/Tea/item_Tea_7_lv2</t>
+  </si>
+  <si>
+    <t>Tea_Lv3</t>
+  </si>
+  <si>
+    <t>Item/Tea/item_Tea_7_lv3</t>
+  </si>
+  <si>
+    <t>Tea_Lv4</t>
+  </si>
+  <si>
+    <t>Item/Tea/item_Tea_7_lv4</t>
+  </si>
+  <si>
+    <t>Tea_Lv5</t>
+  </si>
+  <si>
+    <t>Item/Tea/item_Tea_7_lv5</t>
+  </si>
+  <si>
+    <t>Tea_Lv6</t>
+  </si>
+  <si>
+    <t>Item/Tea/item_Tea_7_lv6</t>
+  </si>
+  <si>
+    <t>Tea_Lv7</t>
+  </si>
+  <si>
+    <t>Item/Tea/item_Tea_7_lv7</t>
+  </si>
+  <si>
+    <t>Bread_Lv1</t>
+  </si>
+  <si>
+    <t>Item/Bread/item_Bread_11_lv1</t>
+  </si>
+  <si>
+    <t>Bread_Lv2</t>
+  </si>
+  <si>
+    <t>Item/Bread/item_Bread_11_lv2</t>
+  </si>
+  <si>
+    <t>Bread_Lv3</t>
+  </si>
+  <si>
+    <t>Item/Bread/item_Bread_11_lv3</t>
+  </si>
+  <si>
+    <t>Bread_Lv4</t>
+  </si>
+  <si>
+    <t>Item/Bread/item_Bread_11_lv4</t>
+  </si>
+  <si>
+    <t>Bread_Lv5</t>
+  </si>
+  <si>
+    <t>Item/Bread/item_Bread_11_lv5</t>
+  </si>
+  <si>
+    <t>Bread_Lv6</t>
+  </si>
+  <si>
+    <t>Item/Bread/item_Bread_11_lv6</t>
+  </si>
+  <si>
+    <t>Bread_Lv7</t>
+  </si>
+  <si>
+    <t>Item/Bread/item_Bread_11_lv7</t>
+  </si>
+  <si>
+    <t>Bread_Lv8</t>
+  </si>
+  <si>
+    <t>Item/Bread/item_Bread_11_lv8</t>
+  </si>
+  <si>
+    <t>Bread_Lv9</t>
+  </si>
+  <si>
+    <t>Item/Bread/item_Bread_11_lv9</t>
+  </si>
+  <si>
+    <t>Bread_Lv10</t>
+  </si>
+  <si>
+    <t>Item/Bread/item_Bread_11_lv10</t>
+  </si>
+  <si>
+    <t>Bread_Lv11</t>
+  </si>
+  <si>
+    <t>Item/Bread/item_Bread_11_lv11</t>
+  </si>
+  <si>
+    <t>Fires_Lv1</t>
+  </si>
+  <si>
+    <t>Item/Fries/item_Fires_7_lv1</t>
+  </si>
+  <si>
+    <t>Fires_Lv2</t>
+  </si>
+  <si>
+    <t>Item/Fries/item_Fires_7_lv2</t>
+  </si>
+  <si>
+    <t>Fires_Lv3</t>
+  </si>
+  <si>
+    <t>Item/Fries/item_Fires_7_lv3</t>
+  </si>
+  <si>
+    <t>Fires_Lv4</t>
+  </si>
+  <si>
+    <t>Item/Fries/item_Fires_7_lv4</t>
+  </si>
+  <si>
+    <t>Fires_Lv5</t>
+  </si>
+  <si>
+    <t>Item/Fries/item_Fires_7_lv5</t>
+  </si>
+  <si>
+    <t>Fires_Lv6</t>
+  </si>
+  <si>
+    <t>Item/Fries/item_Fires_7_lv6</t>
+  </si>
+  <si>
+    <t>Fires_Lv7</t>
+  </si>
+  <si>
+    <t>Item/Fries/item_Fires_7_lv7</t>
+  </si>
+  <si>
     <t>Shu1_Lv1</t>
   </si>
   <si>
@@ -395,25 +545,49 @@
     <t>KitchenBag_Lv1</t>
   </si>
   <si>
+    <t>Generator/KitchenBag/KitchenBag_Lv1</t>
+  </si>
+  <si>
     <t>KitchenBag_Lv2</t>
   </si>
   <si>
+    <t>Generator/KitchenBag/KitchenBag_Lv2</t>
+  </si>
+  <si>
     <t>KitchenBag_Lv3</t>
   </si>
   <si>
+    <t>Generator/KitchenBag/KitchenBag_Lv3</t>
+  </si>
+  <si>
     <t>KitchenBag_Lv4</t>
   </si>
   <si>
+    <t>Generator/KitchenBag/KitchenBag_Lv4</t>
+  </si>
+  <si>
     <t>KitchenBag_Lv5</t>
   </si>
   <si>
+    <t>Generator/KitchenBag/KitchenBag_Lv5</t>
+  </si>
+  <si>
     <t>KitchenBag_Lv6</t>
   </si>
   <si>
+    <t>Generator/KitchenBag/KitchenBag_Lv6</t>
+  </si>
+  <si>
     <t>KitchenBag_Lv7</t>
   </si>
   <si>
+    <t>Generator/KitchenBag/KitchenBag_Lv7</t>
+  </si>
+  <si>
     <t>KitchenBag_Lv8</t>
+  </si>
+  <si>
+    <t>Generator/KitchenBag/KitchenBag_Lv8</t>
   </si>
   <si>
     <t>Fog</t>
@@ -1567,10 +1741,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -2648,7 +2822,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="5">
-        <v>1200101</v>
+        <v>1100601</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>77</v>
@@ -2659,20 +2833,18 @@
       <c r="D33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="5">
-        <v>0</v>
+        <v>1100602</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H33" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5">
         <v>1</v>
@@ -2683,31 +2855,29 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="5">
-        <v>1200102</v>
+        <v>1100602</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E34" s="5"/>
       <c r="F34" s="5">
-        <v>0</v>
+        <v>1100603</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H34" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5">
         <v>1</v>
@@ -2718,31 +2888,29 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="5">
-        <v>1200103</v>
+        <v>1100603</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="5">
-        <v>0</v>
+        <v>1100604</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H35" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5">
         <v>1</v>
@@ -2753,31 +2921,29 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="5">
-        <v>1200201</v>
+        <v>1100604</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E36" s="5"/>
       <c r="F36" s="5">
-        <v>0</v>
+        <v>1100605</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H36" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5">
         <v>1</v>
@@ -2788,31 +2954,29 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="5">
-        <v>1200202</v>
+        <v>1100605</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E37" s="5"/>
       <c r="F37" s="5">
-        <v>0</v>
+        <v>1100606</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H37" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5">
         <v>1</v>
@@ -2823,31 +2987,29 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="5">
-        <v>1200203</v>
+        <v>1100606</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>79</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="5">
-        <v>0</v>
+        <v>1100607</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H38" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5">
         <v>1</v>
@@ -2858,20 +3020,20 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="5">
-        <v>2000101</v>
+        <v>1100607</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5">
-        <v>2000102</v>
+        <v>0</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>17</v>
@@ -2891,20 +3053,20 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="5">
-        <v>2000102</v>
+        <v>1100701</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5">
-        <v>2000103</v>
+        <v>1100702</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>17</v>
@@ -2924,20 +3086,20 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="5">
-        <v>2000103</v>
+        <v>1100702</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5">
-        <v>2000104</v>
+        <v>1100703</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>17</v>
@@ -2957,25 +3119,23 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="5">
-        <v>2000104</v>
+        <v>1100703</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E42" s="5"/>
       <c r="F42" s="5">
-        <v>2000105</v>
+        <v>1100704</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H42" s="5">
         <v>1</v>
@@ -2992,25 +3152,23 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="5">
-        <v>2000105</v>
+        <v>1100704</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E43" s="5"/>
       <c r="F43" s="5">
-        <v>2000106</v>
+        <v>1100705</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
@@ -3027,25 +3185,23 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="5">
-        <v>2000106</v>
+        <v>1100705</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E44" s="5"/>
       <c r="F44" s="5">
-        <v>2000107</v>
+        <v>1100706</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H44" s="5">
         <v>1</v>
@@ -3062,25 +3218,23 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="5">
-        <v>2000107</v>
+        <v>1100706</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E45" s="5"/>
       <c r="F45" s="5">
-        <v>0</v>
+        <v>1100707</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H45" s="5">
         <v>1</v>
@@ -3097,20 +3251,20 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="5">
-        <v>2000201</v>
+        <v>1100707</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5">
-        <v>2000202</v>
+        <v>1100708</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>17</v>
@@ -3130,20 +3284,20 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="5">
-        <v>2000202</v>
+        <v>1100708</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5">
-        <v>2000203</v>
+        <v>1100709</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>17</v>
@@ -3163,20 +3317,20 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="5">
-        <v>2000203</v>
+        <v>1100709</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5">
-        <v>2000204</v>
+        <v>1100710</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>17</v>
@@ -3196,25 +3350,23 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="5">
-        <v>2000204</v>
+        <v>1100710</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E49" s="5"/>
       <c r="F49" s="5">
-        <v>2000205</v>
+        <v>1100711</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H49" s="5">
         <v>1</v>
@@ -3231,25 +3383,23 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="5">
-        <v>2000205</v>
+        <v>1100711</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E50" s="5"/>
       <c r="F50" s="5">
-        <v>2000206</v>
+        <v>0</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H50" s="5">
         <v>1</v>
@@ -3266,25 +3416,23 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="5">
-        <v>2000206</v>
+        <v>1100801</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E51" s="5"/>
       <c r="F51" s="5">
-        <v>2000207</v>
+        <v>1100802</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H51" s="5">
         <v>1</v>
@@ -3301,25 +3449,23 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="5">
-        <v>2000207</v>
+        <v>1100802</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>99</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E52" s="5"/>
       <c r="F52" s="5">
-        <v>0</v>
+        <v>1100803</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H52" s="5">
         <v>1</v>
@@ -3336,83 +3482,139 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="5">
-        <v>2000301</v>
+        <v>1100803</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+      <c r="F53" s="5">
+        <v>1100804</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="5">
-        <v>2000302</v>
+        <v>1100804</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>120</v>
+      </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
+      <c r="F54" s="5">
+        <v>1100805</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="5">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <v>1</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="5">
-        <v>2000303</v>
+        <v>1100805</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
+      <c r="F55" s="5">
+        <v>1100806</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
+        <v>1</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="5">
-        <v>2000304</v>
+        <v>1100806</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
+      <c r="F56" s="5">
+        <v>1100807</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="5">
-        <v>2000305</v>
+        <v>1100807</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>125</v>
@@ -3420,100 +3622,164 @@
       <c r="C57" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
+        <v>1</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="5">
-        <v>2000306</v>
+        <v>1200101</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
+      <c r="D58" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0</v>
+      </c>
+      <c r="I58" s="5">
+        <v>1</v>
+      </c>
+      <c r="J58" s="5">
+        <v>1</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="5">
-        <v>2000307</v>
+        <v>1200102</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
+      <c r="D59" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+      <c r="I59" s="5">
+        <v>1</v>
+      </c>
+      <c r="J59" s="5">
+        <v>1</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="5">
-        <v>2000308</v>
+        <v>1200103</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
+      <c r="D60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0</v>
+      </c>
+      <c r="I60" s="5">
+        <v>1</v>
+      </c>
+      <c r="J60" s="5">
+        <v>1</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="5">
-        <v>3000101</v>
+        <v>1200201</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5">
-        <v>0</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="H61" s="5">
         <v>0</v>
       </c>
       <c r="I61" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>18</v>
@@ -3521,31 +3787,31 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="5">
-        <v>3000201</v>
+        <v>1200202</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F62" s="5">
         <v>0</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H62" s="5">
         <v>0</v>
       </c>
       <c r="I62" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="5">
         <v>1</v>
@@ -3556,32 +3822,34 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="5">
-        <v>3000301</v>
+        <v>1200203</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E63" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="F63" s="5">
         <v>0</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H63" s="5">
         <v>0</v>
       </c>
       <c r="I63" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>18</v>
@@ -3589,32 +3857,32 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="5">
-        <v>3000401</v>
+        <v>2000101</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5">
-        <v>0</v>
+        <v>2000102</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="H64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K64" s="5" t="s">
         <v>18</v>
@@ -3622,34 +3890,32 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="5">
-        <v>3000501</v>
+        <v>2000102</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" s="5" t="s">
         <v>144</v>
       </c>
+      <c r="E65" s="5"/>
       <c r="F65" s="5">
-        <v>0</v>
+        <v>2000103</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="H65" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>18</v>
@@ -3657,34 +3923,32 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="5">
-        <v>3000502</v>
+        <v>2000103</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>144</v>
-      </c>
+      <c r="E66" s="5"/>
       <c r="F66" s="5">
-        <v>0</v>
+        <v>2000104</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="H66" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>18</v>
@@ -3692,25 +3956,25 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="5">
-        <v>3000601</v>
+        <v>2000104</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="F67" s="5">
+        <v>2000105</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F67" s="5">
-        <v>0</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="H67" s="5">
         <v>1</v>
@@ -3727,31 +3991,31 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="5">
-        <v>3000701</v>
+        <v>2000105</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F68" s="5">
-        <v>0</v>
+        <v>2000106</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H68" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5">
         <v>1</v>
@@ -3762,25 +4026,25 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="5">
-        <v>3000801</v>
+        <v>2000106</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F69" s="5">
-        <v>0</v>
+        <v>2000107</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
@@ -3797,25 +4061,25 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="5">
-        <v>3000802</v>
+        <v>2000107</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F70" s="5">
         <v>0</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H70" s="5">
         <v>1</v>
@@ -3832,23 +4096,23 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="5">
-        <v>4000101</v>
+        <v>2000201</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5">
-        <v>4000102</v>
+        <v>2000202</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="H71" s="5">
         <v>1</v>
@@ -3865,23 +4129,23 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="5">
-        <v>4000102</v>
+        <v>2000202</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5">
-        <v>4000103</v>
+        <v>2000203</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="H72" s="5">
         <v>1</v>
@@ -3898,23 +4162,23 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="5">
-        <v>4000103</v>
+        <v>2000203</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5">
-        <v>4000104</v>
+        <v>2000204</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="H73" s="5">
         <v>1</v>
@@ -3931,23 +4195,25 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="5">
-        <v>4000104</v>
+        <v>2000204</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E74" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="F74" s="5">
-        <v>4000105</v>
+        <v>2000205</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="H74" s="5">
         <v>1</v>
@@ -3964,23 +4230,25 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="5">
-        <v>4000105</v>
+        <v>2000205</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E75" s="5"/>
+        <v>166</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="F75" s="5">
-        <v>0</v>
+        <v>2000206</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="H75" s="5">
         <v>1</v>
@@ -3997,23 +4265,25 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="5">
-        <v>4000201</v>
+        <v>2000206</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E76" s="5"/>
+        <v>168</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="F76" s="5">
-        <v>4000202</v>
+        <v>2000207</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="H76" s="5">
         <v>1</v>
@@ -4030,23 +4300,25 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="5">
-        <v>4000202</v>
+        <v>2000207</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E77" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="F77" s="5">
-        <v>4000203</v>
+        <v>0</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="H77" s="5">
         <v>1</v>
@@ -4063,23 +4335,23 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="5">
-        <v>4000203</v>
+        <v>2000301</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5">
-        <v>4000204</v>
+        <v>2000302</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="H78" s="5">
         <v>1</v>
@@ -4096,23 +4368,23 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="5">
-        <v>4000204</v>
+        <v>2000302</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5">
-        <v>4000205</v>
+        <v>2000303</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="H79" s="5">
         <v>1</v>
@@ -4129,23 +4401,23 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="5">
-        <v>4000205</v>
+        <v>2000303</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5">
-        <v>0</v>
+        <v>2000304</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="H80" s="5">
         <v>1</v>
@@ -4162,36 +4434,885 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="5">
+        <v>2000304</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F81" s="5">
+        <v>2000305</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H81" s="5">
+        <v>1</v>
+      </c>
+      <c r="I81" s="5">
+        <v>0</v>
+      </c>
+      <c r="J81" s="5">
+        <v>1</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="5">
+        <v>2000305</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F82" s="5">
+        <v>2000306</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1</v>
+      </c>
+      <c r="I82" s="5">
+        <v>0</v>
+      </c>
+      <c r="J82" s="5">
+        <v>1</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="5">
+        <v>2000306</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F83" s="5">
+        <v>2000307</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H83" s="5">
+        <v>1</v>
+      </c>
+      <c r="I83" s="5">
+        <v>0</v>
+      </c>
+      <c r="J83" s="5">
+        <v>1</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="5">
+        <v>2000307</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F84" s="5">
+        <v>2000308</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1</v>
+      </c>
+      <c r="I84" s="5">
+        <v>0</v>
+      </c>
+      <c r="J84" s="5">
+        <v>1</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="5">
+        <v>2000308</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H85" s="5">
+        <v>1</v>
+      </c>
+      <c r="I85" s="5">
+        <v>0</v>
+      </c>
+      <c r="J85" s="5">
+        <v>1</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="5">
+        <v>3000101</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H86" s="5">
+        <v>0</v>
+      </c>
+      <c r="I86" s="5">
+        <v>0</v>
+      </c>
+      <c r="J86" s="5">
+        <v>4</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="5">
+        <v>3000201</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H87" s="5">
+        <v>0</v>
+      </c>
+      <c r="I87" s="5">
+        <v>0</v>
+      </c>
+      <c r="J87" s="5">
+        <v>1</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="5">
+        <v>3000301</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5">
+        <v>0</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H88" s="5">
+        <v>0</v>
+      </c>
+      <c r="I88" s="5">
+        <v>0</v>
+      </c>
+      <c r="J88" s="5">
+        <v>2</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="5">
+        <v>3000401</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5">
+        <v>0</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H89" s="5">
+        <v>0</v>
+      </c>
+      <c r="I89" s="5">
+        <v>1</v>
+      </c>
+      <c r="J89" s="5">
+        <v>3</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="5">
+        <v>3000501</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H90" s="5">
+        <v>0</v>
+      </c>
+      <c r="I90" s="5">
+        <v>1</v>
+      </c>
+      <c r="J90" s="5">
+        <v>5</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="5">
+        <v>3000502</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H91" s="5">
+        <v>0</v>
+      </c>
+      <c r="I91" s="5">
+        <v>1</v>
+      </c>
+      <c r="J91" s="5">
+        <v>5</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="5">
+        <v>3000601</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H92" s="5">
+        <v>1</v>
+      </c>
+      <c r="I92" s="5">
+        <v>0</v>
+      </c>
+      <c r="J92" s="5">
+        <v>1</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="5">
+        <v>3000701</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H93" s="5">
+        <v>0</v>
+      </c>
+      <c r="I93" s="5">
+        <v>1</v>
+      </c>
+      <c r="J93" s="5">
+        <v>1</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="5">
+        <v>3000801</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H94" s="5">
+        <v>1</v>
+      </c>
+      <c r="I94" s="5">
+        <v>0</v>
+      </c>
+      <c r="J94" s="5">
+        <v>1</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="5">
+        <v>3000802</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H95" s="5">
+        <v>1</v>
+      </c>
+      <c r="I95" s="5">
+        <v>0</v>
+      </c>
+      <c r="J95" s="5">
+        <v>1</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="5">
+        <v>4000101</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5">
+        <v>4000102</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H96" s="5">
+        <v>1</v>
+      </c>
+      <c r="I96" s="5">
+        <v>0</v>
+      </c>
+      <c r="J96" s="5">
+        <v>1</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="5">
+        <v>4000102</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5">
+        <v>4000103</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H97" s="5">
+        <v>1</v>
+      </c>
+      <c r="I97" s="5">
+        <v>0</v>
+      </c>
+      <c r="J97" s="5">
+        <v>1</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="5">
+        <v>4000103</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5">
+        <v>4000104</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H98" s="5">
+        <v>1</v>
+      </c>
+      <c r="I98" s="5">
+        <v>0</v>
+      </c>
+      <c r="J98" s="5">
+        <v>1</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="5">
+        <v>4000104</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5">
+        <v>4000105</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H99" s="5">
+        <v>1</v>
+      </c>
+      <c r="I99" s="5">
+        <v>0</v>
+      </c>
+      <c r="J99" s="5">
+        <v>1</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="5">
+        <v>4000105</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5">
+        <v>0</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H100" s="5">
+        <v>1</v>
+      </c>
+      <c r="I100" s="5">
+        <v>0</v>
+      </c>
+      <c r="J100" s="5">
+        <v>1</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="5">
+        <v>4000201</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5">
+        <v>4000202</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H101" s="5">
+        <v>1</v>
+      </c>
+      <c r="I101" s="5">
+        <v>0</v>
+      </c>
+      <c r="J101" s="5">
+        <v>1</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="5">
+        <v>4000202</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5">
+        <v>4000203</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H102" s="5">
+        <v>1</v>
+      </c>
+      <c r="I102" s="5">
+        <v>0</v>
+      </c>
+      <c r="J102" s="5">
+        <v>1</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="5">
+        <v>4000203</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H103" s="5">
+        <v>1</v>
+      </c>
+      <c r="I103" s="5">
+        <v>0</v>
+      </c>
+      <c r="J103" s="5">
+        <v>1</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H104" s="5">
+        <v>1</v>
+      </c>
+      <c r="I104" s="5">
+        <v>0</v>
+      </c>
+      <c r="J104" s="5">
+        <v>1</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5">
+        <v>0</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H105" s="5">
+        <v>1</v>
+      </c>
+      <c r="I105" s="5">
+        <v>0</v>
+      </c>
+      <c r="J105" s="5">
+        <v>1</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="5">
         <v>9000001</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F81" s="5">
-        <v>0</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="H81" s="5">
-        <v>0</v>
-      </c>
-      <c r="I81" s="5">
-        <v>0</v>
-      </c>
-      <c r="J81" s="5">
+      <c r="B106" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F106" s="5">
+        <v>0</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H106" s="5">
+        <v>0</v>
+      </c>
+      <c r="I106" s="5">
+        <v>0</v>
+      </c>
+      <c r="J106" s="5">
         <v>9</v>
       </c>
-      <c r="K81" s="5" t="s">
+      <c r="K106" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1743,8 +1743,8 @@
   <sheetPr/>
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -695,7 +695,7 @@
     <t>Energy_Lv1</t>
   </si>
   <si>
-    <t>Asset/Energy_Lv1</t>
+    <t>AssetIcon/Energy_Lv1</t>
   </si>
   <si>
     <t>ASSET</t>
@@ -704,55 +704,55 @@
     <t>Energy_Lv2</t>
   </si>
   <si>
-    <t>Asset/Energy_Lv2</t>
+    <t>AssetIcon/Energy_Lv2</t>
   </si>
   <si>
     <t>Energy_Lv3</t>
   </si>
   <si>
-    <t>Asset/Energy_Lv3</t>
+    <t>AssetIcon/Energy_Lv3</t>
   </si>
   <si>
     <t>Energy_Lv4</t>
   </si>
   <si>
-    <t>Asset/Energy_Lv4</t>
+    <t>AssetIcon/Energy_Lv4</t>
   </si>
   <si>
     <t>Energy_Lv5</t>
   </si>
   <si>
-    <t>Asset/Energy_Lv5</t>
+    <t>AssetIcon/Energy_Lv5</t>
   </si>
   <si>
     <t>Coin_Lv1</t>
   </si>
   <si>
-    <t>Asset/Coin_Lv1</t>
+    <t>AssetIcon/Coin_Lv1</t>
   </si>
   <si>
     <t>Coin_Lv2</t>
   </si>
   <si>
-    <t>Asset/Coin_Lv2</t>
+    <t>AssetIcon/Coin_Lv2</t>
   </si>
   <si>
     <t>Coin_Lv3</t>
   </si>
   <si>
-    <t>Asset/Coin_Lv3</t>
+    <t>AssetIcon/Coin_Lv3</t>
   </si>
   <si>
     <t>Coin_Lv4</t>
   </si>
   <si>
-    <t>Asset/Coin_Lv4</t>
+    <t>AssetIcon/Coin_Lv4</t>
   </si>
   <si>
     <t>Coin_Lv5</t>
   </si>
   <si>
-    <t>Asset/Coin_Lv5</t>
+    <t>AssetIcon/Coin_Lv5</t>
   </si>
   <si>
     <t>GroupPainter</t>
@@ -1743,8 +1743,8 @@
   <sheetPr/>
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -695,7 +695,7 @@
     <t>Energy_Lv1</t>
   </si>
   <si>
-    <t>AssetIcon/Energy_Lv1</t>
+    <t>AssetItem/Energy_Lv1</t>
   </si>
   <si>
     <t>ASSET</t>
@@ -704,55 +704,55 @@
     <t>Energy_Lv2</t>
   </si>
   <si>
-    <t>AssetIcon/Energy_Lv2</t>
+    <t>AssetItem/Energy_Lv2</t>
   </si>
   <si>
     <t>Energy_Lv3</t>
   </si>
   <si>
-    <t>AssetIcon/Energy_Lv3</t>
+    <t>AssetItem/Energy_Lv3</t>
   </si>
   <si>
     <t>Energy_Lv4</t>
   </si>
   <si>
-    <t>AssetIcon/Energy_Lv4</t>
+    <t>AssetItem/Energy_Lv4</t>
   </si>
   <si>
     <t>Energy_Lv5</t>
   </si>
   <si>
-    <t>AssetIcon/Energy_Lv5</t>
+    <t>AssetItem/Energy_Lv5</t>
   </si>
   <si>
     <t>Coin_Lv1</t>
   </si>
   <si>
-    <t>AssetIcon/Coin_Lv1</t>
+    <t>AssetItem/Coin_Lv1</t>
   </si>
   <si>
     <t>Coin_Lv2</t>
   </si>
   <si>
-    <t>AssetIcon/Coin_Lv2</t>
+    <t>AssetItem/Coin_Lv2</t>
   </si>
   <si>
     <t>Coin_Lv3</t>
   </si>
   <si>
-    <t>AssetIcon/Coin_Lv3</t>
+    <t>AssetItem/Coin_Lv3</t>
   </si>
   <si>
     <t>Coin_Lv4</t>
   </si>
   <si>
-    <t>AssetIcon/Coin_Lv4</t>
+    <t>AssetItem/Coin_Lv4</t>
   </si>
   <si>
     <t>Coin_Lv5</t>
   </si>
   <si>
-    <t>AssetIcon/Coin_Lv5</t>
+    <t>AssetItem/Coin_Lv5</t>
   </si>
   <si>
     <t>GroupPainter</t>
@@ -1744,7 +1744,7 @@
   <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowWidth="7850" windowHeight="8400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1743,8 +1743,8 @@
   <sheetPr/>
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F17D780-478D-464A-BC9C-D29B1E8882EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="7850" windowHeight="8400"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="250">
   <si>
     <t>ID</t>
   </si>
@@ -758,26 +751,37 @@
     <t>GroupPainter</t>
   </si>
   <si>
+    <t>TileItem/GroupPainter</t>
+  </si>
+  <si>
+    <t>MAPPAINTER</t>
+  </si>
+  <si>
     <t>MapPainter/GroupPainter</t>
-  </si>
-  <si>
-    <t>TileItem/GroupPainter</t>
-  </si>
-  <si>
-    <t>MAPPAINTER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAPSETTING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupLocker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapSetting/GroupLocker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,151 +798,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -947,192 +821,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1155,255 +849,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1422,62 +874,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1735,32 +1146,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.2166666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.775" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.1083333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.4416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.8833333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.1083333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.8833333333333" style="2" customWidth="1"/>
-    <col min="8" max="11" width="16.3333333333333" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88333333333333" style="2"/>
+    <col min="1" max="1" width="13.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="2" customWidth="1"/>
+    <col min="8" max="11" width="16.33203125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:11">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1830,7 +1241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1100101</v>
       </c>
@@ -1863,7 +1274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1100102</v>
       </c>
@@ -1896,7 +1307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1100103</v>
       </c>
@@ -1929,7 +1340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1100104</v>
       </c>
@@ -1962,7 +1373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1100105</v>
       </c>
@@ -1995,7 +1406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1100201</v>
       </c>
@@ -2028,7 +1439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1100202</v>
       </c>
@@ -2061,7 +1472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1100203</v>
       </c>
@@ -2094,7 +1505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1100204</v>
       </c>
@@ -2127,7 +1538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1100205</v>
       </c>
@@ -2160,7 +1571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1100206</v>
       </c>
@@ -2193,7 +1604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1100207</v>
       </c>
@@ -2226,7 +1637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1100301</v>
       </c>
@@ -2259,7 +1670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1100302</v>
       </c>
@@ -2292,7 +1703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1100303</v>
       </c>
@@ -2325,7 +1736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1100304</v>
       </c>
@@ -2358,7 +1769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1100305</v>
       </c>
@@ -2391,7 +1802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>1100306</v>
       </c>
@@ -2424,7 +1835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>1100307</v>
       </c>
@@ -2457,7 +1868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>1100308</v>
       </c>
@@ -2490,7 +1901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>1100309</v>
       </c>
@@ -2523,7 +1934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>1100310</v>
       </c>
@@ -2556,7 +1967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>1100401</v>
       </c>
@@ -2589,7 +2000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>1100402</v>
       </c>
@@ -2622,7 +2033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>1100403</v>
       </c>
@@ -2655,7 +2066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>1100501</v>
       </c>
@@ -2688,7 +2099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>1100502</v>
       </c>
@@ -2721,7 +2132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>1100503</v>
       </c>
@@ -2754,7 +2165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>1100504</v>
       </c>
@@ -2787,7 +2198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>1100505</v>
       </c>
@@ -2820,7 +2231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>1100601</v>
       </c>
@@ -2853,7 +2264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>1100602</v>
       </c>
@@ -2886,7 +2297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>1100603</v>
       </c>
@@ -2919,7 +2330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>1100604</v>
       </c>
@@ -2952,7 +2363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>1100605</v>
       </c>
@@ -2985,7 +2396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1100606</v>
       </c>
@@ -3018,7 +2429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>1100607</v>
       </c>
@@ -3051,7 +2462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>1100701</v>
       </c>
@@ -3084,7 +2495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>1100702</v>
       </c>
@@ -3117,7 +2528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>1100703</v>
       </c>
@@ -3150,7 +2561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>1100704</v>
       </c>
@@ -3183,7 +2594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>1100705</v>
       </c>
@@ -3216,7 +2627,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>1100706</v>
       </c>
@@ -3249,7 +2660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>1100707</v>
       </c>
@@ -3282,7 +2693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>1100708</v>
       </c>
@@ -3315,7 +2726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>1100709</v>
       </c>
@@ -3348,7 +2759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>1100710</v>
       </c>
@@ -3381,7 +2792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>1100711</v>
       </c>
@@ -3414,7 +2825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>1100801</v>
       </c>
@@ -3447,7 +2858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>1100802</v>
       </c>
@@ -3480,7 +2891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>1100803</v>
       </c>
@@ -3513,7 +2924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>1100804</v>
       </c>
@@ -3546,7 +2957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>1100805</v>
       </c>
@@ -3579,7 +2990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>1100806</v>
       </c>
@@ -3612,7 +3023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>1100807</v>
       </c>
@@ -3645,7 +3056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>1200101</v>
       </c>
@@ -3680,7 +3091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>1200102</v>
       </c>
@@ -3715,7 +3126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>1200103</v>
       </c>
@@ -3750,7 +3161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>1200201</v>
       </c>
@@ -3785,7 +3196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>1200202</v>
       </c>
@@ -3820,7 +3231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>1200203</v>
       </c>
@@ -3855,7 +3266,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>2000101</v>
       </c>
@@ -3888,7 +3299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>2000102</v>
       </c>
@@ -3921,7 +3332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>2000103</v>
       </c>
@@ -3954,7 +3365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>2000104</v>
       </c>
@@ -3989,7 +3400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>2000105</v>
       </c>
@@ -4024,7 +3435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>2000106</v>
       </c>
@@ -4059,7 +3470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>2000107</v>
       </c>
@@ -4094,7 +3505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>2000201</v>
       </c>
@@ -4127,7 +3538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>2000202</v>
       </c>
@@ -4160,7 +3571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>2000203</v>
       </c>
@@ -4193,7 +3604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>2000204</v>
       </c>
@@ -4228,7 +3639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>2000205</v>
       </c>
@@ -4263,7 +3674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>2000206</v>
       </c>
@@ -4298,7 +3709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>2000207</v>
       </c>
@@ -4333,7 +3744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>2000301</v>
       </c>
@@ -4366,7 +3777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>2000302</v>
       </c>
@@ -4399,7 +3810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>2000303</v>
       </c>
@@ -4432,7 +3843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>2000304</v>
       </c>
@@ -4467,7 +3878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>2000305</v>
       </c>
@@ -4502,7 +3913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>2000306</v>
       </c>
@@ -4537,7 +3948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>2000307</v>
       </c>
@@ -4572,7 +3983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>2000308</v>
       </c>
@@ -4607,7 +4018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>3000101</v>
       </c>
@@ -4640,7 +4051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>3000201</v>
       </c>
@@ -4675,7 +4086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>3000301</v>
       </c>
@@ -4708,7 +4119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>3000401</v>
       </c>
@@ -4741,7 +4152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>3000501</v>
       </c>
@@ -4776,7 +4187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>3000502</v>
       </c>
@@ -4811,7 +4222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>3000601</v>
       </c>
@@ -4846,7 +4257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>3000701</v>
       </c>
@@ -4881,7 +4292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>3000801</v>
       </c>
@@ -4916,7 +4327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>3000802</v>
       </c>
@@ -4951,7 +4362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>4000101</v>
       </c>
@@ -4984,7 +4395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>4000102</v>
       </c>
@@ -5017,7 +4428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>4000103</v>
       </c>
@@ -5050,7 +4461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>4000104</v>
       </c>
@@ -5083,7 +4494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>4000105</v>
       </c>
@@ -5116,7 +4527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>4000201</v>
       </c>
@@ -5149,7 +4560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>4000202</v>
       </c>
@@ -5182,7 +4593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>4000203</v>
       </c>
@@ -5215,7 +4626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>4000204</v>
       </c>
@@ -5248,7 +4659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>4000205</v>
       </c>
@@ -5281,27 +4692,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>9000001</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>242</v>
+        <v>5000001</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>244</v>
-      </c>
+      <c r="D106" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E106" s="5"/>
       <c r="F106" s="5">
         <v>0</v>
       </c>
-      <c r="G106" s="5" t="s">
-        <v>245</v>
+      <c r="G106" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="H106" s="5">
         <v>0</v>
@@ -5312,13 +4721,48 @@
       <c r="J106" s="5">
         <v>9</v>
       </c>
-      <c r="K106" s="5" t="s">
+      <c r="K106" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>9000001</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H107" s="5">
+        <v>0</v>
+      </c>
+      <c r="I107" s="5">
+        <v>0</v>
+      </c>
+      <c r="J107" s="5">
+        <v>9</v>
+      </c>
+      <c r="K107" s="5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F17D780-478D-464A-BC9C-D29B1E8882EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1378D9E0-87A6-424D-9DFD-ABAF0C5E25EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="252">
   <si>
     <t>ID</t>
   </si>
@@ -620,9 +620,6 @@
   </si>
   <si>
     <t>STACK</t>
-  </si>
-  <si>
-    <t>ElfCloud_11</t>
   </si>
   <si>
     <t>ElfCloud/ElfCloud_11</t>
@@ -774,6 +771,18 @@
   </si>
   <si>
     <t>MapSetting/GroupLocker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElfCloud_11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TileItem/Chest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TileItem/GroupLocker</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1154,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4156,23 +4165,23 @@
       <c r="A90" s="5">
         <v>3000501</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="5" t="s">
+      <c r="E90" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="F90" s="5">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="F90" s="5">
-        <v>0</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="H90" s="5">
         <v>0</v>
@@ -4192,22 +4201,22 @@
         <v>3000502</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="D91" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="E91" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="F91" s="5">
-        <v>0</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="H91" s="5">
         <v>0</v>
@@ -4227,22 +4236,22 @@
         <v>3000601</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="5" t="s">
+      <c r="E92" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="F92" s="5">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="F92" s="5">
-        <v>0</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="H92" s="5">
         <v>1</v>
@@ -4262,22 +4271,22 @@
         <v>3000701</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="5" t="s">
+      <c r="E93" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="F93" s="5">
+        <v>0</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="F93" s="5">
-        <v>0</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="H93" s="5">
         <v>0</v>
@@ -4297,22 +4306,22 @@
         <v>3000801</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="5" t="s">
+      <c r="E94" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="F94" s="5">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="F94" s="5">
-        <v>0</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="H94" s="5">
         <v>1</v>
@@ -4332,22 +4341,22 @@
         <v>3000802</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E95" s="5" t="s">
+      <c r="E95" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="F95" s="5">
-        <v>0</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="H95" s="5">
         <v>1</v>
@@ -4367,20 +4376,20 @@
         <v>4000101</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5">
         <v>4000102</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H96" s="5">
         <v>1</v>
@@ -4400,20 +4409,20 @@
         <v>4000102</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5">
         <v>4000103</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H97" s="5">
         <v>1</v>
@@ -4433,20 +4442,20 @@
         <v>4000103</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5">
         <v>4000104</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H98" s="5">
         <v>1</v>
@@ -4466,20 +4475,20 @@
         <v>4000104</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5">
         <v>4000105</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H99" s="5">
         <v>1</v>
@@ -4499,20 +4508,20 @@
         <v>4000105</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5">
         <v>0</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H100" s="5">
         <v>1</v>
@@ -4532,20 +4541,20 @@
         <v>4000201</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5">
         <v>4000202</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H101" s="5">
         <v>1</v>
@@ -4565,20 +4574,20 @@
         <v>4000202</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5">
         <v>4000203</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H102" s="5">
         <v>1</v>
@@ -4598,20 +4607,20 @@
         <v>4000203</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5">
         <v>4000204</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H103" s="5">
         <v>1</v>
@@ -4631,20 +4640,20 @@
         <v>4000204</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5">
         <v>4000205</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H104" s="5">
         <v>1</v>
@@ -4664,20 +4673,20 @@
         <v>4000205</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5">
         <v>0</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H105" s="5">
         <v>1</v>
@@ -4697,20 +4706,22 @@
         <v>5000001</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E106" s="5"/>
+      <c r="E106" s="6" t="s">
+        <v>251</v>
+      </c>
       <c r="F106" s="5">
         <v>0</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H106" s="5">
         <v>0</v>
@@ -4722,7 +4733,7 @@
         <v>9</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -4730,22 +4741,22 @@
         <v>9000001</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E107" s="5" t="s">
+      <c r="F107" s="5">
+        <v>0</v>
+      </c>
+      <c r="G107" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="F107" s="5">
-        <v>0</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="H107" s="5">
         <v>0</v>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1378D9E0-87A6-424D-9DFD-ABAF0C5E25EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7CD176-1244-42E8-9715-F16C54F66A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7CD176-1244-42E8-9715-F16C54F66A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="264">
   <si>
     <t>ID</t>
   </si>
@@ -445,6 +452,24 @@
     <t>Tree/Shu2/shu2_Lv3</t>
   </si>
   <si>
+    <t>Shu3_Lv1</t>
+  </si>
+  <si>
+    <t>Tree/Shu3/shu3_Lv1</t>
+  </si>
+  <si>
+    <t>Shu3_Lv2</t>
+  </si>
+  <si>
+    <t>Tree/Shu3/shu3_Lv2</t>
+  </si>
+  <si>
+    <t>Shu3_Lv3</t>
+  </si>
+  <si>
+    <t>Tree/Shu3/shu3_Lv3</t>
+  </si>
+  <si>
     <t>DrinkMachine_Lv1</t>
   </si>
   <si>
@@ -622,6 +647,9 @@
     <t>STACK</t>
   </si>
   <si>
+    <t>ElfCloud_11</t>
+  </si>
+  <si>
     <t>ElfCloud/ElfCloud_11</t>
   </si>
   <si>
@@ -682,6 +710,30 @@
     <t>Chest/EnergyChest</t>
   </si>
   <si>
+    <t>CommonChest_Lv1</t>
+  </si>
+  <si>
+    <t>Chest/CommonChest_Lv1</t>
+  </si>
+  <si>
+    <t>CommonChest_Lv2</t>
+  </si>
+  <si>
+    <t>Chest/CommonChest_Lv2</t>
+  </si>
+  <si>
+    <t>CommonChest_Lv3</t>
+  </si>
+  <si>
+    <t>Chest/CommonChest_Lv3</t>
+  </si>
+  <si>
+    <t>CommonChest_Lv4</t>
+  </si>
+  <si>
+    <t>Chest/CommonChest_Lv4</t>
+  </si>
+  <si>
     <t>Energy_Lv1</t>
   </si>
   <si>
@@ -745,52 +797,41 @@
     <t>AssetItem/Coin_Lv5</t>
   </si>
   <si>
+    <t>GroupLocker</t>
+  </si>
+  <si>
+    <t>MapSetting/GroupLocker</t>
+  </si>
+  <si>
+    <t>TileItem/GroupLocker</t>
+  </si>
+  <si>
+    <t>MAPSETTING</t>
+  </si>
+  <si>
     <t>GroupPainter</t>
   </si>
   <si>
+    <t>MapPainter/GroupPainter</t>
+  </si>
+  <si>
     <t>TileItem/GroupPainter</t>
   </si>
   <si>
     <t>MAPPAINTER</t>
-  </si>
-  <si>
-    <t>MapPainter/GroupPainter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAPSETTING</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupLocker</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapSetting/GroupLocker</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElfCloud_11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TileItem/Chest</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TileItem/GroupLocker</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,21 +848,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,12 +1008,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -858,9 +1222,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -883,21 +1489,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1155,32 +1805,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="2" customWidth="1"/>
-    <col min="8" max="11" width="16.33203125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="13.2166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.775" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.1083333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.4416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.8833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.1083333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.8833333333333" style="2" customWidth="1"/>
+    <col min="8" max="11" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88333333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1250,7 +1900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="5">
         <v>1100101</v>
       </c>
@@ -1283,7 +1933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="5">
         <v>1100102</v>
       </c>
@@ -1316,7 +1966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="5">
         <v>1100103</v>
       </c>
@@ -1349,7 +1999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="5">
         <v>1100104</v>
       </c>
@@ -1382,7 +2032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="5">
         <v>1100105</v>
       </c>
@@ -1415,7 +2065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>1100201</v>
       </c>
@@ -1448,7 +2098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="5">
         <v>1100202</v>
       </c>
@@ -1481,7 +2131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>1100203</v>
       </c>
@@ -1514,7 +2164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="5">
         <v>1100204</v>
       </c>
@@ -1547,7 +2197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="5">
         <v>1100205</v>
       </c>
@@ -1580,7 +2230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5">
         <v>1100206</v>
       </c>
@@ -1613,7 +2263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="5">
         <v>1100207</v>
       </c>
@@ -1646,7 +2296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="5">
         <v>1100301</v>
       </c>
@@ -1679,7 +2329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="5">
         <v>1100302</v>
       </c>
@@ -1712,7 +2362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="5">
         <v>1100303</v>
       </c>
@@ -1745,7 +2395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="5">
         <v>1100304</v>
       </c>
@@ -1778,7 +2428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="5">
         <v>1100305</v>
       </c>
@@ -1811,7 +2461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="5">
         <v>1100306</v>
       </c>
@@ -1844,7 +2494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="5">
         <v>1100307</v>
       </c>
@@ -1877,7 +2527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="5">
         <v>1100308</v>
       </c>
@@ -1910,7 +2560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="5">
         <v>1100309</v>
       </c>
@@ -1943,7 +2593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="5">
         <v>1100310</v>
       </c>
@@ -1976,7 +2626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="5">
         <v>1100401</v>
       </c>
@@ -2009,7 +2659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="5">
         <v>1100402</v>
       </c>
@@ -2042,7 +2692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="5">
         <v>1100403</v>
       </c>
@@ -2075,7 +2725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="5">
         <v>1100501</v>
       </c>
@@ -2108,7 +2758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="5">
         <v>1100502</v>
       </c>
@@ -2141,7 +2791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="5">
         <v>1100503</v>
       </c>
@@ -2174,7 +2824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="5">
         <v>1100504</v>
       </c>
@@ -2207,7 +2857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="5">
         <v>1100505</v>
       </c>
@@ -2240,7 +2890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="5">
         <v>1100601</v>
       </c>
@@ -2273,7 +2923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="5">
         <v>1100602</v>
       </c>
@@ -2306,7 +2956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="5">
         <v>1100603</v>
       </c>
@@ -2339,7 +2989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="5">
         <v>1100604</v>
       </c>
@@ -2372,7 +3022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="5">
         <v>1100605</v>
       </c>
@@ -2405,7 +3055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="5">
         <v>1100606</v>
       </c>
@@ -2438,7 +3088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="5">
         <v>1100607</v>
       </c>
@@ -2471,7 +3121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="5">
         <v>1100701</v>
       </c>
@@ -2504,7 +3154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="5">
         <v>1100702</v>
       </c>
@@ -2537,7 +3187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="5">
         <v>1100703</v>
       </c>
@@ -2570,7 +3220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="5">
         <v>1100704</v>
       </c>
@@ -2603,7 +3253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="5">
         <v>1100705</v>
       </c>
@@ -2636,7 +3286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="5">
         <v>1100706</v>
       </c>
@@ -2669,7 +3319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="5">
         <v>1100707</v>
       </c>
@@ -2702,7 +3352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="5">
         <v>1100708</v>
       </c>
@@ -2735,7 +3385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="5">
         <v>1100709</v>
       </c>
@@ -2768,7 +3418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="5">
         <v>1100710</v>
       </c>
@@ -2801,7 +3451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="5">
         <v>1100711</v>
       </c>
@@ -2834,7 +3484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="5">
         <v>1100801</v>
       </c>
@@ -2867,7 +3517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="5">
         <v>1100802</v>
       </c>
@@ -2900,7 +3550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="5">
         <v>1100803</v>
       </c>
@@ -2933,7 +3583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="5">
         <v>1100804</v>
       </c>
@@ -2966,7 +3616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="5">
         <v>1100805</v>
       </c>
@@ -2999,7 +3649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="5">
         <v>1100806</v>
       </c>
@@ -3032,7 +3682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="5">
         <v>1100807</v>
       </c>
@@ -3065,7 +3715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="5">
         <v>1200101</v>
       </c>
@@ -3100,7 +3750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="5">
         <v>1200102</v>
       </c>
@@ -3135,7 +3785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="5">
         <v>1200103</v>
       </c>
@@ -3170,7 +3820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="5">
         <v>1200201</v>
       </c>
@@ -3205,7 +3855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="5">
         <v>1200202</v>
       </c>
@@ -3240,7 +3890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="5">
         <v>1200203</v>
       </c>
@@ -3275,9 +3925,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="5">
-        <v>2000101</v>
+        <v>1200301</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>141</v>
@@ -3288,18 +3938,20 @@
       <c r="D64" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="F64" s="5">
-        <v>2000102</v>
+        <v>0</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="H64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="5">
         <v>1</v>
@@ -3308,9 +3960,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="5">
-        <v>2000102</v>
+        <v>1200302</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>143</v>
@@ -3321,18 +3973,20 @@
       <c r="D65" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="F65" s="5">
-        <v>2000103</v>
+        <v>0</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="H65" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="5">
         <v>1</v>
@@ -3341,9 +3995,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="5">
-        <v>2000103</v>
+        <v>1200303</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>145</v>
@@ -3354,18 +4008,20 @@
       <c r="D66" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="F66" s="5">
-        <v>2000104</v>
+        <v>0</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="H66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="5">
         <v>1</v>
@@ -3374,9 +4030,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="5">
-        <v>2000104</v>
+        <v>2000101</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>147</v>
@@ -3387,136 +4043,130 @@
       <c r="D67" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="5"/>
+      <c r="F67" s="5">
+        <v>2000102</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="5">
+        <v>1</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0</v>
+      </c>
+      <c r="J67" s="5">
+        <v>1</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="5">
+        <v>2000102</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F67" s="5">
+      <c r="C68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5">
+        <v>2000103</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="5">
+        <v>1</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
+        <v>1</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="5">
+        <v>2000103</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5">
+        <v>2000104</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <v>1</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="5">
+        <v>2000104</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F70" s="5">
         <v>2000105</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H67" s="5">
-        <v>1</v>
-      </c>
-      <c r="I67" s="5">
-        <v>0</v>
-      </c>
-      <c r="J67" s="5">
-        <v>1</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="G70" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <v>1</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="5">
         <v>2000105</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68" s="5">
-        <v>2000106</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H68" s="5">
-        <v>1</v>
-      </c>
-      <c r="I68" s="5">
-        <v>0</v>
-      </c>
-      <c r="J68" s="5">
-        <v>1</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
-        <v>2000106</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F69" s="5">
-        <v>2000107</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H69" s="5">
-        <v>1</v>
-      </c>
-      <c r="I69" s="5">
-        <v>0</v>
-      </c>
-      <c r="J69" s="5">
-        <v>1</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>2000107</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F70" s="5">
-        <v>0</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H70" s="5">
-        <v>1</v>
-      </c>
-      <c r="I70" s="5">
-        <v>0</v>
-      </c>
-      <c r="J70" s="5">
-        <v>1</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>2000201</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>157</v>
@@ -3527,12 +4177,14 @@
       <c r="D71" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F71" s="5">
-        <v>2000202</v>
+        <v>2000106</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="H71" s="5">
         <v>1</v>
@@ -3547,9 +4199,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="5">
-        <v>2000202</v>
+        <v>2000106</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>159</v>
@@ -3560,12 +4212,14 @@
       <c r="D72" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F72" s="5">
-        <v>2000203</v>
+        <v>2000107</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="H72" s="5">
         <v>1</v>
@@ -3580,9 +4234,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="5">
-        <v>2000203</v>
+        <v>2000107</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>161</v>
@@ -3593,12 +4247,14 @@
       <c r="D73" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F73" s="5">
-        <v>2000204</v>
+        <v>0</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="H73" s="5">
         <v>1</v>
@@ -3613,9 +4269,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="5">
-        <v>2000204</v>
+        <v>2000201</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>163</v>
@@ -3626,14 +4282,12 @@
       <c r="D74" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="E74" s="5"/>
       <c r="F74" s="5">
-        <v>2000205</v>
+        <v>2000202</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="H74" s="5">
         <v>1</v>
@@ -3648,9 +4302,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="5">
-        <v>2000205</v>
+        <v>2000202</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>165</v>
@@ -3661,14 +4315,12 @@
       <c r="D75" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="E75" s="5"/>
       <c r="F75" s="5">
-        <v>2000206</v>
+        <v>2000203</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="H75" s="5">
         <v>1</v>
@@ -3683,9 +4335,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="5">
-        <v>2000206</v>
+        <v>2000203</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>167</v>
@@ -3696,14 +4348,12 @@
       <c r="D76" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="E76" s="5"/>
       <c r="F76" s="5">
-        <v>2000207</v>
+        <v>2000204</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="H76" s="5">
         <v>1</v>
@@ -3718,9 +4368,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="5">
-        <v>2000207</v>
+        <v>2000204</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>169</v>
@@ -3732,13 +4382,13 @@
         <v>170</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F77" s="5">
-        <v>0</v>
+        <v>2000205</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H77" s="5">
         <v>1</v>
@@ -3753,9 +4403,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="5">
-        <v>2000301</v>
+        <v>2000205</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>171</v>
@@ -3766,12 +4416,14 @@
       <c r="D78" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F78" s="5">
-        <v>2000302</v>
+        <v>2000206</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="H78" s="5">
         <v>1</v>
@@ -3786,9 +4438,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="5">
-        <v>2000302</v>
+        <v>2000206</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>173</v>
@@ -3799,12 +4451,14 @@
       <c r="D79" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F79" s="5">
-        <v>2000303</v>
+        <v>2000207</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="H79" s="5">
         <v>1</v>
@@ -3819,9 +4473,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="5">
-        <v>2000303</v>
+        <v>2000207</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>175</v>
@@ -3832,12 +4486,14 @@
       <c r="D80" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F80" s="5">
-        <v>2000304</v>
+        <v>0</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="H80" s="5">
         <v>1</v>
@@ -3852,9 +4508,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" s="5">
-        <v>2000304</v>
+        <v>2000301</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>177</v>
@@ -3865,14 +4521,12 @@
       <c r="D81" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="E81" s="5"/>
       <c r="F81" s="5">
-        <v>2000305</v>
+        <v>2000302</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="H81" s="5">
         <v>1</v>
@@ -3887,9 +4541,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" s="5">
-        <v>2000305</v>
+        <v>2000302</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>179</v>
@@ -3900,14 +4554,12 @@
       <c r="D82" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E82" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="E82" s="5"/>
       <c r="F82" s="5">
-        <v>2000306</v>
+        <v>2000303</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="H82" s="5">
         <v>1</v>
@@ -3922,9 +4574,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" s="5">
-        <v>2000306</v>
+        <v>2000303</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>181</v>
@@ -3935,14 +4587,12 @@
       <c r="D83" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="E83" s="5"/>
       <c r="F83" s="5">
-        <v>2000307</v>
+        <v>2000304</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="H83" s="5">
         <v>1</v>
@@ -3957,9 +4607,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" s="5">
-        <v>2000307</v>
+        <v>2000304</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>183</v>
@@ -3971,13 +4621,13 @@
         <v>184</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F84" s="5">
-        <v>2000308</v>
+        <v>2000305</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H84" s="5">
         <v>1</v>
@@ -3992,9 +4642,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" s="5">
-        <v>2000308</v>
+        <v>2000305</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>185</v>
@@ -4006,13 +4656,13 @@
         <v>186</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F85" s="5">
-        <v>0</v>
+        <v>2000306</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H85" s="5">
         <v>1</v>
@@ -4027,9 +4677,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" s="5">
-        <v>3000101</v>
+        <v>2000306</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>187</v>
@@ -4040,178 +4690,180 @@
       <c r="D86" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E86" s="5"/>
+      <c r="E86" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F86" s="5">
-        <v>0</v>
+        <v>2000307</v>
       </c>
       <c r="G86" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H86" s="5">
+        <v>1</v>
+      </c>
+      <c r="I86" s="5">
+        <v>0</v>
+      </c>
+      <c r="J86" s="5">
+        <v>1</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="5">
+        <v>2000307</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="H86" s="5">
-        <v>0</v>
-      </c>
-      <c r="I86" s="5">
-        <v>0</v>
-      </c>
-      <c r="J86" s="5">
-        <v>4</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>3000201</v>
-      </c>
-      <c r="B87" s="5" t="s">
+      <c r="C87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="E87" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F87" s="5">
+        <v>2000308</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H87" s="5">
+        <v>1</v>
+      </c>
+      <c r="I87" s="5">
+        <v>0</v>
+      </c>
+      <c r="J87" s="5">
+        <v>1</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="5">
+        <v>2000308</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="C88" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F87" s="5">
-        <v>0</v>
-      </c>
-      <c r="G87" s="5" t="s">
+      <c r="E88" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H88" s="5">
+        <v>1</v>
+      </c>
+      <c r="I88" s="5">
+        <v>0</v>
+      </c>
+      <c r="J88" s="5">
+        <v>1</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="5">
+        <v>3000101</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H87" s="5">
-        <v>0</v>
-      </c>
-      <c r="I87" s="5">
-        <v>0</v>
-      </c>
-      <c r="J87" s="5">
-        <v>1</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
-        <v>3000301</v>
-      </c>
-      <c r="B88" s="5" t="s">
+      <c r="C89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5">
-        <v>0</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H88" s="5">
-        <v>0</v>
-      </c>
-      <c r="I88" s="5">
-        <v>0</v>
-      </c>
-      <c r="J88" s="5">
-        <v>2</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>3000401</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5">
         <v>0</v>
       </c>
       <c r="G89" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H89" s="5">
+        <v>0</v>
+      </c>
+      <c r="I89" s="5">
+        <v>0</v>
+      </c>
+      <c r="J89" s="5">
+        <v>4</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="5">
+        <v>3000201</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="H89" s="5">
-        <v>0</v>
-      </c>
-      <c r="I89" s="5">
-        <v>1</v>
-      </c>
-      <c r="J89" s="5">
-        <v>3</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
-        <v>3000501</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="5" t="s">
+      <c r="H90" s="5">
+        <v>0</v>
+      </c>
+      <c r="I90" s="5">
+        <v>0</v>
+      </c>
+      <c r="J90" s="5">
+        <v>1</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="5">
+        <v>3000301</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="C91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F90" s="5">
-        <v>0</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="H90" s="5">
-        <v>0</v>
-      </c>
-      <c r="I90" s="5">
-        <v>1</v>
-      </c>
-      <c r="J90" s="5">
-        <v>5</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>3000502</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="E91" s="5"/>
       <c r="F91" s="5">
         <v>0</v>
       </c>
@@ -4222,224 +4874,226 @@
         <v>0</v>
       </c>
       <c r="I91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" s="5">
+        <v>2</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="5">
+        <v>3000401</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H92" s="5">
+        <v>0</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1</v>
+      </c>
+      <c r="J92" s="5">
+        <v>3</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="5">
+        <v>3000501</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H93" s="5">
+        <v>0</v>
+      </c>
+      <c r="I93" s="5">
+        <v>1</v>
+      </c>
+      <c r="J93" s="5">
         <v>5</v>
       </c>
-      <c r="K91" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+      <c r="K93" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="5">
+        <v>3000502</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0</v>
+      </c>
+      <c r="I94" s="5">
+        <v>1</v>
+      </c>
+      <c r="J94" s="5">
+        <v>5</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="5">
         <v>3000601</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="5">
-        <v>0</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="H92" s="5">
-        <v>1</v>
-      </c>
-      <c r="I92" s="5">
-        <v>0</v>
-      </c>
-      <c r="J92" s="5">
-        <v>1</v>
-      </c>
-      <c r="K92" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+      <c r="B95" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H95" s="5">
+        <v>1</v>
+      </c>
+      <c r="I95" s="5">
+        <v>0</v>
+      </c>
+      <c r="J95" s="5">
+        <v>1</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="5">
         <v>3000701</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F93" s="5">
-        <v>0</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H93" s="5">
-        <v>0</v>
-      </c>
-      <c r="I93" s="5">
-        <v>1</v>
-      </c>
-      <c r="J93" s="5">
-        <v>1</v>
-      </c>
-      <c r="K93" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+      <c r="B96" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H96" s="5">
+        <v>0</v>
+      </c>
+      <c r="I96" s="5">
+        <v>1</v>
+      </c>
+      <c r="J96" s="5">
+        <v>1</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="5">
         <v>3000801</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F94" s="5">
-        <v>0</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H94" s="5">
-        <v>1</v>
-      </c>
-      <c r="I94" s="5">
-        <v>0</v>
-      </c>
-      <c r="J94" s="5">
-        <v>1</v>
-      </c>
-      <c r="K94" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+      <c r="B97" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H97" s="5">
+        <v>1</v>
+      </c>
+      <c r="I97" s="5">
+        <v>0</v>
+      </c>
+      <c r="J97" s="5">
+        <v>1</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="5">
         <v>3000802</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F95" s="5">
-        <v>0</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H95" s="5">
-        <v>1</v>
-      </c>
-      <c r="I95" s="5">
-        <v>0</v>
-      </c>
-      <c r="J95" s="5">
-        <v>1</v>
-      </c>
-      <c r="K95" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>4000101</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5">
-        <v>4000102</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="5">
-        <v>1</v>
-      </c>
-      <c r="I96" s="5">
-        <v>0</v>
-      </c>
-      <c r="J96" s="5">
-        <v>1</v>
-      </c>
-      <c r="K96" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
-        <v>4000102</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5">
-        <v>4000103</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="H97" s="5">
-        <v>1</v>
-      </c>
-      <c r="I97" s="5">
-        <v>0</v>
-      </c>
-      <c r="J97" s="5">
-        <v>1</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
-        <v>4000103</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>225</v>
@@ -4450,12 +5104,14 @@
       <c r="D98" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="F98" s="5">
-        <v>4000104</v>
+        <v>0</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H98" s="5">
         <v>1</v>
@@ -4470,9 +5126,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" s="5">
-        <v>4000104</v>
+        <v>3000803</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>227</v>
@@ -4485,10 +5141,10 @@
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5">
-        <v>4000105</v>
+        <v>3000804</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="H99" s="5">
         <v>1</v>
@@ -4503,9 +5159,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" s="5">
-        <v>4000105</v>
+        <v>3000804</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>229</v>
@@ -4516,12 +5172,14 @@
       <c r="D100" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="E100" s="5"/>
+      <c r="E100" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="F100" s="5">
-        <v>0</v>
+        <v>3000805</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H100" s="5">
         <v>1</v>
@@ -4536,9 +5194,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" s="5">
-        <v>4000201</v>
+        <v>3000805</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>231</v>
@@ -4549,12 +5207,14 @@
       <c r="D101" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E101" s="5"/>
+      <c r="E101" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="F101" s="5">
-        <v>4000202</v>
+        <v>3000806</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H101" s="5">
         <v>1</v>
@@ -4569,9 +5229,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" s="5">
-        <v>4000202</v>
+        <v>3000806</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>233</v>
@@ -4582,12 +5242,14 @@
       <c r="D102" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="F102" s="5">
-        <v>4000203</v>
+        <v>0</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H102" s="5">
         <v>1</v>
@@ -4602,9 +5264,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" s="5">
-        <v>4000203</v>
+        <v>4000101</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>235</v>
@@ -4617,10 +5279,10 @@
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5">
-        <v>4000204</v>
+        <v>4000102</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="H103" s="5">
         <v>1</v>
@@ -4635,25 +5297,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" s="5">
-        <v>4000204</v>
+        <v>4000102</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5">
-        <v>4000205</v>
+        <v>4000103</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="H104" s="5">
         <v>1</v>
@@ -4668,25 +5330,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" s="5">
-        <v>4000205</v>
+        <v>4000103</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5">
-        <v>0</v>
+        <v>4000104</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="H105" s="5">
         <v>1</v>
@@ -4701,79 +5363,310 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" s="5">
+        <v>4000104</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5">
+        <v>4000105</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H106" s="5">
+        <v>1</v>
+      </c>
+      <c r="I106" s="5">
+        <v>0</v>
+      </c>
+      <c r="J106" s="5">
+        <v>1</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="5">
+        <v>4000105</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5">
+        <v>0</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H107" s="5">
+        <v>1</v>
+      </c>
+      <c r="I107" s="5">
+        <v>0</v>
+      </c>
+      <c r="J107" s="5">
+        <v>1</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="5">
+        <v>4000201</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5">
+        <v>4000202</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H108" s="5">
+        <v>1</v>
+      </c>
+      <c r="I108" s="5">
+        <v>0</v>
+      </c>
+      <c r="J108" s="5">
+        <v>1</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="5">
+        <v>4000202</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5">
+        <v>4000203</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H109" s="5">
+        <v>1</v>
+      </c>
+      <c r="I109" s="5">
+        <v>0</v>
+      </c>
+      <c r="J109" s="5">
+        <v>1</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="5">
+        <v>4000203</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H110" s="5">
+        <v>1</v>
+      </c>
+      <c r="I110" s="5">
+        <v>0</v>
+      </c>
+      <c r="J110" s="5">
+        <v>1</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H111" s="5">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5">
+        <v>0</v>
+      </c>
+      <c r="J111" s="5">
+        <v>1</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5">
+        <v>0</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H112" s="5">
+        <v>1</v>
+      </c>
+      <c r="I112" s="5">
+        <v>0</v>
+      </c>
+      <c r="J112" s="5">
+        <v>1</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="5">
         <v>5000001</v>
       </c>
-      <c r="B106" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="F106" s="5">
-        <v>0</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="H106" s="5">
-        <v>0</v>
-      </c>
-      <c r="I106" s="5">
-        <v>0</v>
-      </c>
-      <c r="J106" s="5">
+      <c r="B113" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H113" s="5">
+        <v>0</v>
+      </c>
+      <c r="I113" s="5">
+        <v>0</v>
+      </c>
+      <c r="J113" s="5">
         <v>9</v>
       </c>
-      <c r="K106" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
+      <c r="K113" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="5">
         <v>9000001</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F107" s="5">
-        <v>0</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="H107" s="5">
-        <v>0</v>
-      </c>
-      <c r="I107" s="5">
-        <v>0</v>
-      </c>
-      <c r="J107" s="5">
+      <c r="B114" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F114" s="5">
+        <v>0</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H114" s="5">
+        <v>0</v>
+      </c>
+      <c r="I114" s="5">
+        <v>0</v>
+      </c>
+      <c r="J114" s="5">
         <v>9</v>
       </c>
-      <c r="K107" s="5" t="s">
+      <c r="K114" s="5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="270">
   <si>
     <t>ID</t>
   </si>
@@ -606,6 +606,24 @@
   </si>
   <si>
     <t>Generator/KitchenBag/KitchenBag_Lv8</t>
+  </si>
+  <si>
+    <t>ToolBox_Lv1</t>
+  </si>
+  <si>
+    <t>Generator/ToolBox/ToolBox_Lv1</t>
+  </si>
+  <si>
+    <t>ToolBox_Lv2</t>
+  </si>
+  <si>
+    <t>Generator/ToolBox/ToolBox_Lv2</t>
+  </si>
+  <si>
+    <t>ToolBox_Lv3</t>
+  </si>
+  <si>
+    <t>Generator/ToolBox/ToolBox_Lv3</t>
   </si>
   <si>
     <t>Fog</t>
@@ -831,7 +849,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,13 +860,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -999,7 +1010,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1188,12 +1199,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1340,13 +1345,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1355,118 +1363,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1489,7 +1494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1811,10 +1816,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -4784,7 +4789,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="5">
-        <v>3000101</v>
+        <v>2000401</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>193</v>
@@ -4797,19 +4802,19 @@
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5">
-        <v>0</v>
+        <v>2000402</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="H89" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" s="5">
         <v>0</v>
       </c>
       <c r="J89" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K89" s="5" t="s">
         <v>18</v>
@@ -4817,28 +4822,26 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="5">
-        <v>3000201</v>
+        <v>2000402</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>198</v>
-      </c>
+      <c r="E90" s="5"/>
       <c r="F90" s="5">
-        <v>0</v>
+        <v>2000403</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="H90" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" s="5">
         <v>0</v>
@@ -4852,32 +4855,34 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="5">
-        <v>3000301</v>
+        <v>2000403</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E91" s="5"/>
+        <v>198</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F91" s="5">
         <v>0</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="H91" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" s="5">
         <v>0</v>
       </c>
       <c r="J91" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>18</v>
@@ -4885,32 +4890,32 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="5">
-        <v>3000401</v>
+        <v>3000101</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5">
         <v>0</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H92" s="5">
         <v>0</v>
       </c>
       <c r="I92" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K92" s="5" t="s">
         <v>18</v>
@@ -4918,34 +4923,34 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="5">
-        <v>3000501</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>206</v>
+        <v>3000201</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F93" s="5">
         <v>0</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H93" s="5">
         <v>0</v>
       </c>
       <c r="I93" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>18</v>
@@ -4953,34 +4958,32 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="5">
-        <v>3000502</v>
+        <v>3000301</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E94" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F94" s="5">
-        <v>0</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="H94" s="5">
         <v>0</v>
       </c>
       <c r="I94" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>18</v>
@@ -4988,34 +4991,32 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="5">
-        <v>3000601</v>
+        <v>3000401</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>215</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E95" s="5"/>
       <c r="F95" s="5">
         <v>0</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H95" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>18</v>
@@ -5023,25 +5024,25 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="5">
-        <v>3000701</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>217</v>
+        <v>3000501</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F96" s="5">
         <v>0</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H96" s="5">
         <v>0</v>
@@ -5050,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>18</v>
@@ -5058,34 +5059,34 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="5">
-        <v>3000801</v>
+        <v>3000502</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F97" s="5">
         <v>0</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K97" s="5" t="s">
         <v>18</v>
@@ -5093,25 +5094,25 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="5">
-        <v>3000802</v>
+        <v>3000601</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="F98" s="5">
         <v>0</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H98" s="5">
         <v>1</v>
@@ -5128,29 +5129,31 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="5">
-        <v>3000803</v>
+        <v>3000701</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E99" s="5"/>
+        <v>224</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="F99" s="5">
-        <v>3000804</v>
+        <v>0</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="H99" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" s="5">
         <v>1</v>
@@ -5161,25 +5164,25 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="5">
-        <v>3000804</v>
+        <v>3000801</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="5" t="s">
+      <c r="F100" s="5">
+        <v>0</v>
+      </c>
+      <c r="G100" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F100" s="5">
-        <v>3000805</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="H100" s="5">
         <v>1</v>
@@ -5196,7 +5199,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="5">
-        <v>3000805</v>
+        <v>3000802</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>231</v>
@@ -5208,13 +5211,13 @@
         <v>232</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F101" s="5">
-        <v>3000806</v>
+        <v>0</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H101" s="5">
         <v>1</v>
@@ -5231,7 +5234,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="5">
-        <v>3000806</v>
+        <v>3000803</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>233</v>
@@ -5242,14 +5245,12 @@
       <c r="D102" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E102" s="6" t="s">
-        <v>223</v>
-      </c>
+      <c r="E102" s="5"/>
       <c r="F102" s="5">
-        <v>0</v>
+        <v>3000804</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="H102" s="5">
         <v>1</v>
@@ -5266,7 +5267,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="5">
-        <v>4000101</v>
+        <v>3000804</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>235</v>
@@ -5277,12 +5278,14 @@
       <c r="D103" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E103" s="5"/>
+      <c r="E103" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="F103" s="5">
-        <v>4000102</v>
+        <v>3000805</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H103" s="5">
         <v>1</v>
@@ -5299,23 +5302,25 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="5">
-        <v>4000102</v>
+        <v>3000805</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E104" s="5"/>
+      <c r="E104" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="F104" s="5">
-        <v>4000103</v>
+        <v>3000806</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H104" s="5">
         <v>1</v>
@@ -5332,23 +5337,25 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="5">
-        <v>4000103</v>
+        <v>3000806</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E105" s="5"/>
+      <c r="E105" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="F105" s="5">
-        <v>4000104</v>
+        <v>0</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H105" s="5">
         <v>1</v>
@@ -5365,23 +5372,23 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="5">
-        <v>4000104</v>
+        <v>4000101</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5">
-        <v>4000105</v>
+        <v>4000102</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H106" s="5">
         <v>1</v>
@@ -5398,7 +5405,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="5">
-        <v>4000105</v>
+        <v>4000102</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>244</v>
@@ -5411,10 +5418,10 @@
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5">
-        <v>0</v>
+        <v>4000103</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H107" s="5">
         <v>1</v>
@@ -5431,7 +5438,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="5">
-        <v>4000201</v>
+        <v>4000103</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>246</v>
@@ -5444,10 +5451,10 @@
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5">
-        <v>4000202</v>
+        <v>4000104</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H108" s="5">
         <v>1</v>
@@ -5464,7 +5471,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="5">
-        <v>4000202</v>
+        <v>4000104</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>248</v>
@@ -5477,10 +5484,10 @@
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5">
-        <v>4000203</v>
+        <v>4000105</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H109" s="5">
         <v>1</v>
@@ -5497,7 +5504,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="5">
-        <v>4000203</v>
+        <v>4000105</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>250</v>
@@ -5510,10 +5517,10 @@
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5">
-        <v>4000204</v>
+        <v>0</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H110" s="5">
         <v>1</v>
@@ -5530,7 +5537,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="5">
-        <v>4000204</v>
+        <v>4000201</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>252</v>
@@ -5543,10 +5550,10 @@
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5">
-        <v>4000205</v>
+        <v>4000202</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H111" s="5">
         <v>1</v>
@@ -5563,7 +5570,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="5">
-        <v>4000205</v>
+        <v>4000202</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>254</v>
@@ -5576,10 +5583,10 @@
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5">
-        <v>0</v>
+        <v>4000203</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H112" s="5">
         <v>1</v>
@@ -5596,71 +5603,170 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="5">
-        <v>5000001</v>
-      </c>
-      <c r="B113" s="6" t="s">
+        <v>4000203</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>256</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E113" s="6" t="s">
-        <v>258</v>
-      </c>
+      <c r="E113" s="5"/>
       <c r="F113" s="5">
-        <v>0</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>259</v>
+        <v>4000204</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="H113" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" s="5">
         <v>0</v>
       </c>
       <c r="J113" s="5">
-        <v>9</v>
-      </c>
-      <c r="K113" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K113" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H114" s="5">
+        <v>1</v>
+      </c>
+      <c r="I114" s="5">
+        <v>0</v>
+      </c>
+      <c r="J114" s="5">
+        <v>1</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5">
+        <v>0</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H115" s="5">
+        <v>1</v>
+      </c>
+      <c r="I115" s="5">
+        <v>0</v>
+      </c>
+      <c r="J115" s="5">
+        <v>1</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="5">
+        <v>5000001</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F116" s="5">
+        <v>0</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H116" s="5">
+        <v>0</v>
+      </c>
+      <c r="I116" s="5">
+        <v>0</v>
+      </c>
+      <c r="J116" s="5">
+        <v>9</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="5">
         <v>9000001</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F114" s="5">
-        <v>0</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H114" s="5">
-        <v>0</v>
-      </c>
-      <c r="I114" s="5">
-        <v>0</v>
-      </c>
-      <c r="J114" s="5">
+      <c r="B117" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H117" s="5">
+        <v>0</v>
+      </c>
+      <c r="I117" s="5">
+        <v>0</v>
+      </c>
+      <c r="J117" s="5">
         <v>9</v>
       </c>
-      <c r="K114" s="5" t="s">
+      <c r="K117" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="294">
   <si>
     <t>ID</t>
   </si>
@@ -408,6 +408,78 @@
   </si>
   <si>
     <t>Item/Fries/item_Fires_7_lv7</t>
+  </si>
+  <si>
+    <t>C_Lv1</t>
+  </si>
+  <si>
+    <t>Item/C/item_C_12_lv1</t>
+  </si>
+  <si>
+    <t>C_Lv2</t>
+  </si>
+  <si>
+    <t>Item/C/item_C_12_lv2</t>
+  </si>
+  <si>
+    <t>C_Lv3</t>
+  </si>
+  <si>
+    <t>Item/C/item_C_12_lv3</t>
+  </si>
+  <si>
+    <t>C_Lv4</t>
+  </si>
+  <si>
+    <t>Item/C/item_C_12_lv4</t>
+  </si>
+  <si>
+    <t>C_Lv5</t>
+  </si>
+  <si>
+    <t>Item/C/item_C_12_lv5</t>
+  </si>
+  <si>
+    <t>C_Lv6</t>
+  </si>
+  <si>
+    <t>Item/C/item_C_12_lv6</t>
+  </si>
+  <si>
+    <t>C_Lv7</t>
+  </si>
+  <si>
+    <t>Item/C/item_C_12_lv7</t>
+  </si>
+  <si>
+    <t>C_Lv8</t>
+  </si>
+  <si>
+    <t>Item/C/item_C_12_lv8</t>
+  </si>
+  <si>
+    <t>C_Lv9</t>
+  </si>
+  <si>
+    <t>Item/C/item_C_12_lv9</t>
+  </si>
+  <si>
+    <t>C_Lv10</t>
+  </si>
+  <si>
+    <t>Item/C/item_C_12_lv10</t>
+  </si>
+  <si>
+    <t>C_Lv11</t>
+  </si>
+  <si>
+    <t>Item/C/item_C_12_lv11</t>
+  </si>
+  <si>
+    <t>C_Lv12</t>
+  </si>
+  <si>
+    <t>Item/C/item_C_12_lv12</t>
   </si>
   <si>
     <t>Shu1_Lv1</t>
@@ -1816,10 +1888,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -3722,7 +3794,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="5">
-        <v>1200101</v>
+        <v>1100901</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>127</v>
@@ -3733,20 +3805,18 @@
       <c r="D58" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>129</v>
-      </c>
+      <c r="E58" s="5"/>
       <c r="F58" s="5">
-        <v>0</v>
+        <v>1100902</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="H58" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5">
         <v>1</v>
@@ -3757,31 +3827,29 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="5">
-        <v>1200102</v>
+        <v>1100902</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E59" s="5"/>
       <c r="F59" s="5">
-        <v>0</v>
+        <v>1100903</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="H59" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5">
         <v>1</v>
@@ -3792,31 +3860,29 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="5">
-        <v>1200103</v>
+        <v>1100903</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E60" s="5"/>
       <c r="F60" s="5">
-        <v>0</v>
+        <v>1100904</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="H60" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5">
         <v>1</v>
@@ -3827,31 +3893,29 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="5">
-        <v>1200201</v>
+        <v>1100904</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E61" s="5"/>
       <c r="F61" s="5">
-        <v>0</v>
+        <v>1100905</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="H61" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5">
         <v>1</v>
@@ -3862,31 +3926,29 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="5">
-        <v>1200202</v>
+        <v>1100905</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="E62" s="5"/>
       <c r="F62" s="5">
-        <v>0</v>
+        <v>1100906</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="H62" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5">
         <v>1</v>
@@ -3897,31 +3959,29 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="5">
-        <v>1200203</v>
+        <v>1100906</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E63" s="5"/>
       <c r="F63" s="5">
-        <v>0</v>
+        <v>1100907</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="H63" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5">
         <v>1</v>
@@ -3932,31 +3992,29 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="5">
-        <v>1200301</v>
+        <v>1100907</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E64" s="5"/>
       <c r="F64" s="5">
-        <v>0</v>
+        <v>1100908</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="H64" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5">
         <v>1</v>
@@ -3967,31 +4025,29 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="5">
-        <v>1200302</v>
+        <v>1100908</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E65" s="5"/>
       <c r="F65" s="5">
-        <v>0</v>
+        <v>1100909</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="H65" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5">
         <v>1</v>
@@ -4002,31 +4058,29 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="5">
-        <v>1200303</v>
+        <v>1100909</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>129</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E66" s="5"/>
       <c r="F66" s="5">
-        <v>0</v>
+        <v>1100910</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="H66" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5">
         <v>1</v>
@@ -4037,20 +4091,20 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="5">
-        <v>2000101</v>
+        <v>1100910</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5">
-        <v>2000102</v>
+        <v>1100911</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>17</v>
@@ -4070,20 +4124,20 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="5">
-        <v>2000102</v>
+        <v>1100911</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5">
-        <v>2000103</v>
+        <v>1100912</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>17</v>
@@ -4103,20 +4157,20 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="5">
-        <v>2000103</v>
+        <v>1100912</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5">
-        <v>2000104</v>
+        <v>0</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>17</v>
@@ -4136,31 +4190,31 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="5">
-        <v>2000104</v>
+        <v>1200101</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="F70" s="5">
+        <v>0</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F70" s="5">
-        <v>2000105</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="H70" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="5">
         <v>1</v>
@@ -4171,31 +4225,31 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="5">
-        <v>2000105</v>
+        <v>1200102</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F71" s="5">
-        <v>2000106</v>
+        <v>0</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H71" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" s="5">
         <v>1</v>
@@ -4206,31 +4260,31 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="5">
-        <v>2000106</v>
+        <v>1200103</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F72" s="5">
-        <v>2000107</v>
+        <v>0</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H72" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="5">
         <v>1</v>
@@ -4241,31 +4295,31 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="5">
-        <v>2000107</v>
+        <v>1200201</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H73" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="5">
         <v>1</v>
@@ -4276,29 +4330,31 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="5">
-        <v>2000201</v>
+        <v>1200202</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E74" s="5"/>
+        <v>162</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="F74" s="5">
-        <v>2000202</v>
+        <v>0</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="H74" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" s="5">
         <v>1</v>
@@ -4309,29 +4365,31 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="5">
-        <v>2000202</v>
+        <v>1200203</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E75" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="F75" s="5">
-        <v>2000203</v>
+        <v>0</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="H75" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="5">
         <v>1</v>
@@ -4342,29 +4400,31 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="5">
-        <v>2000203</v>
+        <v>1200301</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E76" s="5"/>
+        <v>166</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="F76" s="5">
-        <v>2000204</v>
+        <v>0</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="H76" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="5">
         <v>1</v>
@@ -4375,31 +4435,31 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="5">
-        <v>2000204</v>
+        <v>1200302</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F77" s="5">
-        <v>2000205</v>
+        <v>0</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H77" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="5">
         <v>1</v>
@@ -4410,31 +4470,31 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="5">
-        <v>2000205</v>
+        <v>1200303</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" s="5">
-        <v>2000206</v>
+        <v>0</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H78" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="5">
         <v>1</v>
@@ -4445,25 +4505,23 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="5">
-        <v>2000206</v>
+        <v>2000101</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>155</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="E79" s="5"/>
       <c r="F79" s="5">
-        <v>2000207</v>
+        <v>2000102</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="H79" s="5">
         <v>1</v>
@@ -4480,25 +4538,23 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="5">
-        <v>2000207</v>
+        <v>2000102</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>155</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E80" s="5"/>
       <c r="F80" s="5">
-        <v>0</v>
+        <v>2000103</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="H80" s="5">
         <v>1</v>
@@ -4515,20 +4571,20 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="5">
-        <v>2000301</v>
+        <v>2000103</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5">
-        <v>2000302</v>
+        <v>2000104</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>17</v>
@@ -4548,23 +4604,25 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="5">
-        <v>2000302</v>
+        <v>2000104</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" s="5" t="s">
+      <c r="F82" s="5">
+        <v>2000105</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5">
-        <v>2000303</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="H82" s="5">
         <v>1</v>
@@ -4581,7 +4639,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="5">
-        <v>2000303</v>
+        <v>2000105</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>181</v>
@@ -4592,12 +4650,14 @@
       <c r="D83" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="F83" s="5">
-        <v>2000304</v>
+        <v>2000106</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="H83" s="5">
         <v>1</v>
@@ -4614,7 +4674,7 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="5">
-        <v>2000304</v>
+        <v>2000106</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>183</v>
@@ -4626,13 +4686,13 @@
         <v>184</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="F84" s="5">
-        <v>2000305</v>
+        <v>2000107</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="H84" s="5">
         <v>1</v>
@@ -4649,7 +4709,7 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="5">
-        <v>2000305</v>
+        <v>2000107</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>185</v>
@@ -4661,13 +4721,13 @@
         <v>186</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="F85" s="5">
-        <v>2000306</v>
+        <v>0</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="H85" s="5">
         <v>1</v>
@@ -4684,7 +4744,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="5">
-        <v>2000306</v>
+        <v>2000201</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>187</v>
@@ -4695,14 +4755,12 @@
       <c r="D86" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E86" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="E86" s="5"/>
       <c r="F86" s="5">
-        <v>2000307</v>
+        <v>2000202</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="H86" s="5">
         <v>1</v>
@@ -4719,7 +4777,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="5">
-        <v>2000307</v>
+        <v>2000202</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>189</v>
@@ -4730,14 +4788,12 @@
       <c r="D87" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="E87" s="5"/>
       <c r="F87" s="5">
-        <v>2000308</v>
+        <v>2000203</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="H87" s="5">
         <v>1</v>
@@ -4754,7 +4810,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="5">
-        <v>2000308</v>
+        <v>2000203</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>191</v>
@@ -4765,14 +4821,12 @@
       <c r="D88" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="E88" s="5"/>
       <c r="F88" s="5">
-        <v>0</v>
+        <v>2000204</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="H88" s="5">
         <v>1</v>
@@ -4789,7 +4843,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="5">
-        <v>2000401</v>
+        <v>2000204</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>193</v>
@@ -4800,12 +4854,14 @@
       <c r="D89" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E89" s="5"/>
+      <c r="E89" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="F89" s="5">
-        <v>2000402</v>
+        <v>2000205</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="H89" s="5">
         <v>1</v>
@@ -4822,7 +4878,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="5">
-        <v>2000402</v>
+        <v>2000205</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>195</v>
@@ -4833,12 +4889,14 @@
       <c r="D90" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E90" s="5"/>
+      <c r="E90" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="F90" s="5">
-        <v>2000403</v>
+        <v>2000206</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="H90" s="5">
         <v>1</v>
@@ -4855,7 +4913,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="5">
-        <v>2000403</v>
+        <v>2000206</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>197</v>
@@ -4867,13 +4925,13 @@
         <v>198</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="F91" s="5">
-        <v>0</v>
+        <v>2000207</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="H91" s="5">
         <v>1</v>
@@ -4890,7 +4948,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="5">
-        <v>3000101</v>
+        <v>2000207</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>199</v>
@@ -4901,21 +4959,23 @@
       <c r="D92" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E92" s="5"/>
+      <c r="E92" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="F92" s="5">
         <v>0</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="H92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="5">
         <v>0</v>
       </c>
       <c r="J92" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K92" s="5" t="s">
         <v>18</v>
@@ -4923,28 +4983,26 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="5">
-        <v>3000201</v>
+        <v>2000301</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>204</v>
-      </c>
+      <c r="E93" s="5"/>
       <c r="F93" s="5">
-        <v>0</v>
+        <v>2000302</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
       <c r="H93" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" s="5">
         <v>0</v>
@@ -4958,32 +5016,32 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="5">
-        <v>3000301</v>
+        <v>2000302</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5">
-        <v>0</v>
+        <v>2000303</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="H94" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" s="5">
         <v>0</v>
       </c>
       <c r="J94" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>18</v>
@@ -4991,32 +5049,32 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="5">
-        <v>3000401</v>
+        <v>2000303</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5">
-        <v>0</v>
+        <v>2000304</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="H95" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>18</v>
@@ -5024,34 +5082,34 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="5">
-        <v>3000501</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>212</v>
+        <v>2000304</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="F96" s="5">
-        <v>0</v>
+        <v>2000305</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="H96" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>18</v>
@@ -5059,34 +5117,34 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="5">
-        <v>3000502</v>
+        <v>2000305</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="F97" s="5">
-        <v>0</v>
+        <v>2000306</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="H97" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K97" s="5" t="s">
         <v>18</v>
@@ -5094,25 +5152,25 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="5">
-        <v>3000601</v>
+        <v>2000306</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="F98" s="5">
-        <v>0</v>
+        <v>2000307</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="H98" s="5">
         <v>1</v>
@@ -5129,31 +5187,31 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="5">
-        <v>3000701</v>
+        <v>2000307</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="F99" s="5">
-        <v>0</v>
+        <v>2000308</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="H99" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" s="5">
         <v>1</v>
@@ -5164,25 +5222,25 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="5">
-        <v>3000801</v>
+        <v>2000308</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="F100" s="5">
         <v>0</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="H100" s="5">
         <v>1</v>
@@ -5199,25 +5257,23 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="5">
-        <v>3000802</v>
+        <v>2000401</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>229</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E101" s="5"/>
       <c r="F101" s="5">
-        <v>0</v>
+        <v>2000402</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>230</v>
+        <v>17</v>
       </c>
       <c r="H101" s="5">
         <v>1</v>
@@ -5234,20 +5290,20 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="5">
-        <v>3000803</v>
+        <v>2000402</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5">
-        <v>3000804</v>
+        <v>2000403</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>17</v>
@@ -5267,25 +5323,25 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="5">
-        <v>3000804</v>
+        <v>2000403</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="F103" s="5">
-        <v>3000805</v>
+        <v>0</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="H103" s="5">
         <v>1</v>
@@ -5302,34 +5358,32 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="5">
-        <v>3000805</v>
+        <v>3000101</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>229</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="E104" s="5"/>
       <c r="F104" s="5">
-        <v>3000806</v>
+        <v>0</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H104" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" s="5">
         <v>0</v>
       </c>
       <c r="J104" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K104" s="5" t="s">
         <v>18</v>
@@ -5337,28 +5391,28 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="5">
-        <v>3000806</v>
+        <v>3000201</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E105" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F105" s="5">
+        <v>0</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F105" s="5">
-        <v>0</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="H105" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" s="5">
         <v>0</v>
@@ -5372,32 +5426,32 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="5">
-        <v>4000101</v>
+        <v>3000301</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5">
-        <v>4000102</v>
+        <v>0</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="H106" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" s="5">
         <v>0</v>
       </c>
       <c r="J106" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K106" s="5" t="s">
         <v>18</v>
@@ -5405,32 +5459,32 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="5">
-        <v>4000102</v>
+        <v>3000401</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5">
-        <v>4000103</v>
+        <v>0</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H107" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K107" s="5" t="s">
         <v>18</v>
@@ -5438,32 +5492,34 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="5">
-        <v>4000103</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>246</v>
+        <v>3000501</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E108" s="5"/>
+        <v>237</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="F108" s="5">
-        <v>4000104</v>
+        <v>0</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H108" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>18</v>
@@ -5471,32 +5527,34 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="5">
-        <v>4000104</v>
+        <v>3000502</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E109" s="5"/>
+        <v>242</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="F109" s="5">
-        <v>4000105</v>
+        <v>0</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H109" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K109" s="5" t="s">
         <v>18</v>
@@ -5504,23 +5562,25 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="5">
-        <v>4000105</v>
+        <v>3000601</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E110" s="5"/>
+        <v>244</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="F110" s="5">
         <v>0</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H110" s="5">
         <v>1</v>
@@ -5537,29 +5597,31 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="5">
-        <v>4000201</v>
+        <v>3000701</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E111" s="5"/>
+        <v>248</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="F111" s="5">
-        <v>4000202</v>
+        <v>0</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H111" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" s="5">
         <v>1</v>
@@ -5570,23 +5632,25 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="5">
-        <v>4000202</v>
+        <v>3000801</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F112" s="5">
+        <v>0</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5">
-        <v>4000203</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="H112" s="5">
         <v>1</v>
@@ -5603,23 +5667,25 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="5">
-        <v>4000203</v>
+        <v>3000802</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E113" s="5"/>
+      <c r="E113" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="F113" s="5">
-        <v>4000204</v>
+        <v>0</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="H113" s="5">
         <v>1</v>
@@ -5636,23 +5702,23 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="5">
-        <v>4000204</v>
+        <v>3000803</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5">
-        <v>4000205</v>
+        <v>3000804</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>243</v>
+        <v>17</v>
       </c>
       <c r="H114" s="5">
         <v>1</v>
@@ -5669,23 +5735,25 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="5">
-        <v>4000205</v>
+        <v>3000804</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E115" s="5"/>
+      <c r="E115" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="F115" s="5">
-        <v>0</v>
+        <v>3000805</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="H115" s="5">
         <v>1</v>
@@ -5702,71 +5770,471 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="5">
-        <v>5000001</v>
-      </c>
-      <c r="B116" s="6" t="s">
+        <v>3000805</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="E116" s="6" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F116" s="5">
-        <v>0</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>265</v>
+        <v>3000806</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="H116" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" s="5">
         <v>0</v>
       </c>
       <c r="J116" s="5">
-        <v>9</v>
-      </c>
-      <c r="K116" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K116" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="5">
+        <v>3000806</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H117" s="5">
+        <v>1</v>
+      </c>
+      <c r="I117" s="5">
+        <v>0</v>
+      </c>
+      <c r="J117" s="5">
+        <v>1</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="5">
+        <v>4000101</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5">
+        <v>4000102</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H118" s="5">
+        <v>1</v>
+      </c>
+      <c r="I118" s="5">
+        <v>0</v>
+      </c>
+      <c r="J118" s="5">
+        <v>1</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="5">
+        <v>4000102</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5">
+        <v>4000103</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H119" s="5">
+        <v>1</v>
+      </c>
+      <c r="I119" s="5">
+        <v>0</v>
+      </c>
+      <c r="J119" s="5">
+        <v>1</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="5">
+        <v>4000103</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5">
+        <v>4000104</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H120" s="5">
+        <v>1</v>
+      </c>
+      <c r="I120" s="5">
+        <v>0</v>
+      </c>
+      <c r="J120" s="5">
+        <v>1</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="5">
+        <v>4000104</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5">
+        <v>4000105</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H121" s="5">
+        <v>1</v>
+      </c>
+      <c r="I121" s="5">
+        <v>0</v>
+      </c>
+      <c r="J121" s="5">
+        <v>1</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="5">
+        <v>4000105</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5">
+        <v>0</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H122" s="5">
+        <v>1</v>
+      </c>
+      <c r="I122" s="5">
+        <v>0</v>
+      </c>
+      <c r="J122" s="5">
+        <v>1</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="5">
+        <v>4000201</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5">
+        <v>4000202</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H123" s="5">
+        <v>1</v>
+      </c>
+      <c r="I123" s="5">
+        <v>0</v>
+      </c>
+      <c r="J123" s="5">
+        <v>1</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="5">
+        <v>4000202</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5">
+        <v>4000203</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H124" s="5">
+        <v>1</v>
+      </c>
+      <c r="I124" s="5">
+        <v>0</v>
+      </c>
+      <c r="J124" s="5">
+        <v>1</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="5">
+        <v>4000203</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H125" s="5">
+        <v>1</v>
+      </c>
+      <c r="I125" s="5">
+        <v>0</v>
+      </c>
+      <c r="J125" s="5">
+        <v>1</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H126" s="5">
+        <v>1</v>
+      </c>
+      <c r="I126" s="5">
+        <v>0</v>
+      </c>
+      <c r="J126" s="5">
+        <v>1</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5">
+        <v>0</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H127" s="5">
+        <v>1</v>
+      </c>
+      <c r="I127" s="5">
+        <v>0</v>
+      </c>
+      <c r="J127" s="5">
+        <v>1</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="5">
+        <v>5000001</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F128" s="5">
+        <v>0</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H128" s="5">
+        <v>0</v>
+      </c>
+      <c r="I128" s="5">
+        <v>0</v>
+      </c>
+      <c r="J128" s="5">
+        <v>9</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="5">
         <v>9000001</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F117" s="5">
-        <v>0</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H117" s="5">
-        <v>0</v>
-      </c>
-      <c r="I117" s="5">
-        <v>0</v>
-      </c>
-      <c r="J117" s="5">
+      <c r="B129" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F129" s="5">
+        <v>0</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H129" s="5">
+        <v>0</v>
+      </c>
+      <c r="I129" s="5">
+        <v>0</v>
+      </c>
+      <c r="J129" s="5">
         <v>9</v>
       </c>
-      <c r="K117" s="5" t="s">
+      <c r="K129" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="296">
   <si>
     <t>ID</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Item/MagicTool/MagicTool_Lv3</t>
+  </si>
+  <si>
+    <t>MagicTool_Lv4</t>
+  </si>
+  <si>
+    <t>Item/MagicTool/MagicTool_Lv4</t>
   </si>
   <si>
     <t>B_Lv1</t>
@@ -1888,10 +1894,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -2784,7 +2790,7 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5">
-        <v>0</v>
+        <v>1100404</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>17</v>
@@ -2804,7 +2810,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="5">
-        <v>1100501</v>
+        <v>1100404</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>67</v>
@@ -2817,7 +2823,7 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5">
-        <v>1100502</v>
+        <v>0</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>17</v>
@@ -2837,7 +2843,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5">
-        <v>1100502</v>
+        <v>1100501</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>69</v>
@@ -2850,7 +2856,7 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5">
-        <v>1100503</v>
+        <v>1100502</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>17</v>
@@ -2870,7 +2876,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5">
-        <v>1100503</v>
+        <v>1100502</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>71</v>
@@ -2883,7 +2889,7 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5">
-        <v>1100504</v>
+        <v>1100503</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>17</v>
@@ -2903,7 +2909,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="5">
-        <v>1100504</v>
+        <v>1100503</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>73</v>
@@ -2916,7 +2922,7 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5">
-        <v>1100505</v>
+        <v>1100504</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>17</v>
@@ -2936,7 +2942,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="5">
-        <v>1100505</v>
+        <v>1100504</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>75</v>
@@ -2949,7 +2955,7 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5">
-        <v>0</v>
+        <v>1100505</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>17</v>
@@ -2969,7 +2975,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="5">
-        <v>1100601</v>
+        <v>1100505</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>77</v>
@@ -2982,7 +2988,7 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5">
-        <v>1100602</v>
+        <v>0</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>17</v>
@@ -3002,7 +3008,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="5">
-        <v>1100602</v>
+        <v>1100601</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>79</v>
@@ -3015,7 +3021,7 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5">
-        <v>1100603</v>
+        <v>1100602</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>17</v>
@@ -3035,7 +3041,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="5">
-        <v>1100603</v>
+        <v>1100602</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>81</v>
@@ -3048,7 +3054,7 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5">
-        <v>1100604</v>
+        <v>1100603</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>17</v>
@@ -3068,7 +3074,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="5">
-        <v>1100604</v>
+        <v>1100603</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>83</v>
@@ -3081,7 +3087,7 @@
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5">
-        <v>1100605</v>
+        <v>1100604</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>17</v>
@@ -3101,7 +3107,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="5">
-        <v>1100605</v>
+        <v>1100604</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>85</v>
@@ -3114,7 +3120,7 @@
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5">
-        <v>1100606</v>
+        <v>1100605</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>17</v>
@@ -3134,7 +3140,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="5">
-        <v>1100606</v>
+        <v>1100605</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>87</v>
@@ -3147,7 +3153,7 @@
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5">
-        <v>1100607</v>
+        <v>1100606</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>17</v>
@@ -3167,7 +3173,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="5">
-        <v>1100607</v>
+        <v>1100606</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>89</v>
@@ -3180,7 +3186,7 @@
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5">
-        <v>0</v>
+        <v>1100607</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>17</v>
@@ -3200,7 +3206,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="5">
-        <v>1100701</v>
+        <v>1100607</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>91</v>
@@ -3213,7 +3219,7 @@
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5">
-        <v>1100702</v>
+        <v>0</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>17</v>
@@ -3233,7 +3239,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="5">
-        <v>1100702</v>
+        <v>1100701</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>93</v>
@@ -3246,7 +3252,7 @@
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5">
-        <v>1100703</v>
+        <v>1100702</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>17</v>
@@ -3266,7 +3272,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="5">
-        <v>1100703</v>
+        <v>1100702</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>95</v>
@@ -3279,7 +3285,7 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5">
-        <v>1100704</v>
+        <v>1100703</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>17</v>
@@ -3299,7 +3305,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="5">
-        <v>1100704</v>
+        <v>1100703</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>97</v>
@@ -3312,7 +3318,7 @@
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5">
-        <v>1100705</v>
+        <v>1100704</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>17</v>
@@ -3332,7 +3338,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="5">
-        <v>1100705</v>
+        <v>1100704</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>99</v>
@@ -3345,7 +3351,7 @@
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5">
-        <v>1100706</v>
+        <v>1100705</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>17</v>
@@ -3365,7 +3371,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="5">
-        <v>1100706</v>
+        <v>1100705</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>101</v>
@@ -3378,7 +3384,7 @@
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5">
-        <v>1100707</v>
+        <v>1100706</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>17</v>
@@ -3398,7 +3404,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="5">
-        <v>1100707</v>
+        <v>1100706</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>103</v>
@@ -3411,7 +3417,7 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5">
-        <v>1100708</v>
+        <v>1100707</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>17</v>
@@ -3431,7 +3437,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="5">
-        <v>1100708</v>
+        <v>1100707</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>105</v>
@@ -3444,7 +3450,7 @@
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5">
-        <v>1100709</v>
+        <v>1100708</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>17</v>
@@ -3464,7 +3470,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="5">
-        <v>1100709</v>
+        <v>1100708</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>107</v>
@@ -3477,7 +3483,7 @@
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5">
-        <v>1100710</v>
+        <v>1100709</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>17</v>
@@ -3497,7 +3503,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="5">
-        <v>1100710</v>
+        <v>1100709</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>109</v>
@@ -3510,7 +3516,7 @@
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5">
-        <v>1100711</v>
+        <v>1100710</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>17</v>
@@ -3530,7 +3536,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="5">
-        <v>1100711</v>
+        <v>1100710</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>111</v>
@@ -3543,7 +3549,7 @@
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5">
-        <v>0</v>
+        <v>1100711</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>17</v>
@@ -3563,7 +3569,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="5">
-        <v>1100801</v>
+        <v>1100711</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>113</v>
@@ -3576,7 +3582,7 @@
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5">
-        <v>1100802</v>
+        <v>0</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>17</v>
@@ -3596,7 +3602,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="5">
-        <v>1100802</v>
+        <v>1100801</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>115</v>
@@ -3609,7 +3615,7 @@
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5">
-        <v>1100803</v>
+        <v>1100802</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>17</v>
@@ -3629,7 +3635,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="5">
-        <v>1100803</v>
+        <v>1100802</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>117</v>
@@ -3642,7 +3648,7 @@
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5">
-        <v>1100804</v>
+        <v>1100803</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>17</v>
@@ -3662,7 +3668,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="5">
-        <v>1100804</v>
+        <v>1100803</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>119</v>
@@ -3675,7 +3681,7 @@
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5">
-        <v>1100805</v>
+        <v>1100804</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>17</v>
@@ -3695,7 +3701,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="5">
-        <v>1100805</v>
+        <v>1100804</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>121</v>
@@ -3708,7 +3714,7 @@
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5">
-        <v>1100806</v>
+        <v>1100805</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>17</v>
@@ -3728,7 +3734,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="5">
-        <v>1100806</v>
+        <v>1100805</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>123</v>
@@ -3741,7 +3747,7 @@
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5">
-        <v>1100807</v>
+        <v>1100806</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>17</v>
@@ -3761,7 +3767,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="5">
-        <v>1100807</v>
+        <v>1100806</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>125</v>
@@ -3774,7 +3780,7 @@
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5">
-        <v>0</v>
+        <v>1100807</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>17</v>
@@ -3794,7 +3800,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="5">
-        <v>1100901</v>
+        <v>1100807</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>127</v>
@@ -3807,7 +3813,7 @@
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5">
-        <v>1100902</v>
+        <v>0</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>17</v>
@@ -3827,7 +3833,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="5">
-        <v>1100902</v>
+        <v>1100901</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>129</v>
@@ -3840,7 +3846,7 @@
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5">
-        <v>1100903</v>
+        <v>1100902</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>17</v>
@@ -3860,7 +3866,7 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="5">
-        <v>1100903</v>
+        <v>1100902</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>131</v>
@@ -3873,7 +3879,7 @@
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5">
-        <v>1100904</v>
+        <v>1100903</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>17</v>
@@ -3893,7 +3899,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="5">
-        <v>1100904</v>
+        <v>1100903</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>133</v>
@@ -3906,7 +3912,7 @@
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5">
-        <v>1100905</v>
+        <v>1100904</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>17</v>
@@ -3926,7 +3932,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="5">
-        <v>1100905</v>
+        <v>1100904</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>135</v>
@@ -3939,7 +3945,7 @@
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5">
-        <v>1100906</v>
+        <v>1100905</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>17</v>
@@ -3959,7 +3965,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="5">
-        <v>1100906</v>
+        <v>1100905</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>137</v>
@@ -3972,7 +3978,7 @@
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5">
-        <v>1100907</v>
+        <v>1100906</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>17</v>
@@ -3992,7 +3998,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="5">
-        <v>1100907</v>
+        <v>1100906</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>139</v>
@@ -4005,7 +4011,7 @@
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5">
-        <v>1100908</v>
+        <v>1100907</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>17</v>
@@ -4025,7 +4031,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="5">
-        <v>1100908</v>
+        <v>1100907</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>141</v>
@@ -4038,7 +4044,7 @@
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5">
-        <v>1100909</v>
+        <v>1100908</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>17</v>
@@ -4058,7 +4064,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="5">
-        <v>1100909</v>
+        <v>1100908</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>143</v>
@@ -4071,7 +4077,7 @@
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5">
-        <v>1100910</v>
+        <v>1100909</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>17</v>
@@ -4091,7 +4097,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="5">
-        <v>1100910</v>
+        <v>1100909</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>145</v>
@@ -4104,7 +4110,7 @@
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5">
-        <v>1100911</v>
+        <v>1100910</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>17</v>
@@ -4124,7 +4130,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="5">
-        <v>1100911</v>
+        <v>1100910</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>147</v>
@@ -4137,7 +4143,7 @@
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5">
-        <v>1100912</v>
+        <v>1100911</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>17</v>
@@ -4157,7 +4163,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="5">
-        <v>1100912</v>
+        <v>1100911</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>149</v>
@@ -4170,7 +4176,7 @@
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5">
-        <v>0</v>
+        <v>1100912</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>17</v>
@@ -4190,7 +4196,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="5">
-        <v>1200101</v>
+        <v>1100912</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>151</v>
@@ -4201,20 +4207,18 @@
       <c r="D70" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="E70" s="5"/>
       <c r="F70" s="5">
         <v>0</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="H70" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" s="5">
         <v>1</v>
@@ -4225,25 +4229,25 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="5">
-        <v>1200102</v>
+        <v>1200101</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="5" t="s">
+      <c r="F71" s="5">
+        <v>0</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F71" s="5">
-        <v>0</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="H71" s="5">
         <v>0</v>
@@ -4260,7 +4264,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="5">
-        <v>1200103</v>
+        <v>1200102</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>157</v>
@@ -4272,13 +4276,13 @@
         <v>158</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F72" s="5">
         <v>0</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H72" s="5">
         <v>0</v>
@@ -4295,7 +4299,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="5">
-        <v>1200201</v>
+        <v>1200103</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>159</v>
@@ -4307,13 +4311,13 @@
         <v>160</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H73" s="5">
         <v>0</v>
@@ -4330,7 +4334,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="5">
-        <v>1200202</v>
+        <v>1200201</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>161</v>
@@ -4342,13 +4346,13 @@
         <v>162</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F74" s="5">
         <v>0</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H74" s="5">
         <v>0</v>
@@ -4365,7 +4369,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="5">
-        <v>1200203</v>
+        <v>1200202</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>163</v>
@@ -4377,13 +4381,13 @@
         <v>164</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F75" s="5">
         <v>0</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H75" s="5">
         <v>0</v>
@@ -4400,7 +4404,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="5">
-        <v>1200301</v>
+        <v>1200203</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>165</v>
@@ -4412,13 +4416,13 @@
         <v>166</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F76" s="5">
         <v>0</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H76" s="5">
         <v>0</v>
@@ -4435,7 +4439,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="5">
-        <v>1200302</v>
+        <v>1200301</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>167</v>
@@ -4447,13 +4451,13 @@
         <v>168</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F77" s="5">
         <v>0</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H77" s="5">
         <v>0</v>
@@ -4470,7 +4474,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="5">
-        <v>1200303</v>
+        <v>1200302</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>169</v>
@@ -4482,13 +4486,13 @@
         <v>170</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F78" s="5">
         <v>0</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H78" s="5">
         <v>0</v>
@@ -4505,7 +4509,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="5">
-        <v>2000101</v>
+        <v>1200303</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>171</v>
@@ -4516,18 +4520,20 @@
       <c r="D79" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F79" s="5">
-        <v>2000102</v>
+        <v>0</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="H79" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" s="5">
         <v>1</v>
@@ -4538,7 +4544,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="5">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>173</v>
@@ -4551,7 +4557,7 @@
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5">
-        <v>2000103</v>
+        <v>2000102</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>17</v>
@@ -4571,7 +4577,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="5">
-        <v>2000103</v>
+        <v>2000102</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>175</v>
@@ -4584,7 +4590,7 @@
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5">
-        <v>2000104</v>
+        <v>2000103</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>17</v>
@@ -4604,7 +4610,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="5">
-        <v>2000104</v>
+        <v>2000103</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>177</v>
@@ -4615,14 +4621,12 @@
       <c r="D82" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E82" s="5" t="s">
-        <v>179</v>
-      </c>
+      <c r="E82" s="5"/>
       <c r="F82" s="5">
-        <v>2000105</v>
+        <v>2000104</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="H82" s="5">
         <v>1</v>
@@ -4639,25 +4643,25 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="5">
+        <v>2000104</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83" s="5">
         <v>2000105</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="G83" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F83" s="5">
-        <v>2000106</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="H83" s="5">
         <v>1</v>
@@ -4674,7 +4678,7 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="5">
-        <v>2000106</v>
+        <v>2000105</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>183</v>
@@ -4686,13 +4690,13 @@
         <v>184</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F84" s="5">
-        <v>2000107</v>
+        <v>2000106</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H84" s="5">
         <v>1</v>
@@ -4709,7 +4713,7 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="5">
-        <v>2000107</v>
+        <v>2000106</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>185</v>
@@ -4721,13 +4725,13 @@
         <v>186</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F85" s="5">
-        <v>0</v>
+        <v>2000107</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H85" s="5">
         <v>1</v>
@@ -4744,7 +4748,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="5">
-        <v>2000201</v>
+        <v>2000107</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>187</v>
@@ -4755,12 +4759,14 @@
       <c r="D86" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E86" s="5"/>
+      <c r="E86" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="F86" s="5">
-        <v>2000202</v>
+        <v>0</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="H86" s="5">
         <v>1</v>
@@ -4777,7 +4783,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="5">
-        <v>2000202</v>
+        <v>2000201</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>189</v>
@@ -4790,7 +4796,7 @@
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5">
-        <v>2000203</v>
+        <v>2000202</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>17</v>
@@ -4810,7 +4816,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="5">
-        <v>2000203</v>
+        <v>2000202</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>191</v>
@@ -4823,7 +4829,7 @@
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5">
-        <v>2000204</v>
+        <v>2000203</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>17</v>
@@ -4843,7 +4849,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="5">
-        <v>2000204</v>
+        <v>2000203</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>193</v>
@@ -4854,14 +4860,12 @@
       <c r="D89" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>179</v>
-      </c>
+      <c r="E89" s="5"/>
       <c r="F89" s="5">
-        <v>2000205</v>
+        <v>2000204</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="H89" s="5">
         <v>1</v>
@@ -4878,7 +4882,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="5">
-        <v>2000205</v>
+        <v>2000204</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>195</v>
@@ -4890,13 +4894,13 @@
         <v>196</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F90" s="5">
-        <v>2000206</v>
+        <v>2000205</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H90" s="5">
         <v>1</v>
@@ -4913,7 +4917,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="5">
-        <v>2000206</v>
+        <v>2000205</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>197</v>
@@ -4925,13 +4929,13 @@
         <v>198</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F91" s="5">
-        <v>2000207</v>
+        <v>2000206</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H91" s="5">
         <v>1</v>
@@ -4948,7 +4952,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="5">
-        <v>2000207</v>
+        <v>2000206</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>199</v>
@@ -4960,13 +4964,13 @@
         <v>200</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F92" s="5">
-        <v>0</v>
+        <v>2000207</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H92" s="5">
         <v>1</v>
@@ -4983,7 +4987,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="5">
-        <v>2000301</v>
+        <v>2000207</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>201</v>
@@ -4994,12 +4998,14 @@
       <c r="D93" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E93" s="5"/>
+      <c r="E93" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="F93" s="5">
-        <v>2000302</v>
+        <v>0</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="H93" s="5">
         <v>1</v>
@@ -5016,7 +5022,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="5">
-        <v>2000302</v>
+        <v>2000301</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>203</v>
@@ -5029,7 +5035,7 @@
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5">
-        <v>2000303</v>
+        <v>2000302</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>17</v>
@@ -5049,7 +5055,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="5">
-        <v>2000303</v>
+        <v>2000302</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>205</v>
@@ -5062,7 +5068,7 @@
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5">
-        <v>2000304</v>
+        <v>2000303</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>17</v>
@@ -5082,7 +5088,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="5">
-        <v>2000304</v>
+        <v>2000303</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>207</v>
@@ -5093,14 +5099,12 @@
       <c r="D96" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>179</v>
-      </c>
+      <c r="E96" s="5"/>
       <c r="F96" s="5">
-        <v>2000305</v>
+        <v>2000304</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="H96" s="5">
         <v>1</v>
@@ -5117,7 +5121,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="5">
-        <v>2000305</v>
+        <v>2000304</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>209</v>
@@ -5129,13 +5133,13 @@
         <v>210</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F97" s="5">
-        <v>2000306</v>
+        <v>2000305</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H97" s="5">
         <v>1</v>
@@ -5152,7 +5156,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="5">
-        <v>2000306</v>
+        <v>2000305</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>211</v>
@@ -5164,13 +5168,13 @@
         <v>212</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F98" s="5">
-        <v>2000307</v>
+        <v>2000306</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H98" s="5">
         <v>1</v>
@@ -5187,7 +5191,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="5">
-        <v>2000307</v>
+        <v>2000306</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>213</v>
@@ -5199,13 +5203,13 @@
         <v>214</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F99" s="5">
-        <v>2000308</v>
+        <v>2000307</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H99" s="5">
         <v>1</v>
@@ -5222,7 +5226,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="5">
-        <v>2000308</v>
+        <v>2000307</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>215</v>
@@ -5234,13 +5238,13 @@
         <v>216</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F100" s="5">
-        <v>0</v>
+        <v>2000308</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H100" s="5">
         <v>1</v>
@@ -5257,7 +5261,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="5">
-        <v>2000401</v>
+        <v>2000308</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>217</v>
@@ -5268,12 +5272,14 @@
       <c r="D101" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E101" s="5"/>
+      <c r="E101" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="F101" s="5">
-        <v>2000402</v>
+        <v>0</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="H101" s="5">
         <v>1</v>
@@ -5290,7 +5296,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="5">
-        <v>2000402</v>
+        <v>2000401</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>219</v>
@@ -5303,7 +5309,7 @@
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5">
-        <v>2000403</v>
+        <v>2000402</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>17</v>
@@ -5323,7 +5329,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="5">
-        <v>2000403</v>
+        <v>2000402</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>221</v>
@@ -5334,14 +5340,12 @@
       <c r="D103" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>179</v>
-      </c>
+      <c r="E103" s="5"/>
       <c r="F103" s="5">
-        <v>0</v>
+        <v>2000403</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="H103" s="5">
         <v>1</v>
@@ -5358,7 +5362,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="5">
-        <v>3000101</v>
+        <v>2000403</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>223</v>
@@ -5369,21 +5373,23 @@
       <c r="D104" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E104" s="5"/>
+      <c r="E104" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="F104" s="5">
         <v>0</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="H104" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" s="5">
         <v>0</v>
       </c>
       <c r="J104" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K104" s="5" t="s">
         <v>18</v>
@@ -5391,26 +5397,24 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="5">
-        <v>3000201</v>
+        <v>3000101</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="5" t="s">
+      <c r="E105" s="5"/>
+      <c r="F105" s="5">
+        <v>0</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E105" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F105" s="5">
-        <v>0</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>229</v>
-      </c>
       <c r="H105" s="5">
         <v>0</v>
       </c>
@@ -5418,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>18</v>
@@ -5426,24 +5430,26 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="5">
-        <v>3000301</v>
+        <v>3000201</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E106" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="5" t="s">
+      <c r="F106" s="5">
+        <v>0</v>
+      </c>
+      <c r="G106" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5">
-        <v>0</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="H106" s="5">
         <v>0</v>
       </c>
@@ -5451,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K106" s="5" t="s">
         <v>18</v>
@@ -5459,32 +5465,32 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="5">
-        <v>3000401</v>
+        <v>3000301</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5">
         <v>0</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H107" s="5">
         <v>0</v>
       </c>
       <c r="I107" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K107" s="5" t="s">
         <v>18</v>
@@ -5492,26 +5498,24 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="5">
-        <v>3000501</v>
-      </c>
-      <c r="B108" s="6" t="s">
+        <v>3000401</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="5" t="s">
+      <c r="E108" s="5"/>
+      <c r="F108" s="5">
+        <v>0</v>
+      </c>
+      <c r="G108" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F108" s="5">
-        <v>0</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="H108" s="5">
         <v>0</v>
       </c>
@@ -5519,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>18</v>
@@ -5527,25 +5531,25 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="5">
-        <v>3000502</v>
-      </c>
-      <c r="B109" s="5" t="s">
+        <v>3000501</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="F109" s="5">
+        <v>0</v>
+      </c>
+      <c r="G109" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F109" s="5">
-        <v>0</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>239</v>
       </c>
       <c r="H109" s="5">
         <v>0</v>
@@ -5562,34 +5566,34 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="5">
-        <v>3000601</v>
+        <v>3000502</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>244</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F110" s="5">
         <v>0</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H110" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>18</v>
@@ -5597,31 +5601,31 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="5">
-        <v>3000701</v>
+        <v>3000601</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E111" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="5" t="s">
+      <c r="F111" s="5">
+        <v>0</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F111" s="5">
-        <v>0</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="H111" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" s="5">
         <v>1</v>
@@ -5632,31 +5636,31 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="5">
-        <v>3000801</v>
+        <v>3000701</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E112" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="5" t="s">
+      <c r="F112" s="5">
+        <v>0</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="F112" s="5">
-        <v>0</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="H112" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" s="5">
         <v>1</v>
@@ -5667,25 +5671,25 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="5">
-        <v>3000802</v>
+        <v>3000801</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E113" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="5" t="s">
+      <c r="F113" s="5">
+        <v>0</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="F113" s="5">
-        <v>0</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="H113" s="5">
         <v>1</v>
@@ -5702,7 +5706,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="5">
-        <v>3000803</v>
+        <v>3000802</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>257</v>
@@ -5713,12 +5717,14 @@
       <c r="D114" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E114" s="5"/>
+      <c r="E114" s="6" t="s">
+        <v>255</v>
+      </c>
       <c r="F114" s="5">
-        <v>3000804</v>
+        <v>0</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="H114" s="5">
         <v>1</v>
@@ -5735,7 +5741,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="5">
-        <v>3000804</v>
+        <v>3000803</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>259</v>
@@ -5746,14 +5752,12 @@
       <c r="D115" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E115" s="6" t="s">
-        <v>253</v>
-      </c>
+      <c r="E115" s="5"/>
       <c r="F115" s="5">
-        <v>3000805</v>
+        <v>3000804</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>254</v>
+        <v>17</v>
       </c>
       <c r="H115" s="5">
         <v>1</v>
@@ -5770,7 +5774,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="5">
-        <v>3000805</v>
+        <v>3000804</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>261</v>
@@ -5782,13 +5786,13 @@
         <v>262</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F116" s="5">
-        <v>3000806</v>
+        <v>3000805</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H116" s="5">
         <v>1</v>
@@ -5805,7 +5809,7 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="5">
-        <v>3000806</v>
+        <v>3000805</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>263</v>
@@ -5817,13 +5821,13 @@
         <v>264</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F117" s="5">
-        <v>0</v>
+        <v>3000806</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H117" s="5">
         <v>1</v>
@@ -5840,7 +5844,7 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="5">
-        <v>4000101</v>
+        <v>3000806</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>265</v>
@@ -5851,12 +5855,14 @@
       <c r="D118" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="6" t="s">
+        <v>255</v>
+      </c>
       <c r="F118" s="5">
-        <v>4000102</v>
+        <v>0</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H118" s="5">
         <v>1</v>
@@ -5873,23 +5879,23 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="5">
-        <v>4000102</v>
+        <v>4000101</v>
       </c>
       <c r="B119" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5">
-        <v>4000103</v>
+        <v>4000102</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H119" s="5">
         <v>1</v>
@@ -5906,7 +5912,7 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="5">
-        <v>4000103</v>
+        <v>4000102</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>270</v>
@@ -5919,10 +5925,10 @@
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5">
-        <v>4000104</v>
+        <v>4000103</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H120" s="5">
         <v>1</v>
@@ -5939,7 +5945,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="5">
-        <v>4000104</v>
+        <v>4000103</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>272</v>
@@ -5952,10 +5958,10 @@
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5">
-        <v>4000105</v>
+        <v>4000104</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H121" s="5">
         <v>1</v>
@@ -5972,7 +5978,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="5">
-        <v>4000105</v>
+        <v>4000104</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>274</v>
@@ -5985,10 +5991,10 @@
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5">
-        <v>0</v>
+        <v>4000105</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H122" s="5">
         <v>1</v>
@@ -6005,7 +6011,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="5">
-        <v>4000201</v>
+        <v>4000105</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>276</v>
@@ -6018,10 +6024,10 @@
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5">
-        <v>4000202</v>
+        <v>0</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H123" s="5">
         <v>1</v>
@@ -6038,7 +6044,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="5">
-        <v>4000202</v>
+        <v>4000201</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>278</v>
@@ -6051,10 +6057,10 @@
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5">
-        <v>4000203</v>
+        <v>4000202</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H124" s="5">
         <v>1</v>
@@ -6071,7 +6077,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="5">
-        <v>4000203</v>
+        <v>4000202</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>280</v>
@@ -6084,10 +6090,10 @@
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5">
-        <v>4000204</v>
+        <v>4000203</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H125" s="5">
         <v>1</v>
@@ -6104,7 +6110,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="5">
-        <v>4000204</v>
+        <v>4000203</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>282</v>
@@ -6117,10 +6123,10 @@
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5">
-        <v>4000205</v>
+        <v>4000204</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H126" s="5">
         <v>1</v>
@@ -6137,7 +6143,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="5">
-        <v>4000205</v>
+        <v>4000204</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>284</v>
@@ -6150,10 +6156,10 @@
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5">
-        <v>0</v>
+        <v>4000205</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H127" s="5">
         <v>1</v>
@@ -6170,60 +6176,58 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="5">
-        <v>5000001</v>
-      </c>
-      <c r="B128" s="6" t="s">
+        <v>4000205</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>286</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="D128" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E128" s="6" t="s">
-        <v>288</v>
-      </c>
+      <c r="E128" s="5"/>
       <c r="F128" s="5">
         <v>0</v>
       </c>
-      <c r="G128" s="6" t="s">
-        <v>289</v>
+      <c r="G128" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="H128" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" s="5">
         <v>0</v>
       </c>
       <c r="J128" s="5">
-        <v>9</v>
-      </c>
-      <c r="K128" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K128" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="5">
-        <v>9000001</v>
-      </c>
-      <c r="B129" s="5" t="s">
+        <v>5000001</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E129" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="6" t="s">
+      <c r="F129" s="5">
+        <v>0</v>
+      </c>
+      <c r="G129" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="F129" s="5">
-        <v>0</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="H129" s="5">
         <v>0</v>
@@ -6234,7 +6238,42 @@
       <c r="J129" s="5">
         <v>9</v>
       </c>
-      <c r="K129" s="5" t="s">
+      <c r="K129" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="5">
+        <v>9000001</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F130" s="5">
+        <v>0</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H130" s="5">
+        <v>0</v>
+      </c>
+      <c r="I130" s="5">
+        <v>0</v>
+      </c>
+      <c r="J130" s="5">
+        <v>9</v>
+      </c>
+      <c r="K130" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="302">
   <si>
     <t>ID</t>
   </si>
@@ -702,6 +702,24 @@
   </si>
   <si>
     <t>Generator/ToolBox/ToolBox_Lv3</t>
+  </si>
+  <si>
+    <t>CGenerator_Lv1</t>
+  </si>
+  <si>
+    <t>Generator/CGenerator/CGenerator_Lv1</t>
+  </si>
+  <si>
+    <t>CGenerator_Lv2</t>
+  </si>
+  <si>
+    <t>Generator/CGenerator/CGenerator_Lv2</t>
+  </si>
+  <si>
+    <t>CGenerator_Lv3</t>
+  </si>
+  <si>
+    <t>Generator/CGenerator/CGenerator_Lv3</t>
   </si>
   <si>
     <t>Fog</t>
@@ -1894,10 +1912,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:F27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -5397,7 +5415,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="5">
-        <v>3000101</v>
+        <v>2000501</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>225</v>
@@ -5408,21 +5426,23 @@
       <c r="D105" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E105" s="5"/>
+      <c r="E105" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="F105" s="5">
         <v>0</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="H105" s="5">
         <v>0</v>
       </c>
       <c r="I105" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>18</v>
@@ -5430,31 +5450,31 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="5">
-        <v>3000201</v>
+        <v>2000502</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>229</v>
-      </c>
       <c r="E106" s="5" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="F106" s="5">
         <v>0</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="H106" s="5">
         <v>0</v>
       </c>
       <c r="I106" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" s="5">
         <v>1</v>
@@ -5465,32 +5485,34 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="5">
-        <v>3000301</v>
+        <v>2000503</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E107" s="5"/>
+        <v>230</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="F107" s="5">
         <v>0</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="H107" s="5">
         <v>0</v>
       </c>
       <c r="I107" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K107" s="5" t="s">
         <v>18</v>
@@ -5498,32 +5520,32 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="5">
-        <v>3000401</v>
+        <v>3000101</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5">
         <v>0</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H108" s="5">
         <v>0</v>
       </c>
       <c r="I108" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>18</v>
@@ -5531,34 +5553,34 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="5">
-        <v>3000501</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>238</v>
+        <v>3000201</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F109" s="5">
         <v>0</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H109" s="5">
         <v>0</v>
       </c>
       <c r="I109" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K109" s="5" t="s">
         <v>18</v>
@@ -5566,34 +5588,32 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="5">
-        <v>3000502</v>
+        <v>3000301</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E110" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5">
+        <v>0</v>
+      </c>
+      <c r="G110" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F110" s="5">
-        <v>0</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="H110" s="5">
         <v>0</v>
       </c>
       <c r="I110" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>18</v>
@@ -5601,34 +5621,32 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="5">
-        <v>3000601</v>
+        <v>3000401</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>247</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="E111" s="5"/>
       <c r="F111" s="5">
         <v>0</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H111" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K111" s="5" t="s">
         <v>18</v>
@@ -5636,25 +5654,25 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="5">
-        <v>3000701</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>249</v>
+        <v>3000501</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F112" s="5">
         <v>0</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H112" s="5">
         <v>0</v>
@@ -5663,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>18</v>
@@ -5671,34 +5689,34 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="5">
-        <v>3000801</v>
+        <v>3000502</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F113" s="5">
         <v>0</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="H113" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>18</v>
@@ -5706,25 +5724,25 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="5">
-        <v>3000802</v>
+        <v>3000601</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="F114" s="5">
         <v>0</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H114" s="5">
         <v>1</v>
@@ -5741,29 +5759,31 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="5">
-        <v>3000803</v>
+        <v>3000701</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E115" s="5"/>
+        <v>256</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="F115" s="5">
-        <v>3000804</v>
+        <v>0</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="H115" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" s="5">
         <v>1</v>
@@ -5774,25 +5794,25 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="5">
-        <v>3000804</v>
+        <v>3000801</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E116" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" s="5" t="s">
+      <c r="F116" s="5">
+        <v>0</v>
+      </c>
+      <c r="G116" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="E116" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F116" s="5">
-        <v>3000805</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="H116" s="5">
         <v>1</v>
@@ -5809,7 +5829,7 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="5">
-        <v>3000805</v>
+        <v>3000802</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>263</v>
@@ -5821,13 +5841,13 @@
         <v>264</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F117" s="5">
-        <v>3000806</v>
+        <v>0</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H117" s="5">
         <v>1</v>
@@ -5844,7 +5864,7 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="5">
-        <v>3000806</v>
+        <v>3000803</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>265</v>
@@ -5855,14 +5875,12 @@
       <c r="D118" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E118" s="6" t="s">
-        <v>255</v>
-      </c>
+      <c r="E118" s="5"/>
       <c r="F118" s="5">
-        <v>0</v>
+        <v>3000804</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>256</v>
+        <v>17</v>
       </c>
       <c r="H118" s="5">
         <v>1</v>
@@ -5879,7 +5897,7 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="5">
-        <v>4000101</v>
+        <v>3000804</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>267</v>
@@ -5890,12 +5908,14 @@
       <c r="D119" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E119" s="5"/>
+      <c r="E119" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="F119" s="5">
-        <v>4000102</v>
+        <v>3000805</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H119" s="5">
         <v>1</v>
@@ -5912,23 +5932,25 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="5">
-        <v>4000102</v>
+        <v>3000805</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E120" s="5"/>
+      <c r="E120" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="F120" s="5">
-        <v>4000103</v>
+        <v>3000806</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H120" s="5">
         <v>1</v>
@@ -5945,23 +5967,25 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="5">
-        <v>4000103</v>
+        <v>3000806</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E121" s="5"/>
+      <c r="E121" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="F121" s="5">
-        <v>4000104</v>
+        <v>0</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H121" s="5">
         <v>1</v>
@@ -5978,23 +6002,23 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="5">
-        <v>4000104</v>
+        <v>4000101</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5">
-        <v>4000105</v>
+        <v>4000102</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H122" s="5">
         <v>1</v>
@@ -6011,7 +6035,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="5">
-        <v>4000105</v>
+        <v>4000102</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>276</v>
@@ -6024,10 +6048,10 @@
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5">
-        <v>0</v>
+        <v>4000103</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H123" s="5">
         <v>1</v>
@@ -6044,7 +6068,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="5">
-        <v>4000201</v>
+        <v>4000103</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>278</v>
@@ -6057,10 +6081,10 @@
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5">
-        <v>4000202</v>
+        <v>4000104</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H124" s="5">
         <v>1</v>
@@ -6077,7 +6101,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="5">
-        <v>4000202</v>
+        <v>4000104</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>280</v>
@@ -6090,10 +6114,10 @@
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5">
-        <v>4000203</v>
+        <v>4000105</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H125" s="5">
         <v>1</v>
@@ -6110,7 +6134,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="5">
-        <v>4000203</v>
+        <v>4000105</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>282</v>
@@ -6123,10 +6147,10 @@
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5">
-        <v>4000204</v>
+        <v>0</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H126" s="5">
         <v>1</v>
@@ -6143,7 +6167,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="5">
-        <v>4000204</v>
+        <v>4000201</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>284</v>
@@ -6156,10 +6180,10 @@
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5">
-        <v>4000205</v>
+        <v>4000202</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H127" s="5">
         <v>1</v>
@@ -6176,7 +6200,7 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="5">
-        <v>4000205</v>
+        <v>4000202</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>286</v>
@@ -6189,10 +6213,10 @@
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5">
-        <v>0</v>
+        <v>4000203</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H128" s="5">
         <v>1</v>
@@ -6209,71 +6233,170 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="5">
-        <v>5000001</v>
-      </c>
-      <c r="B129" s="6" t="s">
+        <v>4000203</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>288</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D129" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="E129" s="6" t="s">
-        <v>290</v>
-      </c>
+      <c r="E129" s="5"/>
       <c r="F129" s="5">
-        <v>0</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>291</v>
+        <v>4000204</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="H129" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" s="5">
         <v>0</v>
       </c>
       <c r="J129" s="5">
-        <v>9</v>
-      </c>
-      <c r="K129" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K129" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H130" s="5">
+        <v>1</v>
+      </c>
+      <c r="I130" s="5">
+        <v>0</v>
+      </c>
+      <c r="J130" s="5">
+        <v>1</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5">
+        <v>0</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H131" s="5">
+        <v>1</v>
+      </c>
+      <c r="I131" s="5">
+        <v>0</v>
+      </c>
+      <c r="J131" s="5">
+        <v>1</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="5">
+        <v>5000001</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F132" s="5">
+        <v>0</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H132" s="5">
+        <v>0</v>
+      </c>
+      <c r="I132" s="5">
+        <v>0</v>
+      </c>
+      <c r="J132" s="5">
+        <v>9</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="5">
         <v>9000001</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F130" s="5">
-        <v>0</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="H130" s="5">
-        <v>0</v>
-      </c>
-      <c r="I130" s="5">
-        <v>0</v>
-      </c>
-      <c r="J130" s="5">
+      <c r="B133" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F133" s="5">
+        <v>0</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H133" s="5">
+        <v>0</v>
+      </c>
+      <c r="I133" s="5">
+        <v>0</v>
+      </c>
+      <c r="J133" s="5">
         <v>9</v>
       </c>
-      <c r="K130" s="5" t="s">
+      <c r="K133" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="303">
   <si>
     <t>ID</t>
   </si>
@@ -747,6 +747,9 @@
   </si>
   <si>
     <t>Chain/Chain</t>
+  </si>
+  <si>
+    <t>TileItem/Chain</t>
   </si>
   <si>
     <t>CHAIN</t>
@@ -1914,8 +1917,8 @@
   <sheetPr/>
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -5599,12 +5602,14 @@
       <c r="D110" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E110" s="5"/>
+      <c r="E110" s="5" t="s">
+        <v>240</v>
+      </c>
       <c r="F110" s="5">
         <v>0</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H110" s="5">
         <v>0</v>
@@ -5624,20 +5629,20 @@
         <v>3000401</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5">
         <v>0</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H111" s="5">
         <v>0</v>
@@ -5657,22 +5662,22 @@
         <v>3000501</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F112" s="5">
         <v>0</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H112" s="5">
         <v>0</v>
@@ -5692,22 +5697,22 @@
         <v>3000502</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F113" s="5">
-        <v>0</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="H113" s="5">
         <v>0</v>
@@ -5727,22 +5732,22 @@
         <v>3000601</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F114" s="5">
         <v>0</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H114" s="5">
         <v>1</v>
@@ -5762,22 +5767,22 @@
         <v>3000701</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F115" s="5">
         <v>0</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H115" s="5">
         <v>0</v>
@@ -5797,22 +5802,22 @@
         <v>3000801</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F116" s="5">
         <v>0</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H116" s="5">
         <v>1</v>
@@ -5832,22 +5837,22 @@
         <v>3000802</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0</v>
+      </c>
+      <c r="G117" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F117" s="5">
-        <v>0</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="H117" s="5">
         <v>1</v>
@@ -5867,13 +5872,13 @@
         <v>3000803</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5">
@@ -5900,22 +5905,22 @@
         <v>3000804</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F119" s="5">
         <v>3000805</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H119" s="5">
         <v>1</v>
@@ -5935,22 +5940,22 @@
         <v>3000805</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F120" s="5">
         <v>3000806</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H120" s="5">
         <v>1</v>
@@ -5970,22 +5975,22 @@
         <v>3000806</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F121" s="5">
         <v>0</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H121" s="5">
         <v>1</v>
@@ -6005,20 +6010,20 @@
         <v>4000101</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5">
         <v>4000102</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H122" s="5">
         <v>1</v>
@@ -6038,20 +6043,20 @@
         <v>4000102</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5">
         <v>4000103</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H123" s="5">
         <v>1</v>
@@ -6071,20 +6076,20 @@
         <v>4000103</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5">
         <v>4000104</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H124" s="5">
         <v>1</v>
@@ -6104,20 +6109,20 @@
         <v>4000104</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5">
         <v>4000105</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H125" s="5">
         <v>1</v>
@@ -6137,20 +6142,20 @@
         <v>4000105</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5">
         <v>0</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H126" s="5">
         <v>1</v>
@@ -6170,20 +6175,20 @@
         <v>4000201</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5">
         <v>4000202</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H127" s="5">
         <v>1</v>
@@ -6203,20 +6208,20 @@
         <v>4000202</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5">
         <v>4000203</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H128" s="5">
         <v>1</v>
@@ -6236,20 +6241,20 @@
         <v>4000203</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5">
         <v>4000204</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H129" s="5">
         <v>1</v>
@@ -6269,20 +6274,20 @@
         <v>4000204</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5">
         <v>4000205</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H130" s="5">
         <v>1</v>
@@ -6302,20 +6307,20 @@
         <v>4000205</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5">
         <v>0</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H131" s="5">
         <v>1</v>
@@ -6335,22 +6340,22 @@
         <v>5000001</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F132" s="5">
         <v>0</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H132" s="5">
         <v>0</v>
@@ -6370,22 +6375,22 @@
         <v>9000001</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F133" s="5">
         <v>0</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H133" s="5">
         <v>0</v>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1917,8 +1917,8 @@
   <sheetPr/>
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" s="5">
         <v>2</v>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1918,7 +1918,7 @@
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="305">
   <si>
     <t>ID</t>
   </si>
@@ -924,6 +924,12 @@
   </si>
   <si>
     <t>MAPSETTING</t>
+  </si>
+  <si>
+    <t>StartPos</t>
+  </si>
+  <si>
+    <t>MapSetting/StartPos</t>
   </si>
   <si>
     <t>GroupPainter</t>
@@ -1915,10 +1921,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="K137" sqref="K137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -6372,7 +6378,7 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="5">
-        <v>9000001</v>
+        <v>5000002</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>299</v>
@@ -6383,14 +6389,12 @@
       <c r="D133" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="E133" s="5" t="s">
-        <v>301</v>
-      </c>
+      <c r="E133" s="5"/>
       <c r="F133" s="5">
         <v>0</v>
       </c>
-      <c r="G133" s="5" t="s">
-        <v>302</v>
+      <c r="G133" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="H133" s="5">
         <v>0</v>
@@ -6401,7 +6405,42 @@
       <c r="J133" s="5">
         <v>9</v>
       </c>
-      <c r="K133" s="5" t="s">
+      <c r="K133" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="5">
+        <v>9000001</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F134" s="5">
+        <v>0</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="H134" s="5">
+        <v>0</v>
+      </c>
+      <c r="I134" s="5">
+        <v>0</v>
+      </c>
+      <c r="J134" s="5">
+        <v>9</v>
+      </c>
+      <c r="K134" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="309">
   <si>
     <t>ID</t>
   </si>
@@ -755,6 +755,12 @@
     <t>CHAIN</t>
   </si>
   <si>
+    <t>ChainStackHead</t>
+  </si>
+  <si>
+    <t>TileItem/ChainStackHead</t>
+  </si>
+  <si>
     <t>Stack</t>
   </si>
   <si>
@@ -762,6 +768,12 @@
   </si>
   <si>
     <t>STACK</t>
+  </si>
+  <si>
+    <t>ChainStack</t>
+  </si>
+  <si>
+    <t>Stack/ChainStack</t>
   </si>
   <si>
     <t>ElfCloud_11</t>
@@ -1921,10 +1933,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K137" sqref="K137"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -5632,7 +5644,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="5">
-        <v>3000401</v>
+        <v>3000302</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>242</v>
@@ -5641,14 +5653,16 @@
         <v>15</v>
       </c>
       <c r="D111" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E111" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E111" s="5"/>
       <c r="F111" s="5">
         <v>0</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H111" s="5">
         <v>0</v>
@@ -5657,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K111" s="5" t="s">
         <v>18</v>
@@ -5665,26 +5679,24 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="5">
-        <v>3000501</v>
-      </c>
-      <c r="B112" s="6" t="s">
+        <v>3000401</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="5" t="s">
+      <c r="E112" s="5"/>
+      <c r="F112" s="5">
+        <v>0</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F112" s="5">
-        <v>0</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="H112" s="5">
         <v>0</v>
       </c>
@@ -5692,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>18</v>
@@ -5700,25 +5712,25 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="5">
-        <v>3000502</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>249</v>
+        <v>3000402</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F113" s="5">
         <v>0</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H113" s="5">
         <v>0</v>
@@ -5727,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>18</v>
@@ -5735,34 +5747,34 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="5">
-        <v>3000601</v>
-      </c>
-      <c r="B114" s="5" t="s">
+        <v>3000501</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F114" s="5">
+        <v>0</v>
+      </c>
+      <c r="G114" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F114" s="5">
-        <v>0</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="H114" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>18</v>
@@ -5770,25 +5782,25 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="5">
-        <v>3000701</v>
+        <v>3000502</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F115" s="5">
         <v>0</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H115" s="5">
         <v>0</v>
@@ -5797,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>18</v>
@@ -5805,25 +5817,25 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="5">
-        <v>3000801</v>
+        <v>3000601</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F116" s="5">
         <v>0</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H116" s="5">
         <v>1</v>
@@ -5840,18 +5852,18 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="5">
-        <v>3000802</v>
+        <v>3000701</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E117" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E117" s="5" t="s">
         <v>262</v>
       </c>
       <c r="F117" s="5">
@@ -5861,10 +5873,10 @@
         <v>263</v>
       </c>
       <c r="H117" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" s="5">
         <v>1</v>
@@ -5875,23 +5887,25 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="5">
-        <v>3000803</v>
+        <v>3000801</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E118" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" s="5" t="s">
+      <c r="F118" s="5">
+        <v>0</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5">
-        <v>3000804</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="H118" s="5">
         <v>1</v>
@@ -5908,7 +5922,7 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="5">
-        <v>3000804</v>
+        <v>3000802</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>268</v>
@@ -5920,13 +5934,13 @@
         <v>269</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F119" s="5">
-        <v>3000805</v>
+        <v>0</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H119" s="5">
         <v>1</v>
@@ -5943,7 +5957,7 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="5">
-        <v>3000805</v>
+        <v>3000803</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>270</v>
@@ -5954,14 +5968,12 @@
       <c r="D120" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E120" s="6" t="s">
-        <v>262</v>
-      </c>
+      <c r="E120" s="5"/>
       <c r="F120" s="5">
-        <v>3000806</v>
+        <v>3000804</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>263</v>
+        <v>17</v>
       </c>
       <c r="H120" s="5">
         <v>1</v>
@@ -5978,7 +5990,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="5">
-        <v>3000806</v>
+        <v>3000804</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>272</v>
@@ -5990,13 +6002,13 @@
         <v>273</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F121" s="5">
-        <v>0</v>
+        <v>3000805</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H121" s="5">
         <v>1</v>
@@ -6013,7 +6025,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="5">
-        <v>4000101</v>
+        <v>3000805</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>274</v>
@@ -6024,12 +6036,14 @@
       <c r="D122" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E122" s="5"/>
+      <c r="E122" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="F122" s="5">
-        <v>4000102</v>
+        <v>3000806</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H122" s="5">
         <v>1</v>
@@ -6046,23 +6060,25 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="5">
-        <v>4000102</v>
+        <v>3000806</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E123" s="5"/>
+      <c r="E123" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="F123" s="5">
-        <v>4000103</v>
+        <v>0</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H123" s="5">
         <v>1</v>
@@ -6079,23 +6095,23 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="5">
-        <v>4000103</v>
+        <v>4000101</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>280</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5">
-        <v>4000104</v>
+        <v>4000102</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H124" s="5">
         <v>1</v>
@@ -6112,7 +6128,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="5">
-        <v>4000104</v>
+        <v>4000102</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>281</v>
@@ -6125,10 +6141,10 @@
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5">
-        <v>4000105</v>
+        <v>4000103</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H125" s="5">
         <v>1</v>
@@ -6145,7 +6161,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="5">
-        <v>4000105</v>
+        <v>4000103</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>283</v>
@@ -6158,10 +6174,10 @@
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5">
-        <v>0</v>
+        <v>4000104</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H126" s="5">
         <v>1</v>
@@ -6178,7 +6194,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="5">
-        <v>4000201</v>
+        <v>4000104</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>285</v>
@@ -6191,10 +6207,10 @@
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5">
-        <v>4000202</v>
+        <v>4000105</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H127" s="5">
         <v>1</v>
@@ -6211,7 +6227,7 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="5">
-        <v>4000202</v>
+        <v>4000105</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>287</v>
@@ -6224,10 +6240,10 @@
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5">
-        <v>4000203</v>
+        <v>0</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H128" s="5">
         <v>1</v>
@@ -6244,7 +6260,7 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="5">
-        <v>4000203</v>
+        <v>4000201</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>289</v>
@@ -6257,10 +6273,10 @@
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5">
-        <v>4000204</v>
+        <v>4000202</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H129" s="5">
         <v>1</v>
@@ -6277,7 +6293,7 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="5">
-        <v>4000204</v>
+        <v>4000202</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>291</v>
@@ -6290,10 +6306,10 @@
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5">
-        <v>4000205</v>
+        <v>4000203</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H130" s="5">
         <v>1</v>
@@ -6310,7 +6326,7 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="5">
-        <v>4000205</v>
+        <v>4000203</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>293</v>
@@ -6323,10 +6339,10 @@
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5">
-        <v>0</v>
+        <v>4000204</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H131" s="5">
         <v>1</v>
@@ -6343,93 +6359,91 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="5">
-        <v>5000001</v>
-      </c>
-      <c r="B132" s="6" t="s">
+        <v>4000204</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>295</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="D132" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E132" s="6" t="s">
-        <v>297</v>
-      </c>
+      <c r="E132" s="5"/>
       <c r="F132" s="5">
-        <v>0</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>298</v>
+        <v>4000205</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="H132" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" s="5">
         <v>0</v>
       </c>
       <c r="J132" s="5">
-        <v>9</v>
-      </c>
-      <c r="K132" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K132" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="5">
-        <v>5000002</v>
+        <v>4000205</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D133" s="6" t="s">
-        <v>300</v>
+      <c r="D133" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5">
         <v>0</v>
       </c>
-      <c r="G133" s="6" t="s">
-        <v>298</v>
+      <c r="G133" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="H133" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" s="5">
         <v>0</v>
       </c>
       <c r="J133" s="5">
-        <v>9</v>
-      </c>
-      <c r="K133" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K133" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="5">
-        <v>9000001</v>
-      </c>
-      <c r="B134" s="5" t="s">
+        <v>5000001</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E134" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="6" t="s">
+      <c r="F134" s="5">
+        <v>0</v>
+      </c>
+      <c r="G134" s="6" t="s">
         <v>302</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F134" s="5">
-        <v>0</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="H134" s="5">
         <v>0</v>
@@ -6440,7 +6454,75 @@
       <c r="J134" s="5">
         <v>9</v>
       </c>
-      <c r="K134" s="5" t="s">
+      <c r="K134" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="5">
+        <v>5000002</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5">
+        <v>0</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H135" s="5">
+        <v>0</v>
+      </c>
+      <c r="I135" s="5">
+        <v>0</v>
+      </c>
+      <c r="J135" s="5">
+        <v>9</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="5">
+        <v>9000001</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F136" s="5">
+        <v>0</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H136" s="5">
+        <v>0</v>
+      </c>
+      <c r="I136" s="5">
+        <v>0</v>
+      </c>
+      <c r="J136" s="5">
+        <v>9</v>
+      </c>
+      <c r="K136" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1936,7 +1936,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="310">
   <si>
     <t>ID</t>
   </si>
@@ -765,6 +765,9 @@
   </si>
   <si>
     <t>Stack/GrassStack</t>
+  </si>
+  <si>
+    <t>TileItem/Stack</t>
   </si>
   <si>
     <t>STACK</t>
@@ -1935,8 +1938,8 @@
   <sheetPr/>
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -5690,12 +5693,14 @@
       <c r="D112" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="F112" s="5">
         <v>0</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H112" s="5">
         <v>0</v>
@@ -5715,22 +5720,22 @@
         <v>3000402</v>
       </c>
       <c r="B113" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="F113" s="5">
-        <v>0</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="H113" s="5">
         <v>0</v>
@@ -5750,22 +5755,22 @@
         <v>3000501</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F114" s="5">
         <v>0</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H114" s="5">
         <v>0</v>
@@ -5785,22 +5790,22 @@
         <v>3000502</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0</v>
+      </c>
+      <c r="G115" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F115" s="5">
-        <v>0</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="H115" s="5">
         <v>0</v>
@@ -5820,22 +5825,22 @@
         <v>3000601</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F116" s="5">
         <v>0</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H116" s="5">
         <v>1</v>
@@ -5855,22 +5860,22 @@
         <v>3000701</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F117" s="5">
         <v>0</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H117" s="5">
         <v>0</v>
@@ -5890,22 +5895,22 @@
         <v>3000801</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F118" s="5">
         <v>0</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H118" s="5">
         <v>1</v>
@@ -5925,22 +5930,22 @@
         <v>3000802</v>
       </c>
       <c r="B119" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F119" s="5">
+        <v>0</v>
+      </c>
+      <c r="G119" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F119" s="5">
-        <v>0</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="H119" s="5">
         <v>1</v>
@@ -5960,13 +5965,13 @@
         <v>3000803</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5">
@@ -5993,22 +5998,22 @@
         <v>3000804</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F121" s="5">
         <v>3000805</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H121" s="5">
         <v>1</v>
@@ -6028,22 +6033,22 @@
         <v>3000805</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F122" s="5">
         <v>3000806</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H122" s="5">
         <v>1</v>
@@ -6063,22 +6068,22 @@
         <v>3000806</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F123" s="5">
         <v>0</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H123" s="5">
         <v>1</v>
@@ -6098,20 +6103,20 @@
         <v>4000101</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5">
         <v>4000102</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H124" s="5">
         <v>1</v>
@@ -6131,20 +6136,20 @@
         <v>4000102</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5">
         <v>4000103</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H125" s="5">
         <v>1</v>
@@ -6164,20 +6169,20 @@
         <v>4000103</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5">
         <v>4000104</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H126" s="5">
         <v>1</v>
@@ -6197,20 +6202,20 @@
         <v>4000104</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5">
         <v>4000105</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H127" s="5">
         <v>1</v>
@@ -6230,20 +6235,20 @@
         <v>4000105</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5">
         <v>0</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H128" s="5">
         <v>1</v>
@@ -6263,20 +6268,20 @@
         <v>4000201</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5">
         <v>4000202</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H129" s="5">
         <v>1</v>
@@ -6296,20 +6301,20 @@
         <v>4000202</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5">
         <v>4000203</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H130" s="5">
         <v>1</v>
@@ -6329,20 +6334,20 @@
         <v>4000203</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5">
         <v>4000204</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H131" s="5">
         <v>1</v>
@@ -6362,20 +6367,20 @@
         <v>4000204</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5">
         <v>4000205</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H132" s="5">
         <v>1</v>
@@ -6395,20 +6400,20 @@
         <v>4000205</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5">
         <v>0</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H133" s="5">
         <v>1</v>
@@ -6428,22 +6433,22 @@
         <v>5000001</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F134" s="5">
         <v>0</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H134" s="5">
         <v>0</v>
@@ -6463,20 +6468,20 @@
         <v>5000002</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5">
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H135" s="5">
         <v>0</v>
@@ -6496,22 +6501,22 @@
         <v>9000001</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F136" s="5">
         <v>0</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H136" s="5">
         <v>0</v>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -758,9 +758,6 @@
     <t>ChainStackHead</t>
   </si>
   <si>
-    <t>TileItem/ChainStackHead</t>
-  </si>
-  <si>
     <t>Stack</t>
   </si>
   <si>
@@ -777,6 +774,9 @@
   </si>
   <si>
     <t>Stack/ChainStack</t>
+  </si>
+  <si>
+    <t>Stack/Stack</t>
   </si>
   <si>
     <t>ElfCloud_11</t>
@@ -1939,7 +1939,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -5659,7 +5659,7 @@
         <v>239</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F111" s="5">
         <v>0</v>
@@ -5685,22 +5685,22 @@
         <v>3000401</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="5" t="s">
+      <c r="E112" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="F112" s="5">
+        <v>0</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="F112" s="5">
-        <v>0</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="H112" s="5">
         <v>0</v>
@@ -5720,13 +5720,13 @@
         <v>3000402</v>
       </c>
       <c r="B113" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>249</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>249</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H113" s="5">
         <v>0</v>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="311">
   <si>
     <t>ID</t>
   </si>
@@ -756,6 +756,9 @@
   </si>
   <si>
     <t>ChainStackHead</t>
+  </si>
+  <si>
+    <t>Chain/ChainStackHead</t>
   </si>
   <si>
     <t>Stack</t>
@@ -1939,7 +1942,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -5656,7 +5659,7 @@
         <v>15</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>240</v>
@@ -5685,22 +5688,22 @@
         <v>3000401</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F112" s="5">
         <v>0</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H112" s="5">
         <v>0</v>
@@ -5720,22 +5723,22 @@
         <v>3000402</v>
       </c>
       <c r="B113" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F113" s="5">
-        <v>0</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="H113" s="5">
         <v>0</v>
@@ -5755,22 +5758,22 @@
         <v>3000501</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F114" s="5">
         <v>0</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H114" s="5">
         <v>0</v>
@@ -5790,22 +5793,22 @@
         <v>3000502</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0</v>
+      </c>
+      <c r="G115" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F115" s="5">
-        <v>0</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="H115" s="5">
         <v>0</v>
@@ -5825,22 +5828,22 @@
         <v>3000601</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F116" s="5">
         <v>0</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H116" s="5">
         <v>1</v>
@@ -5860,22 +5863,22 @@
         <v>3000701</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F117" s="5">
         <v>0</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H117" s="5">
         <v>0</v>
@@ -5895,22 +5898,22 @@
         <v>3000801</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F118" s="5">
         <v>0</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H118" s="5">
         <v>1</v>
@@ -5930,22 +5933,22 @@
         <v>3000802</v>
       </c>
       <c r="B119" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F119" s="5">
+        <v>0</v>
+      </c>
+      <c r="G119" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F119" s="5">
-        <v>0</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="H119" s="5">
         <v>1</v>
@@ -5965,13 +5968,13 @@
         <v>3000803</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5">
@@ -5998,22 +6001,22 @@
         <v>3000804</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F121" s="5">
         <v>3000805</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H121" s="5">
         <v>1</v>
@@ -6033,22 +6036,22 @@
         <v>3000805</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F122" s="5">
         <v>3000806</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H122" s="5">
         <v>1</v>
@@ -6068,22 +6071,22 @@
         <v>3000806</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F123" s="5">
         <v>0</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H123" s="5">
         <v>1</v>
@@ -6103,20 +6106,20 @@
         <v>4000101</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5">
         <v>4000102</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H124" s="5">
         <v>1</v>
@@ -6136,20 +6139,20 @@
         <v>4000102</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5">
         <v>4000103</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H125" s="5">
         <v>1</v>
@@ -6169,20 +6172,20 @@
         <v>4000103</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5">
         <v>4000104</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H126" s="5">
         <v>1</v>
@@ -6202,20 +6205,20 @@
         <v>4000104</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5">
         <v>4000105</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H127" s="5">
         <v>1</v>
@@ -6235,20 +6238,20 @@
         <v>4000105</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5">
         <v>0</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H128" s="5">
         <v>1</v>
@@ -6268,20 +6271,20 @@
         <v>4000201</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5">
         <v>4000202</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H129" s="5">
         <v>1</v>
@@ -6301,20 +6304,20 @@
         <v>4000202</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5">
         <v>4000203</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H130" s="5">
         <v>1</v>
@@ -6334,20 +6337,20 @@
         <v>4000203</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5">
         <v>4000204</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H131" s="5">
         <v>1</v>
@@ -6367,20 +6370,20 @@
         <v>4000204</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5">
         <v>4000205</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H132" s="5">
         <v>1</v>
@@ -6400,20 +6403,20 @@
         <v>4000205</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5">
         <v>0</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H133" s="5">
         <v>1</v>
@@ -6433,22 +6436,22 @@
         <v>5000001</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F134" s="5">
         <v>0</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H134" s="5">
         <v>0</v>
@@ -6468,20 +6471,20 @@
         <v>5000002</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5">
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H135" s="5">
         <v>0</v>
@@ -6501,22 +6504,22 @@
         <v>9000001</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F136" s="5">
         <v>0</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H136" s="5">
         <v>0</v>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="310">
   <si>
     <t>ID</t>
   </si>
@@ -777,9 +777,6 @@
   </si>
   <si>
     <t>Stack/ChainStack</t>
-  </si>
-  <si>
-    <t>Stack/Stack</t>
   </si>
   <si>
     <t>ElfCloud_11</t>
@@ -1942,7 +1939,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -5732,7 +5729,7 @@
         <v>249</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F113" s="5">
         <v>0</v>
@@ -5758,22 +5755,22 @@
         <v>3000501</v>
       </c>
       <c r="B114" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" s="5" t="s">
+      <c r="E114" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="F114" s="5">
+        <v>0</v>
+      </c>
+      <c r="G114" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="F114" s="5">
-        <v>0</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="H114" s="5">
         <v>0</v>
@@ -5793,22 +5790,22 @@
         <v>3000502</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="E115" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0</v>
+      </c>
+      <c r="G115" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="F115" s="5">
-        <v>0</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="H115" s="5">
         <v>0</v>
@@ -5828,22 +5825,22 @@
         <v>3000601</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" s="5" t="s">
+      <c r="E116" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="F116" s="5">
+        <v>0</v>
+      </c>
+      <c r="G116" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="F116" s="5">
-        <v>0</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="H116" s="5">
         <v>1</v>
@@ -5863,22 +5860,22 @@
         <v>3000701</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="F117" s="5">
+        <v>0</v>
+      </c>
+      <c r="G117" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="F117" s="5">
-        <v>0</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="H117" s="5">
         <v>0</v>
@@ -5898,22 +5895,22 @@
         <v>3000801</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="F118" s="5">
+        <v>0</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="F118" s="5">
-        <v>0</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="H118" s="5">
         <v>1</v>
@@ -5933,22 +5930,22 @@
         <v>3000802</v>
       </c>
       <c r="B119" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>271</v>
-      </c>
       <c r="E119" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F119" s="5">
+        <v>0</v>
+      </c>
+      <c r="G119" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="F119" s="5">
-        <v>0</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="H119" s="5">
         <v>1</v>
@@ -5968,13 +5965,13 @@
         <v>3000803</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5">
@@ -6001,22 +5998,22 @@
         <v>3000804</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="E121" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F121" s="5">
         <v>3000805</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H121" s="5">
         <v>1</v>
@@ -6036,22 +6033,22 @@
         <v>3000805</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>277</v>
-      </c>
       <c r="E122" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F122" s="5">
         <v>3000806</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H122" s="5">
         <v>1</v>
@@ -6071,22 +6068,22 @@
         <v>3000806</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>279</v>
-      </c>
       <c r="E123" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F123" s="5">
+        <v>0</v>
+      </c>
+      <c r="G123" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="F123" s="5">
-        <v>0</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="H123" s="5">
         <v>1</v>
@@ -6106,20 +6103,20 @@
         <v>4000101</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5">
         <v>4000102</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H124" s="5">
         <v>1</v>
@@ -6139,20 +6136,20 @@
         <v>4000102</v>
       </c>
       <c r="B125" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5">
         <v>4000103</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H125" s="5">
         <v>1</v>
@@ -6172,20 +6169,20 @@
         <v>4000103</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5">
         <v>4000104</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H126" s="5">
         <v>1</v>
@@ -6205,20 +6202,20 @@
         <v>4000104</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5">
         <v>4000105</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H127" s="5">
         <v>1</v>
@@ -6238,20 +6235,20 @@
         <v>4000105</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>290</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5">
         <v>0</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H128" s="5">
         <v>1</v>
@@ -6271,20 +6268,20 @@
         <v>4000201</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>291</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5">
         <v>4000202</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H129" s="5">
         <v>1</v>
@@ -6304,20 +6301,20 @@
         <v>4000202</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="5" t="s">
         <v>293</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>294</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5">
         <v>4000203</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H130" s="5">
         <v>1</v>
@@ -6337,20 +6334,20 @@
         <v>4000203</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5">
         <v>4000204</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H131" s="5">
         <v>1</v>
@@ -6370,20 +6367,20 @@
         <v>4000204</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5">
         <v>4000205</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H132" s="5">
         <v>1</v>
@@ -6403,20 +6400,20 @@
         <v>4000205</v>
       </c>
       <c r="B133" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5">
         <v>0</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H133" s="5">
         <v>1</v>
@@ -6436,22 +6433,22 @@
         <v>5000001</v>
       </c>
       <c r="B134" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="6" t="s">
+      <c r="E134" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="F134" s="5">
+        <v>0</v>
+      </c>
+      <c r="G134" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="F134" s="5">
-        <v>0</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>304</v>
       </c>
       <c r="H134" s="5">
         <v>0</v>
@@ -6471,20 +6468,20 @@
         <v>5000002</v>
       </c>
       <c r="B135" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5">
         <v>0</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H135" s="5">
         <v>0</v>
@@ -6504,22 +6501,22 @@
         <v>9000001</v>
       </c>
       <c r="B136" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" s="6" t="s">
+      <c r="E136" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="F136" s="5">
+        <v>0</v>
+      </c>
+      <c r="G136" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="F136" s="5">
-        <v>0</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>310</v>
       </c>
       <c r="H136" s="5">
         <v>0</v>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -761,7 +761,7 @@
     <t>Chain/ChainStackHead</t>
   </si>
   <si>
-    <t>Stack</t>
+    <t>GrassStack</t>
   </si>
   <si>
     <t>Stack/GrassStack</t>
@@ -1939,7 +1939,7 @@
   <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1938,8 +1938,8 @@
   <sheetPr/>
   <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="316">
   <si>
     <t>ID</t>
   </si>
@@ -722,6 +722,12 @@
     <t>Generator/CGenerator/CGenerator_Lv3</t>
   </si>
   <si>
+    <t>GiftBag_Lv1</t>
+  </si>
+  <si>
+    <t>Generator/GiftBag/GiftBag_Lv1</t>
+  </si>
+  <si>
     <t>Fog</t>
   </si>
   <si>
@@ -761,6 +767,12 @@
     <t>Chain/ChainStackHead</t>
   </si>
   <si>
+    <t>WoodenStackHead</t>
+  </si>
+  <si>
+    <t>Chain/WoodenStackHead</t>
+  </si>
+  <si>
     <t>GrassStack</t>
   </si>
   <si>
@@ -777,6 +789,12 @@
   </si>
   <si>
     <t>Stack/ChainStack</t>
+  </si>
+  <si>
+    <t>WoodenStack</t>
+  </si>
+  <si>
+    <t>Stack/WoodenStack</t>
   </si>
   <si>
     <t>ElfCloud_11</t>
@@ -1936,10 +1954,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K136"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -5544,7 +5562,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="5">
-        <v>3000101</v>
+        <v>2000601</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>231</v>
@@ -5555,12 +5573,14 @@
       <c r="D108" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="E108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="F108" s="5">
         <v>0</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="H108" s="5">
         <v>0</v>
@@ -5569,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K108" s="5" t="s">
         <v>18</v>
@@ -5577,26 +5597,24 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="5">
-        <v>3000201</v>
+        <v>3000101</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="5" t="s">
+      <c r="E109" s="5"/>
+      <c r="F109" s="5">
+        <v>0</v>
+      </c>
+      <c r="G109" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E109" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F109" s="5">
-        <v>0</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="H109" s="5">
         <v>0</v>
       </c>
@@ -5604,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K109" s="5" t="s">
         <v>18</v>
@@ -5612,34 +5630,34 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="5">
-        <v>3000301</v>
+        <v>3000201</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="5" t="s">
+      <c r="F110" s="5">
+        <v>0</v>
+      </c>
+      <c r="G110" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F110" s="5">
-        <v>0</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="H110" s="5">
         <v>0</v>
       </c>
       <c r="I110" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>18</v>
@@ -5647,25 +5665,25 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="5">
-        <v>3000302</v>
+        <v>3000301</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E111" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="5" t="s">
+      <c r="F111" s="5">
+        <v>0</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F111" s="5">
-        <v>0</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="H111" s="5">
         <v>0</v>
@@ -5682,7 +5700,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="5">
-        <v>3000401</v>
+        <v>3000302</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>244</v>
@@ -5694,13 +5712,13 @@
         <v>245</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F112" s="5">
         <v>0</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H112" s="5">
         <v>0</v>
@@ -5709,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>18</v>
@@ -5717,25 +5735,25 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="5">
-        <v>3000402</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>248</v>
+        <v>3000303</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F113" s="5">
         <v>0</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H113" s="5">
         <v>0</v>
@@ -5744,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>18</v>
@@ -5752,26 +5770,26 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="5">
-        <v>3000501</v>
-      </c>
-      <c r="B114" s="6" t="s">
+        <v>3000401</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" s="5" t="s">
+      <c r="F114" s="5">
+        <v>0</v>
+      </c>
+      <c r="G114" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F114" s="5">
-        <v>0</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="H114" s="5">
         <v>0</v>
       </c>
@@ -5779,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>18</v>
@@ -5787,25 +5805,25 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="5">
-        <v>3000502</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>254</v>
+        <v>3000402</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F115" s="5">
         <v>0</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H115" s="5">
         <v>0</v>
@@ -5814,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K115" s="5" t="s">
         <v>18</v>
@@ -5822,34 +5840,34 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="5">
-        <v>3000601</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>257</v>
+        <v>3000403</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F116" s="5">
         <v>0</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H116" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K116" s="5" t="s">
         <v>18</v>
@@ -5857,25 +5875,25 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="5">
-        <v>3000701</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>261</v>
+        <v>3000501</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F117" s="5">
         <v>0</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H117" s="5">
         <v>0</v>
@@ -5884,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K117" s="5" t="s">
         <v>18</v>
@@ -5892,34 +5910,34 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="5">
-        <v>3000801</v>
+        <v>3000502</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>15</v>
+        <v>261</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F118" s="5">
         <v>0</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H118" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>18</v>
@@ -5927,25 +5945,25 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="5">
-        <v>3000802</v>
+        <v>3000601</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="F119" s="5">
         <v>0</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H119" s="5">
         <v>1</v>
@@ -5962,29 +5980,31 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="5">
-        <v>3000803</v>
+        <v>3000701</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E120" s="5"/>
+        <v>268</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="F120" s="5">
-        <v>3000804</v>
+        <v>0</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="H120" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" s="5">
         <v>1</v>
@@ -5995,25 +6015,25 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="5">
-        <v>3000804</v>
+        <v>3000801</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="5" t="s">
+      <c r="F121" s="5">
+        <v>0</v>
+      </c>
+      <c r="G121" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F121" s="5">
-        <v>3000805</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>268</v>
       </c>
       <c r="H121" s="5">
         <v>1</v>
@@ -6030,7 +6050,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="5">
-        <v>3000805</v>
+        <v>3000802</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>275</v>
@@ -6042,13 +6062,13 @@
         <v>276</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F122" s="5">
-        <v>3000806</v>
+        <v>0</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H122" s="5">
         <v>1</v>
@@ -6065,7 +6085,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="5">
-        <v>3000806</v>
+        <v>3000803</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>277</v>
@@ -6076,14 +6096,12 @@
       <c r="D123" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E123" s="6" t="s">
-        <v>267</v>
-      </c>
+      <c r="E123" s="5"/>
       <c r="F123" s="5">
-        <v>0</v>
+        <v>3000804</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="H123" s="5">
         <v>1</v>
@@ -6100,7 +6118,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="5">
-        <v>4000101</v>
+        <v>3000804</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>279</v>
@@ -6111,12 +6129,14 @@
       <c r="D124" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E124" s="5"/>
+      <c r="E124" s="6" t="s">
+        <v>273</v>
+      </c>
       <c r="F124" s="5">
-        <v>4000102</v>
+        <v>3000805</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H124" s="5">
         <v>1</v>
@@ -6133,23 +6153,25 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="5">
-        <v>4000102</v>
+        <v>3000805</v>
       </c>
       <c r="B125" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E125" s="5"/>
+      <c r="E125" s="6" t="s">
+        <v>273</v>
+      </c>
       <c r="F125" s="5">
-        <v>4000103</v>
+        <v>3000806</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H125" s="5">
         <v>1</v>
@@ -6166,23 +6188,25 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="5">
-        <v>4000103</v>
+        <v>3000806</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E126" s="5"/>
+      <c r="E126" s="6" t="s">
+        <v>273</v>
+      </c>
       <c r="F126" s="5">
-        <v>4000104</v>
+        <v>0</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H126" s="5">
         <v>1</v>
@@ -6199,23 +6223,23 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="5">
-        <v>4000104</v>
+        <v>4000101</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5">
-        <v>4000105</v>
+        <v>4000102</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H127" s="5">
         <v>1</v>
@@ -6232,7 +6256,7 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="5">
-        <v>4000105</v>
+        <v>4000102</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>288</v>
@@ -6245,10 +6269,10 @@
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5">
-        <v>0</v>
+        <v>4000103</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H128" s="5">
         <v>1</v>
@@ -6265,7 +6289,7 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="5">
-        <v>4000201</v>
+        <v>4000103</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>290</v>
@@ -6278,10 +6302,10 @@
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5">
-        <v>4000202</v>
+        <v>4000104</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H129" s="5">
         <v>1</v>
@@ -6298,7 +6322,7 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="5">
-        <v>4000202</v>
+        <v>4000104</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>292</v>
@@ -6311,10 +6335,10 @@
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5">
-        <v>4000203</v>
+        <v>4000105</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H130" s="5">
         <v>1</v>
@@ -6331,7 +6355,7 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="5">
-        <v>4000203</v>
+        <v>4000105</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>294</v>
@@ -6344,10 +6368,10 @@
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5">
-        <v>4000204</v>
+        <v>0</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H131" s="5">
         <v>1</v>
@@ -6364,7 +6388,7 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="5">
-        <v>4000204</v>
+        <v>4000201</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>296</v>
@@ -6377,10 +6401,10 @@
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5">
-        <v>4000205</v>
+        <v>4000202</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H132" s="5">
         <v>1</v>
@@ -6397,7 +6421,7 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="5">
-        <v>4000205</v>
+        <v>4000202</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>298</v>
@@ -6410,10 +6434,10 @@
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5">
-        <v>0</v>
+        <v>4000203</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H133" s="5">
         <v>1</v>
@@ -6430,104 +6454,203 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="5">
-        <v>5000001</v>
-      </c>
-      <c r="B134" s="6" t="s">
+        <v>4000203</v>
+      </c>
+      <c r="B134" s="5" t="s">
         <v>300</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="D134" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E134" s="6" t="s">
-        <v>302</v>
-      </c>
+      <c r="E134" s="5"/>
       <c r="F134" s="5">
-        <v>0</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>303</v>
+        <v>4000204</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="H134" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" s="5">
         <v>0</v>
       </c>
       <c r="J134" s="5">
-        <v>9</v>
-      </c>
-      <c r="K134" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K134" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="5">
-        <v>5000002</v>
+        <v>4000204</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D135" s="6" t="s">
-        <v>305</v>
+      <c r="D135" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5">
-        <v>0</v>
-      </c>
-      <c r="G135" s="6" t="s">
-        <v>303</v>
+        <v>4000205</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="H135" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" s="5">
         <v>0</v>
       </c>
       <c r="J135" s="5">
-        <v>9</v>
-      </c>
-      <c r="K135" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K135" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5">
+        <v>0</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H136" s="5">
+        <v>1</v>
+      </c>
+      <c r="I136" s="5">
+        <v>0</v>
+      </c>
+      <c r="J136" s="5">
+        <v>1</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="5">
+        <v>5000001</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F137" s="5">
+        <v>0</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H137" s="5">
+        <v>0</v>
+      </c>
+      <c r="I137" s="5">
+        <v>0</v>
+      </c>
+      <c r="J137" s="5">
+        <v>9</v>
+      </c>
+      <c r="K137" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="5">
+        <v>5000002</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5">
+        <v>0</v>
+      </c>
+      <c r="G138" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H138" s="5">
+        <v>0</v>
+      </c>
+      <c r="I138" s="5">
+        <v>0</v>
+      </c>
+      <c r="J138" s="5">
+        <v>9</v>
+      </c>
+      <c r="K138" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="5">
         <v>9000001</v>
       </c>
-      <c r="B136" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F136" s="5">
-        <v>0</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H136" s="5">
-        <v>0</v>
-      </c>
-      <c r="I136" s="5">
-        <v>0</v>
-      </c>
-      <c r="J136" s="5">
+      <c r="B139" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F139" s="5">
+        <v>0</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="H139" s="5">
+        <v>0</v>
+      </c>
+      <c r="I139" s="5">
+        <v>0</v>
+      </c>
+      <c r="J139" s="5">
         <v>9</v>
       </c>
-      <c r="K136" s="5" t="s">
+      <c r="K139" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="318">
   <si>
     <t>ID</t>
   </si>
@@ -486,6 +486,12 @@
   </si>
   <si>
     <t>Item/C/item_C_12_lv12</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Item/Sketch/Star</t>
   </si>
   <si>
     <t>Shu1_Lv1</t>
@@ -1954,10 +1960,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K139"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -4289,7 +4295,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="5">
-        <v>1200101</v>
+        <v>1110001</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>153</v>
@@ -4300,20 +4306,18 @@
       <c r="D71" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="E71" s="5"/>
       <c r="F71" s="5">
         <v>0</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="H71" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" s="5">
         <v>1</v>
@@ -4324,25 +4328,25 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="5">
-        <v>1200102</v>
+        <v>1200101</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="F72" s="5">
+        <v>0</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F72" s="5">
-        <v>0</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="H72" s="5">
         <v>0</v>
@@ -4359,7 +4363,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="5">
-        <v>1200103</v>
+        <v>1200102</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>159</v>
@@ -4371,13 +4375,13 @@
         <v>160</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H73" s="5">
         <v>0</v>
@@ -4394,7 +4398,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="5">
-        <v>1200201</v>
+        <v>1200103</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>161</v>
@@ -4406,13 +4410,13 @@
         <v>162</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F74" s="5">
         <v>0</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H74" s="5">
         <v>0</v>
@@ -4429,7 +4433,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="5">
-        <v>1200202</v>
+        <v>1200201</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>163</v>
@@ -4441,13 +4445,13 @@
         <v>164</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F75" s="5">
         <v>0</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H75" s="5">
         <v>0</v>
@@ -4464,7 +4468,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="5">
-        <v>1200203</v>
+        <v>1200202</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>165</v>
@@ -4476,13 +4480,13 @@
         <v>166</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F76" s="5">
         <v>0</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H76" s="5">
         <v>0</v>
@@ -4499,7 +4503,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="5">
-        <v>1200301</v>
+        <v>1200203</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>167</v>
@@ -4511,13 +4515,13 @@
         <v>168</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F77" s="5">
         <v>0</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H77" s="5">
         <v>0</v>
@@ -4534,7 +4538,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="5">
-        <v>1200302</v>
+        <v>1200301</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>169</v>
@@ -4546,13 +4550,13 @@
         <v>170</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F78" s="5">
         <v>0</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H78" s="5">
         <v>0</v>
@@ -4569,7 +4573,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="5">
-        <v>1200303</v>
+        <v>1200302</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>171</v>
@@ -4581,13 +4585,13 @@
         <v>172</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F79" s="5">
         <v>0</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H79" s="5">
         <v>0</v>
@@ -4604,7 +4608,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="5">
-        <v>2000101</v>
+        <v>1200303</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>173</v>
@@ -4615,18 +4619,20 @@
       <c r="D80" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="F80" s="5">
-        <v>2000102</v>
+        <v>0</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="H80" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" s="5">
         <v>1</v>
@@ -4637,7 +4643,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="5">
-        <v>2000102</v>
+        <v>2000101</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>175</v>
@@ -4650,7 +4656,7 @@
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5">
-        <v>2000103</v>
+        <v>2000102</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>17</v>
@@ -4670,7 +4676,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="5">
-        <v>2000103</v>
+        <v>2000102</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>177</v>
@@ -4683,7 +4689,7 @@
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5">
-        <v>2000104</v>
+        <v>2000103</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>17</v>
@@ -4703,7 +4709,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="5">
-        <v>2000104</v>
+        <v>2000103</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>179</v>
@@ -4714,14 +4720,12 @@
       <c r="D83" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="E83" s="5"/>
       <c r="F83" s="5">
-        <v>2000105</v>
+        <v>2000104</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="H83" s="5">
         <v>1</v>
@@ -4738,25 +4742,25 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="5">
+        <v>2000104</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F84" s="5">
         <v>2000105</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="G84" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F84" s="5">
-        <v>2000106</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="H84" s="5">
         <v>1</v>
@@ -4773,7 +4777,7 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="5">
-        <v>2000106</v>
+        <v>2000105</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>185</v>
@@ -4785,13 +4789,13 @@
         <v>186</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F85" s="5">
-        <v>2000107</v>
+        <v>2000106</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H85" s="5">
         <v>1</v>
@@ -4808,7 +4812,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="5">
-        <v>2000107</v>
+        <v>2000106</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>187</v>
@@ -4820,13 +4824,13 @@
         <v>188</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F86" s="5">
-        <v>0</v>
+        <v>2000107</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H86" s="5">
         <v>1</v>
@@ -4843,7 +4847,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="5">
-        <v>2000201</v>
+        <v>2000107</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>189</v>
@@ -4854,12 +4858,14 @@
       <c r="D87" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E87" s="5"/>
+      <c r="E87" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="F87" s="5">
-        <v>2000202</v>
+        <v>0</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="H87" s="5">
         <v>1</v>
@@ -4876,7 +4882,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="5">
-        <v>2000202</v>
+        <v>2000201</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>191</v>
@@ -4889,7 +4895,7 @@
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5">
-        <v>2000203</v>
+        <v>2000202</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>17</v>
@@ -4909,7 +4915,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="5">
-        <v>2000203</v>
+        <v>2000202</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>193</v>
@@ -4922,7 +4928,7 @@
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5">
-        <v>2000204</v>
+        <v>2000203</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>17</v>
@@ -4942,7 +4948,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="5">
-        <v>2000204</v>
+        <v>2000203</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>195</v>
@@ -4953,14 +4959,12 @@
       <c r="D90" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="E90" s="5"/>
       <c r="F90" s="5">
-        <v>2000205</v>
+        <v>2000204</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="H90" s="5">
         <v>1</v>
@@ -4977,7 +4981,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="5">
-        <v>2000205</v>
+        <v>2000204</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>197</v>
@@ -4989,13 +4993,13 @@
         <v>198</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F91" s="5">
-        <v>2000206</v>
+        <v>2000205</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H91" s="5">
         <v>1</v>
@@ -5012,7 +5016,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="5">
-        <v>2000206</v>
+        <v>2000205</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>199</v>
@@ -5024,13 +5028,13 @@
         <v>200</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F92" s="5">
-        <v>2000207</v>
+        <v>2000206</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H92" s="5">
         <v>1</v>
@@ -5047,7 +5051,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="5">
-        <v>2000207</v>
+        <v>2000206</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>201</v>
@@ -5059,13 +5063,13 @@
         <v>202</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F93" s="5">
-        <v>0</v>
+        <v>2000207</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H93" s="5">
         <v>1</v>
@@ -5082,7 +5086,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="5">
-        <v>2000301</v>
+        <v>2000207</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>203</v>
@@ -5093,12 +5097,14 @@
       <c r="D94" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E94" s="5"/>
+      <c r="E94" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="F94" s="5">
-        <v>2000302</v>
+        <v>0</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="H94" s="5">
         <v>1</v>
@@ -5115,7 +5121,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="5">
-        <v>2000302</v>
+        <v>2000301</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>205</v>
@@ -5128,7 +5134,7 @@
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5">
-        <v>2000303</v>
+        <v>2000302</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>17</v>
@@ -5148,7 +5154,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="5">
-        <v>2000303</v>
+        <v>2000302</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>207</v>
@@ -5161,7 +5167,7 @@
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5">
-        <v>2000304</v>
+        <v>2000303</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>17</v>
@@ -5181,7 +5187,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="5">
-        <v>2000304</v>
+        <v>2000303</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>209</v>
@@ -5192,14 +5198,12 @@
       <c r="D97" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E97" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="E97" s="5"/>
       <c r="F97" s="5">
-        <v>2000305</v>
+        <v>2000304</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="H97" s="5">
         <v>1</v>
@@ -5216,7 +5220,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="5">
-        <v>2000305</v>
+        <v>2000304</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>211</v>
@@ -5228,13 +5232,13 @@
         <v>212</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F98" s="5">
-        <v>2000306</v>
+        <v>2000305</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H98" s="5">
         <v>1</v>
@@ -5251,7 +5255,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="5">
-        <v>2000306</v>
+        <v>2000305</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>213</v>
@@ -5263,13 +5267,13 @@
         <v>214</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F99" s="5">
-        <v>2000307</v>
+        <v>2000306</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H99" s="5">
         <v>1</v>
@@ -5286,7 +5290,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="5">
-        <v>2000307</v>
+        <v>2000306</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>215</v>
@@ -5298,13 +5302,13 @@
         <v>216</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F100" s="5">
-        <v>2000308</v>
+        <v>2000307</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H100" s="5">
         <v>1</v>
@@ -5321,7 +5325,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="5">
-        <v>2000308</v>
+        <v>2000307</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>217</v>
@@ -5333,13 +5337,13 @@
         <v>218</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F101" s="5">
-        <v>0</v>
+        <v>2000308</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H101" s="5">
         <v>1</v>
@@ -5356,7 +5360,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="5">
-        <v>2000401</v>
+        <v>2000308</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>219</v>
@@ -5367,12 +5371,14 @@
       <c r="D102" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="F102" s="5">
-        <v>2000402</v>
+        <v>0</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="H102" s="5">
         <v>1</v>
@@ -5389,7 +5395,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="5">
-        <v>2000402</v>
+        <v>2000401</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>221</v>
@@ -5402,7 +5408,7 @@
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5">
-        <v>2000403</v>
+        <v>2000402</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>17</v>
@@ -5422,7 +5428,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="5">
-        <v>2000403</v>
+        <v>2000402</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>223</v>
@@ -5433,14 +5439,12 @@
       <c r="D104" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E104" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="E104" s="5"/>
       <c r="F104" s="5">
-        <v>0</v>
+        <v>2000403</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="H104" s="5">
         <v>1</v>
@@ -5457,7 +5461,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="5">
-        <v>2000501</v>
+        <v>2000403</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>225</v>
@@ -5469,19 +5473,19 @@
         <v>226</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F105" s="5">
         <v>0</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H105" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" s="5">
         <v>1</v>
@@ -5492,7 +5496,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="5">
-        <v>2000502</v>
+        <v>2000501</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>227</v>
@@ -5504,13 +5508,13 @@
         <v>228</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F106" s="5">
         <v>0</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H106" s="5">
         <v>0</v>
@@ -5527,7 +5531,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="5">
-        <v>2000503</v>
+        <v>2000502</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>229</v>
@@ -5539,13 +5543,13 @@
         <v>230</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F107" s="5">
         <v>0</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H107" s="5">
         <v>0</v>
@@ -5562,7 +5566,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="5">
-        <v>2000601</v>
+        <v>2000503</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>231</v>
@@ -5574,19 +5578,19 @@
         <v>232</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F108" s="5">
         <v>0</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H108" s="5">
         <v>0</v>
       </c>
       <c r="I108" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" s="5">
         <v>1</v>
@@ -5597,7 +5601,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="5">
-        <v>3000101</v>
+        <v>2000601</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>233</v>
@@ -5608,12 +5612,14 @@
       <c r="D109" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E109" s="5"/>
+      <c r="E109" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="F109" s="5">
         <v>0</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="H109" s="5">
         <v>0</v>
@@ -5622,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K109" s="5" t="s">
         <v>18</v>
@@ -5630,26 +5636,24 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="5">
-        <v>3000201</v>
+        <v>3000101</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="5" t="s">
+      <c r="E110" s="5"/>
+      <c r="F110" s="5">
+        <v>0</v>
+      </c>
+      <c r="G110" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F110" s="5">
-        <v>0</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="H110" s="5">
         <v>0</v>
       </c>
@@ -5657,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>18</v>
@@ -5665,34 +5669,34 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="5">
-        <v>3000301</v>
+        <v>3000201</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E111" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="5" t="s">
+      <c r="F111" s="5">
+        <v>0</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F111" s="5">
-        <v>0</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="H111" s="5">
         <v>0</v>
       </c>
       <c r="I111" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K111" s="5" t="s">
         <v>18</v>
@@ -5700,25 +5704,25 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="5">
-        <v>3000302</v>
+        <v>3000301</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E112" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="5" t="s">
+      <c r="F112" s="5">
+        <v>0</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F112" s="5">
-        <v>0</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="H112" s="5">
         <v>0</v>
@@ -5735,7 +5739,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="5">
-        <v>3000303</v>
+        <v>3000302</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>246</v>
@@ -5747,13 +5751,13 @@
         <v>247</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F113" s="5">
         <v>0</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H113" s="5">
         <v>0</v>
@@ -5770,7 +5774,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="5">
-        <v>3000401</v>
+        <v>3000303</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>248</v>
@@ -5782,13 +5786,13 @@
         <v>249</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F114" s="5">
         <v>0</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H114" s="5">
         <v>0</v>
@@ -5797,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>18</v>
@@ -5805,25 +5809,25 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="5">
-        <v>3000402</v>
-      </c>
-      <c r="B115" s="6" t="s">
+        <v>3000401</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E115" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="5" t="s">
+      <c r="F115" s="5">
+        <v>0</v>
+      </c>
+      <c r="G115" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F115" s="5">
-        <v>0</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="H115" s="5">
         <v>0</v>
@@ -5840,7 +5844,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="5">
-        <v>3000403</v>
+        <v>3000402</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>254</v>
@@ -5852,13 +5856,13 @@
         <v>255</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F116" s="5">
         <v>0</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H116" s="5">
         <v>0</v>
@@ -5875,7 +5879,7 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="5">
-        <v>3000501</v>
+        <v>3000403</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>256</v>
@@ -5887,13 +5891,13 @@
         <v>257</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F117" s="5">
         <v>0</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H117" s="5">
         <v>0</v>
@@ -5902,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K117" s="5" t="s">
         <v>18</v>
@@ -5910,25 +5914,25 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="5">
-        <v>3000502</v>
-      </c>
-      <c r="B118" s="5" t="s">
+        <v>3000501</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E118" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="F118" s="5">
+        <v>0</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F118" s="5">
-        <v>0</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="H118" s="5">
         <v>0</v>
@@ -5945,34 +5949,34 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="5">
-        <v>3000601</v>
+        <v>3000502</v>
       </c>
       <c r="B119" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>264</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F119" s="5">
         <v>0</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H119" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>18</v>
@@ -5980,31 +5984,31 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="5">
-        <v>3000701</v>
+        <v>3000601</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E120" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="5" t="s">
+      <c r="F120" s="5">
+        <v>0</v>
+      </c>
+      <c r="G120" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E120" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F120" s="5">
-        <v>0</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="H120" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" s="5">
         <v>1</v>
@@ -6015,31 +6019,31 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="5">
-        <v>3000801</v>
+        <v>3000701</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="5" t="s">
+      <c r="F121" s="5">
+        <v>0</v>
+      </c>
+      <c r="G121" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="E121" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F121" s="5">
-        <v>0</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="H121" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="5">
         <v>1</v>
@@ -6050,25 +6054,25 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="5">
-        <v>3000802</v>
+        <v>3000801</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E122" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="5" t="s">
+      <c r="F122" s="5">
+        <v>0</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F122" s="5">
-        <v>0</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="H122" s="5">
         <v>1</v>
@@ -6085,7 +6089,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="5">
-        <v>3000803</v>
+        <v>3000802</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>277</v>
@@ -6096,12 +6100,14 @@
       <c r="D123" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E123" s="5"/>
+      <c r="E123" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="F123" s="5">
-        <v>3000804</v>
+        <v>0</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
       <c r="H123" s="5">
         <v>1</v>
@@ -6118,7 +6124,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="5">
-        <v>3000804</v>
+        <v>3000803</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>279</v>
@@ -6129,14 +6135,12 @@
       <c r="D124" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E124" s="6" t="s">
-        <v>273</v>
-      </c>
+      <c r="E124" s="5"/>
       <c r="F124" s="5">
-        <v>3000805</v>
+        <v>3000804</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>274</v>
+        <v>17</v>
       </c>
       <c r="H124" s="5">
         <v>1</v>
@@ -6153,7 +6157,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="5">
-        <v>3000805</v>
+        <v>3000804</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>281</v>
@@ -6165,13 +6169,13 @@
         <v>282</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F125" s="5">
-        <v>3000806</v>
+        <v>3000805</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H125" s="5">
         <v>1</v>
@@ -6188,7 +6192,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="5">
-        <v>3000806</v>
+        <v>3000805</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>283</v>
@@ -6200,13 +6204,13 @@
         <v>284</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F126" s="5">
-        <v>0</v>
+        <v>3000806</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H126" s="5">
         <v>1</v>
@@ -6223,7 +6227,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="5">
-        <v>4000101</v>
+        <v>3000806</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>285</v>
@@ -6234,12 +6238,14 @@
       <c r="D127" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E127" s="5"/>
+      <c r="E127" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="F127" s="5">
-        <v>4000102</v>
+        <v>0</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H127" s="5">
         <v>1</v>
@@ -6256,23 +6262,23 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="5">
-        <v>4000102</v>
+        <v>4000101</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5">
-        <v>4000103</v>
+        <v>4000102</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H128" s="5">
         <v>1</v>
@@ -6289,7 +6295,7 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="5">
-        <v>4000103</v>
+        <v>4000102</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>290</v>
@@ -6302,10 +6308,10 @@
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5">
-        <v>4000104</v>
+        <v>4000103</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H129" s="5">
         <v>1</v>
@@ -6322,7 +6328,7 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="5">
-        <v>4000104</v>
+        <v>4000103</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>292</v>
@@ -6335,10 +6341,10 @@
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5">
-        <v>4000105</v>
+        <v>4000104</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H130" s="5">
         <v>1</v>
@@ -6355,7 +6361,7 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="5">
-        <v>4000105</v>
+        <v>4000104</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>294</v>
@@ -6368,10 +6374,10 @@
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5">
-        <v>0</v>
+        <v>4000105</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H131" s="5">
         <v>1</v>
@@ -6388,7 +6394,7 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="5">
-        <v>4000201</v>
+        <v>4000105</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>296</v>
@@ -6401,10 +6407,10 @@
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5">
-        <v>4000202</v>
+        <v>0</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H132" s="5">
         <v>1</v>
@@ -6421,7 +6427,7 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="5">
-        <v>4000202</v>
+        <v>4000201</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>298</v>
@@ -6434,10 +6440,10 @@
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5">
-        <v>4000203</v>
+        <v>4000202</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H133" s="5">
         <v>1</v>
@@ -6454,7 +6460,7 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="5">
-        <v>4000203</v>
+        <v>4000202</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>300</v>
@@ -6467,10 +6473,10 @@
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5">
-        <v>4000204</v>
+        <v>4000203</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H134" s="5">
         <v>1</v>
@@ -6487,7 +6493,7 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="5">
-        <v>4000204</v>
+        <v>4000203</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>302</v>
@@ -6500,10 +6506,10 @@
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5">
-        <v>4000205</v>
+        <v>4000204</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H135" s="5">
         <v>1</v>
@@ -6520,7 +6526,7 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="5">
-        <v>4000205</v>
+        <v>4000204</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>304</v>
@@ -6533,10 +6539,10 @@
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5">
-        <v>0</v>
+        <v>4000205</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H136" s="5">
         <v>1</v>
@@ -6553,58 +6559,58 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="5">
-        <v>5000001</v>
-      </c>
-      <c r="B137" s="6" t="s">
+        <v>4000205</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>306</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E137" s="6" t="s">
-        <v>308</v>
-      </c>
+      <c r="E137" s="5"/>
       <c r="F137" s="5">
         <v>0</v>
       </c>
-      <c r="G137" s="6" t="s">
-        <v>309</v>
+      <c r="G137" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="H137" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" s="5">
         <v>0</v>
       </c>
       <c r="J137" s="5">
-        <v>9</v>
-      </c>
-      <c r="K137" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K137" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="5">
-        <v>5000002</v>
-      </c>
-      <c r="B138" s="5" t="s">
+        <v>5000001</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E138" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" s="6" t="s">
+      <c r="F138" s="5">
+        <v>0</v>
+      </c>
+      <c r="G138" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5">
-        <v>0</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="H138" s="5">
         <v>0</v>
@@ -6621,7 +6627,7 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="5">
-        <v>9000001</v>
+        <v>5000002</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>312</v>
@@ -6632,14 +6638,12 @@
       <c r="D139" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E139" s="5" t="s">
-        <v>314</v>
-      </c>
+      <c r="E139" s="5"/>
       <c r="F139" s="5">
         <v>0</v>
       </c>
-      <c r="G139" s="5" t="s">
-        <v>315</v>
+      <c r="G139" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="H139" s="5">
         <v>0</v>
@@ -6650,7 +6654,42 @@
       <c r="J139" s="5">
         <v>9</v>
       </c>
-      <c r="K139" s="5" t="s">
+      <c r="K139" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="5">
+        <v>9000001</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F140" s="5">
+        <v>0</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="H140" s="5">
+        <v>0</v>
+      </c>
+      <c r="I140" s="5">
+        <v>0</v>
+      </c>
+      <c r="J140" s="5">
+        <v>9</v>
+      </c>
+      <c r="K140" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1962,8 +1962,8 @@
   <sheetPr/>
   <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="326">
   <si>
     <t>ID</t>
   </si>
@@ -803,6 +803,12 @@
     <t>Stack/WoodenStack</t>
   </si>
   <si>
+    <t>StoneStack</t>
+  </si>
+  <si>
+    <t>Stack/StoneStack</t>
+  </si>
+  <si>
     <t>ElfCloud_11</t>
   </si>
   <si>
@@ -888,6 +894,24 @@
   </si>
   <si>
     <t>Chest/CommonChest_Lv4</t>
+  </si>
+  <si>
+    <t>StickArrow</t>
+  </si>
+  <si>
+    <t>StickProp/StickArrow</t>
+  </si>
+  <si>
+    <t>StickBomb</t>
+  </si>
+  <si>
+    <t>StickProp/StickBomb</t>
+  </si>
+  <si>
+    <t>StickFly</t>
+  </si>
+  <si>
+    <t>StickProp/StickFly</t>
   </si>
   <si>
     <t>Energy_Lv1</t>
@@ -1960,10 +1984,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K140"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
@@ -5914,7 +5938,7 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="5">
-        <v>3000501</v>
+        <v>3000404</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>258</v>
@@ -5926,13 +5950,13 @@
         <v>259</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F118" s="5">
         <v>0</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H118" s="5">
         <v>0</v>
@@ -5941,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>18</v>
@@ -5949,25 +5973,25 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="5">
-        <v>3000502</v>
-      </c>
-      <c r="B119" s="5" t="s">
+        <v>3000501</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E119" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="F119" s="5">
+        <v>0</v>
+      </c>
+      <c r="G119" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F119" s="5">
-        <v>0</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="H119" s="5">
         <v>0</v>
@@ -5984,34 +6008,34 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="5">
-        <v>3000601</v>
+        <v>3000502</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>266</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F120" s="5">
         <v>0</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H120" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K120" s="5" t="s">
         <v>18</v>
@@ -6019,31 +6043,31 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="5">
-        <v>3000701</v>
+        <v>3000601</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E121" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" s="5" t="s">
+      <c r="F121" s="5">
+        <v>0</v>
+      </c>
+      <c r="G121" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E121" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F121" s="5">
-        <v>0</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>272</v>
-      </c>
       <c r="H121" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="5">
         <v>1</v>
@@ -6054,31 +6078,31 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="5">
-        <v>3000801</v>
+        <v>3000701</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E122" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="5" t="s">
+      <c r="F122" s="5">
+        <v>0</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E122" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F122" s="5">
-        <v>0</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>276</v>
-      </c>
       <c r="H122" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" s="5">
         <v>1</v>
@@ -6089,25 +6113,25 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="5">
-        <v>3000802</v>
+        <v>3000801</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E123" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="5" t="s">
+      <c r="F123" s="5">
+        <v>0</v>
+      </c>
+      <c r="G123" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F123" s="5">
-        <v>0</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="H123" s="5">
         <v>1</v>
@@ -6124,7 +6148,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="5">
-        <v>3000803</v>
+        <v>3000802</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>279</v>
@@ -6135,12 +6159,14 @@
       <c r="D124" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E124" s="5"/>
+      <c r="E124" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="F124" s="5">
-        <v>3000804</v>
+        <v>0</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>17</v>
+        <v>278</v>
       </c>
       <c r="H124" s="5">
         <v>1</v>
@@ -6157,7 +6183,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="5">
-        <v>3000804</v>
+        <v>3000803</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>281</v>
@@ -6168,14 +6194,12 @@
       <c r="D125" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>275</v>
-      </c>
+      <c r="E125" s="5"/>
       <c r="F125" s="5">
-        <v>3000805</v>
+        <v>3000804</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>276</v>
+        <v>17</v>
       </c>
       <c r="H125" s="5">
         <v>1</v>
@@ -6192,7 +6216,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="5">
-        <v>3000805</v>
+        <v>3000804</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>283</v>
@@ -6204,13 +6228,13 @@
         <v>284</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F126" s="5">
-        <v>3000806</v>
+        <v>3000805</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H126" s="5">
         <v>1</v>
@@ -6227,7 +6251,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="5">
-        <v>3000806</v>
+        <v>3000805</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>285</v>
@@ -6239,13 +6263,13 @@
         <v>286</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F127" s="5">
-        <v>0</v>
+        <v>3000806</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H127" s="5">
         <v>1</v>
@@ -6262,7 +6286,7 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="5">
-        <v>4000101</v>
+        <v>3000806</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>287</v>
@@ -6273,12 +6297,14 @@
       <c r="D128" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E128" s="5"/>
+      <c r="E128" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="F128" s="5">
-        <v>4000102</v>
+        <v>0</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H128" s="5">
         <v>1</v>
@@ -6295,32 +6321,32 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="5">
-        <v>4000102</v>
+        <v>3000901</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5">
-        <v>4000103</v>
+        <v>0</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="H129" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>18</v>
@@ -6328,32 +6354,32 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="5">
-        <v>4000103</v>
+        <v>3000902</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5">
-        <v>4000104</v>
+        <v>0</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="H130" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K130" s="5" t="s">
         <v>18</v>
@@ -6361,32 +6387,32 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="5">
-        <v>4000104</v>
+        <v>3000903</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5">
-        <v>4000105</v>
+        <v>0</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="H131" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>18</v>
@@ -6394,23 +6420,23 @@
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="5">
-        <v>4000105</v>
+        <v>4000101</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5">
-        <v>0</v>
+        <v>4000102</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H132" s="5">
         <v>1</v>
@@ -6427,7 +6453,7 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="5">
-        <v>4000201</v>
+        <v>4000102</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>298</v>
@@ -6440,10 +6466,10 @@
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5">
-        <v>4000202</v>
+        <v>4000103</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H133" s="5">
         <v>1</v>
@@ -6460,7 +6486,7 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="5">
-        <v>4000202</v>
+        <v>4000103</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>300</v>
@@ -6473,10 +6499,10 @@
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5">
-        <v>4000203</v>
+        <v>4000104</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H134" s="5">
         <v>1</v>
@@ -6493,7 +6519,7 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="5">
-        <v>4000203</v>
+        <v>4000104</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>302</v>
@@ -6506,10 +6532,10 @@
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5">
-        <v>4000204</v>
+        <v>4000105</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H135" s="5">
         <v>1</v>
@@ -6526,7 +6552,7 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="5">
-        <v>4000204</v>
+        <v>4000105</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>304</v>
@@ -6539,10 +6565,10 @@
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5">
-        <v>4000205</v>
+        <v>0</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H136" s="5">
         <v>1</v>
@@ -6559,7 +6585,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="5">
-        <v>4000205</v>
+        <v>4000201</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>306</v>
@@ -6572,10 +6598,10 @@
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5">
-        <v>0</v>
+        <v>4000202</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H137" s="5">
         <v>1</v>
@@ -6592,104 +6618,236 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="5">
-        <v>5000001</v>
-      </c>
-      <c r="B138" s="6" t="s">
+        <v>4000202</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>308</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D138" s="6" t="s">
+      <c r="D138" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E138" s="6" t="s">
-        <v>310</v>
-      </c>
+      <c r="E138" s="5"/>
       <c r="F138" s="5">
-        <v>0</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>311</v>
+        <v>4000203</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="H138" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" s="5">
         <v>0</v>
       </c>
       <c r="J138" s="5">
-        <v>9</v>
-      </c>
-      <c r="K138" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K138" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="5">
-        <v>5000002</v>
+        <v>4000203</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D139" s="6" t="s">
-        <v>313</v>
+      <c r="D139" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5">
-        <v>0</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>311</v>
+        <v>4000204</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="H139" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" s="5">
         <v>0</v>
       </c>
       <c r="J139" s="5">
-        <v>9</v>
-      </c>
-      <c r="K139" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K139" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="5">
+        <v>4000204</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="H140" s="5">
+        <v>1</v>
+      </c>
+      <c r="I140" s="5">
+        <v>0</v>
+      </c>
+      <c r="J140" s="5">
+        <v>1</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="5">
+        <v>4000205</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5">
+        <v>0</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="H141" s="5">
+        <v>1</v>
+      </c>
+      <c r="I141" s="5">
+        <v>0</v>
+      </c>
+      <c r="J141" s="5">
+        <v>1</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="5">
+        <v>5000001</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F142" s="5">
+        <v>0</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H142" s="5">
+        <v>0</v>
+      </c>
+      <c r="I142" s="5">
+        <v>0</v>
+      </c>
+      <c r="J142" s="5">
+        <v>9</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="5">
+        <v>5000002</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5">
+        <v>0</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H143" s="5">
+        <v>0</v>
+      </c>
+      <c r="I143" s="5">
+        <v>0</v>
+      </c>
+      <c r="J143" s="5">
+        <v>9</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="5">
         <v>9000001</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F140" s="5">
-        <v>0</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="H140" s="5">
-        <v>0</v>
-      </c>
-      <c r="I140" s="5">
-        <v>0</v>
-      </c>
-      <c r="J140" s="5">
+      <c r="B144" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F144" s="5">
+        <v>0</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H144" s="5">
+        <v>0</v>
+      </c>
+      <c r="I144" s="5">
+        <v>0</v>
+      </c>
+      <c r="J144" s="5">
         <v>9</v>
       </c>
-      <c r="K140" s="5" t="s">
+      <c r="K144" s="5" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2241974B-8229-42FA-83C9-EBE3C56E8306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1010,14 +1003,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,155 +1017,19 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1187,192 +1038,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1395,255 +1066,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1662,65 +1091,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1978,32 +1360,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.2166666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.775" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.1083333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.4416666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.8833333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.1083333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.8833333333333" style="2" customWidth="1"/>
-    <col min="8" max="11" width="16.3333333333333" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.88333333333333" style="2"/>
+    <col min="1" max="1" width="13.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="2" customWidth="1"/>
+    <col min="8" max="11" width="16.33203125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="17.5" spans="1:11">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +1420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="17.5" spans="1:11">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -2073,7 +1455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1100101</v>
       </c>
@@ -2106,7 +1488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1100102</v>
       </c>
@@ -2139,7 +1521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1100103</v>
       </c>
@@ -2172,7 +1554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1100104</v>
       </c>
@@ -2205,7 +1587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1100105</v>
       </c>
@@ -2238,7 +1620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1100201</v>
       </c>
@@ -2271,7 +1653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1100202</v>
       </c>
@@ -2304,7 +1686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1100203</v>
       </c>
@@ -2337,7 +1719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1100204</v>
       </c>
@@ -2370,7 +1752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1100205</v>
       </c>
@@ -2403,7 +1785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>1100206</v>
       </c>
@@ -2436,7 +1818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>1100207</v>
       </c>
@@ -2469,7 +1851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1100301</v>
       </c>
@@ -2502,7 +1884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1100302</v>
       </c>
@@ -2535,7 +1917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1100303</v>
       </c>
@@ -2568,7 +1950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1100304</v>
       </c>
@@ -2601,7 +1983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1100305</v>
       </c>
@@ -2634,7 +2016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>1100306</v>
       </c>
@@ -2667,7 +2049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>1100307</v>
       </c>
@@ -2700,7 +2082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>1100308</v>
       </c>
@@ -2733,7 +2115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>1100309</v>
       </c>
@@ -2766,7 +2148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>1100310</v>
       </c>
@@ -2799,7 +2181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>1100401</v>
       </c>
@@ -2832,7 +2214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>1100402</v>
       </c>
@@ -2865,7 +2247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>1100403</v>
       </c>
@@ -2898,7 +2280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>1100404</v>
       </c>
@@ -2931,7 +2313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>1100501</v>
       </c>
@@ -2964,7 +2346,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>1100502</v>
       </c>
@@ -2997,7 +2379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>1100503</v>
       </c>
@@ -3030,7 +2412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>1100504</v>
       </c>
@@ -3063,7 +2445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>1100505</v>
       </c>
@@ -3096,7 +2478,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>1100601</v>
       </c>
@@ -3129,7 +2511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>1100602</v>
       </c>
@@ -3162,7 +2544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>1100603</v>
       </c>
@@ -3195,7 +2577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>1100604</v>
       </c>
@@ -3228,7 +2610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1100605</v>
       </c>
@@ -3261,7 +2643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>1100606</v>
       </c>
@@ -3294,7 +2676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>1100607</v>
       </c>
@@ -3327,7 +2709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>1100701</v>
       </c>
@@ -3360,7 +2742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>1100702</v>
       </c>
@@ -3393,7 +2775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>1100703</v>
       </c>
@@ -3426,7 +2808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>1100704</v>
       </c>
@@ -3459,7 +2841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>1100705</v>
       </c>
@@ -3492,7 +2874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>1100706</v>
       </c>
@@ -3525,7 +2907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>1100707</v>
       </c>
@@ -3558,7 +2940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>1100708</v>
       </c>
@@ -3591,7 +2973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>1100709</v>
       </c>
@@ -3624,7 +3006,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>1100710</v>
       </c>
@@ -3657,7 +3039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>1100711</v>
       </c>
@@ -3690,7 +3072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>1100801</v>
       </c>
@@ -3723,7 +3105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>1100802</v>
       </c>
@@ -3756,7 +3138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>1100803</v>
       </c>
@@ -3789,7 +3171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>1100804</v>
       </c>
@@ -3822,7 +3204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>1100805</v>
       </c>
@@ -3855,7 +3237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>1100806</v>
       </c>
@@ -3888,7 +3270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>1100807</v>
       </c>
@@ -3921,7 +3303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>1100901</v>
       </c>
@@ -3954,7 +3336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>1100902</v>
       </c>
@@ -3987,7 +3369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>1100903</v>
       </c>
@@ -4020,7 +3402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>1100904</v>
       </c>
@@ -4053,7 +3435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>1100905</v>
       </c>
@@ -4086,7 +3468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>1100906</v>
       </c>
@@ -4119,7 +3501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>1100907</v>
       </c>
@@ -4152,7 +3534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>1100908</v>
       </c>
@@ -4185,7 +3567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>1100909</v>
       </c>
@@ -4218,7 +3600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>1100910</v>
       </c>
@@ -4251,7 +3633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>1100911</v>
       </c>
@@ -4284,7 +3666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>1100912</v>
       </c>
@@ -4317,7 +3699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>1110001</v>
       </c>
@@ -4350,7 +3732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>1200101</v>
       </c>
@@ -4385,7 +3767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>1200102</v>
       </c>
@@ -4420,7 +3802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>1200103</v>
       </c>
@@ -4455,7 +3837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>1200201</v>
       </c>
@@ -4490,7 +3872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>1200202</v>
       </c>
@@ -4525,7 +3907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>1200203</v>
       </c>
@@ -4560,7 +3942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>1200301</v>
       </c>
@@ -4595,7 +3977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>1200302</v>
       </c>
@@ -4630,7 +4012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>1200303</v>
       </c>
@@ -4665,7 +4047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>2000101</v>
       </c>
@@ -4698,7 +4080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>2000102</v>
       </c>
@@ -4731,7 +4113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>2000103</v>
       </c>
@@ -4764,7 +4146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>2000104</v>
       </c>
@@ -4799,7 +4181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>2000105</v>
       </c>
@@ -4834,7 +4216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>2000106</v>
       </c>
@@ -4869,7 +4251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>2000107</v>
       </c>
@@ -4904,7 +4286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>2000201</v>
       </c>
@@ -4937,7 +4319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>2000202</v>
       </c>
@@ -4970,7 +4352,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>2000203</v>
       </c>
@@ -5003,7 +4385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>2000204</v>
       </c>
@@ -5038,7 +4420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>2000205</v>
       </c>
@@ -5073,7 +4455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>2000206</v>
       </c>
@@ -5108,7 +4490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>2000207</v>
       </c>
@@ -5143,7 +4525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>2000301</v>
       </c>
@@ -5176,7 +4558,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>2000302</v>
       </c>
@@ -5209,7 +4591,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>2000303</v>
       </c>
@@ -5242,7 +4624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>2000304</v>
       </c>
@@ -5277,7 +4659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>2000305</v>
       </c>
@@ -5312,7 +4694,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>2000306</v>
       </c>
@@ -5347,7 +4729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>2000307</v>
       </c>
@@ -5382,7 +4764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>2000308</v>
       </c>
@@ -5417,7 +4799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>2000401</v>
       </c>
@@ -5450,7 +4832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>2000402</v>
       </c>
@@ -5483,7 +4865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>2000403</v>
       </c>
@@ -5518,7 +4900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>2000501</v>
       </c>
@@ -5553,7 +4935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>2000502</v>
       </c>
@@ -5588,7 +4970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>2000503</v>
       </c>
@@ -5623,7 +5005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>2000601</v>
       </c>
@@ -5658,7 +5040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>3000101</v>
       </c>
@@ -5691,7 +5073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>3000201</v>
       </c>
@@ -5726,7 +5108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>3000301</v>
       </c>
@@ -5761,7 +5143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>3000302</v>
       </c>
@@ -5796,7 +5178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>3000303</v>
       </c>
@@ -5831,7 +5213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>3000401</v>
       </c>
@@ -5866,11 +5248,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>3000402</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="5" t="s">
         <v>254</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -5901,11 +5283,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>3000403</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>256</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -5936,11 +5318,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>3000404</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="5" t="s">
         <v>258</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -5971,11 +5353,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>3000501</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>260</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -6006,7 +5388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>3000502</v>
       </c>
@@ -6041,7 +5423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>3000601</v>
       </c>
@@ -6076,7 +5458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>3000701</v>
       </c>
@@ -6111,7 +5493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>3000801</v>
       </c>
@@ -6146,7 +5528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>3000802</v>
       </c>
@@ -6159,7 +5541,7 @@
       <c r="D124" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E124" s="5" t="s">
         <v>277</v>
       </c>
       <c r="F124" s="5">
@@ -6181,7 +5563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>3000803</v>
       </c>
@@ -6214,7 +5596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>3000804</v>
       </c>
@@ -6227,7 +5609,7 @@
       <c r="D126" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="E126" s="5" t="s">
         <v>277</v>
       </c>
       <c r="F126" s="5">
@@ -6249,7 +5631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>3000805</v>
       </c>
@@ -6262,7 +5644,7 @@
       <c r="D127" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="E127" s="5" t="s">
         <v>277</v>
       </c>
       <c r="F127" s="5">
@@ -6284,7 +5666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>3000806</v>
       </c>
@@ -6297,7 +5679,7 @@
       <c r="D128" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="E128" s="5" t="s">
         <v>277</v>
       </c>
       <c r="F128" s="5">
@@ -6319,7 +5701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>3000901</v>
       </c>
@@ -6352,7 +5734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>3000902</v>
       </c>
@@ -6385,7 +5767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>3000903</v>
       </c>
@@ -6418,7 +5800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>4000101</v>
       </c>
@@ -6451,7 +5833,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>4000102</v>
       </c>
@@ -6484,7 +5866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>4000103</v>
       </c>
@@ -6517,7 +5899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>4000104</v>
       </c>
@@ -6550,7 +5932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>4000105</v>
       </c>
@@ -6583,7 +5965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>4000201</v>
       </c>
@@ -6616,7 +5998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>4000202</v>
       </c>
@@ -6649,7 +6031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>4000203</v>
       </c>
@@ -6682,7 +6064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>4000204</v>
       </c>
@@ -6715,7 +6097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>4000205</v>
       </c>
@@ -6748,26 +6130,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>5000001</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="5" t="s">
         <v>316</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="5" t="s">
         <v>318</v>
       </c>
       <c r="F142" s="5">
         <v>0</v>
       </c>
-      <c r="G142" s="6" t="s">
+      <c r="G142" s="5" t="s">
         <v>319</v>
       </c>
       <c r="H142" s="5">
@@ -6779,11 +6161,11 @@
       <c r="J142" s="5">
         <v>9</v>
       </c>
-      <c r="K142" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="K142" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>5000002</v>
       </c>
@@ -6793,14 +6175,14 @@
       <c r="C143" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D143" s="6" t="s">
+      <c r="D143" s="5" t="s">
         <v>321</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5">
         <v>0</v>
       </c>
-      <c r="G143" s="6" t="s">
+      <c r="G143" s="5" t="s">
         <v>319</v>
       </c>
       <c r="H143" s="5">
@@ -6812,11 +6194,11 @@
       <c r="J143" s="5">
         <v>9</v>
       </c>
-      <c r="K143" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="K143" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>9000001</v>
       </c>
@@ -6826,7 +6208,7 @@
       <c r="C144" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D144" s="6" t="s">
+      <c r="D144" s="5" t="s">
         <v>323</v>
       </c>
       <c r="E144" s="5" t="s">
@@ -6852,8 +6234,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Excel/ItemConfig.xlsx
+++ b/Assets/Resources/Excel/ItemConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2241974B-8229-42FA-83C9-EBE3C56E8306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE0EE2D-DB01-4F5B-9BA4-8D196955F114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1368,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
